--- a/data_source/paper_production.xlsx
+++ b/data_source/paper_production.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,10 +469,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>210.1892656523751</v>
+        <v>395.7664304368906</v>
       </c>
       <c r="D2" t="n">
-        <v>95.32741971934058</v>
+        <v>85.25191598830857</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>313.9630405833955</v>
+        <v>365.8904309446847</v>
       </c>
       <c r="D3" t="n">
-        <v>76.68774293127412</v>
+        <v>95.55475997225895</v>
       </c>
     </row>
     <row r="4">
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>410.8554412641617</v>
+        <v>461.4936009228847</v>
       </c>
       <c r="D4" t="n">
-        <v>80.46731606678361</v>
+        <v>81.70277196719557</v>
       </c>
     </row>
     <row r="5">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>458.4215984224058</v>
+        <v>120.6640984181718</v>
       </c>
       <c r="D5" t="n">
-        <v>79.68072179438803</v>
+        <v>96.49740542780053</v>
       </c>
     </row>
     <row r="6">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>210.1724111990427</v>
+        <v>343.3424517217094</v>
       </c>
       <c r="D6" t="n">
-        <v>83.65527632546926</v>
+        <v>87.86567941226579</v>
       </c>
     </row>
     <row r="7">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>499.596744267124</v>
+        <v>109.9244446192002</v>
       </c>
       <c r="D7" t="n">
-        <v>86.77506191630762</v>
+        <v>76.91136877594273</v>
       </c>
     </row>
     <row r="8">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>313.9413577077651</v>
+        <v>106.4416691058128</v>
       </c>
       <c r="D8" t="n">
-        <v>92.80425544853692</v>
+        <v>86.56603851774231</v>
       </c>
     </row>
     <row r="9">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>246.6132459939746</v>
+        <v>173.563092543245</v>
       </c>
       <c r="D9" t="n">
-        <v>96.09155324608217</v>
+        <v>83.61893977857629</v>
       </c>
     </row>
     <row r="10">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>334.9211598125614</v>
+        <v>346.7862926164632</v>
       </c>
       <c r="D10" t="n">
-        <v>95.92501554055039</v>
+        <v>95.45565227781699</v>
       </c>
     </row>
     <row r="11">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>337.3512313210944</v>
+        <v>407.3798986734864</v>
       </c>
       <c r="D11" t="n">
-        <v>76.9490106213994</v>
+        <v>83.79086015081083</v>
       </c>
     </row>
     <row r="12">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>482.9647264555778</v>
+        <v>296.6233342869783</v>
       </c>
       <c r="D12" t="n">
-        <v>83.27009753646661</v>
+        <v>88.30398649926917</v>
       </c>
     </row>
     <row r="13">
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>465.2653675654755</v>
+        <v>483.6533087042829</v>
       </c>
       <c r="D13" t="n">
-        <v>82.16525030566051</v>
+        <v>92.70706923576756</v>
       </c>
     </row>
     <row r="14">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>295.340754658061</v>
+        <v>253.2659337373411</v>
       </c>
       <c r="D14" t="n">
-        <v>75.72261740072599</v>
+        <v>79.35595008882515</v>
       </c>
     </row>
     <row r="15">
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>432.0330416361718</v>
+        <v>132.408292824464</v>
       </c>
       <c r="D15" t="n">
-        <v>91.1025647570646</v>
+        <v>94.77424943788856</v>
       </c>
     </row>
     <row r="16">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>164.5619838740658</v>
+        <v>124.4931257953528</v>
       </c>
       <c r="D16" t="n">
-        <v>85.75000695333223</v>
+        <v>85.66301826157283</v>
       </c>
     </row>
     <row r="17">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>452.8204693617162</v>
+        <v>250.1646132991099</v>
       </c>
       <c r="D17" t="n">
-        <v>80.4060599761543</v>
+        <v>88.48282073632437</v>
       </c>
     </row>
     <row r="18">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>159.0776933803908</v>
+        <v>269.9591988603839</v>
       </c>
       <c r="D18" t="n">
-        <v>96.8174739223565</v>
+        <v>93.35428538690839</v>
       </c>
     </row>
     <row r="19">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>289.6793041297495</v>
+        <v>442.6485037823268</v>
       </c>
       <c r="D19" t="n">
-        <v>97.17271197008863</v>
+        <v>96.17087039343312</v>
       </c>
     </row>
     <row r="20">
@@ -757,10 +757,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>143.333212240405</v>
+        <v>110.7781884870453</v>
       </c>
       <c r="D20" t="n">
-        <v>97.9449255617802</v>
+        <v>78.23788518540887</v>
       </c>
     </row>
     <row r="21">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>266.7938355884689</v>
+        <v>304.9402657750903</v>
       </c>
       <c r="D21" t="n">
-        <v>95.17524159095493</v>
+        <v>89.91047295539815</v>
       </c>
     </row>
     <row r="22">
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>314.2061677696697</v>
+        <v>347.5147088413752</v>
       </c>
       <c r="D22" t="n">
-        <v>92.04437056665689</v>
+        <v>81.31882590718998</v>
       </c>
     </row>
     <row r="23">
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>447.4635177763485</v>
+        <v>469.2822507509237</v>
       </c>
       <c r="D23" t="n">
-        <v>96.5127645250507</v>
+        <v>90.19197130042494</v>
       </c>
     </row>
     <row r="24">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>390.4671700582528</v>
+        <v>141.5370720148798</v>
       </c>
       <c r="D24" t="n">
-        <v>95.36351336110052</v>
+        <v>78.13736840166318</v>
       </c>
     </row>
     <row r="25">
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>475.4059073074123</v>
+        <v>478.7261687407663</v>
       </c>
       <c r="D25" t="n">
-        <v>96.5344265176102</v>
+        <v>77.41689833230113</v>
       </c>
     </row>
     <row r="26">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>119.0668428816754</v>
+        <v>409.6460046635327</v>
       </c>
       <c r="D26" t="n">
-        <v>90.25098110292944</v>
+        <v>95.16862280401148</v>
       </c>
     </row>
     <row r="27">
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>358.4517623722385</v>
+        <v>438.911516883722</v>
       </c>
       <c r="D27" t="n">
-        <v>79.0844829362529</v>
+        <v>96.71033198178873</v>
       </c>
     </row>
     <row r="28">
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>292.1182427549857</v>
+        <v>254.7435264495089</v>
       </c>
       <c r="D28" t="n">
-        <v>88.56225452757286</v>
+        <v>88.94866874947886</v>
       </c>
     </row>
     <row r="29">
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>143.7995300916932</v>
+        <v>454.9757012223586</v>
       </c>
       <c r="D29" t="n">
-        <v>86.41281853946857</v>
+        <v>90.06138839861751</v>
       </c>
     </row>
     <row r="30">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>406.3773500053463</v>
+        <v>253.4944820087016</v>
       </c>
       <c r="D30" t="n">
-        <v>87.78822875279299</v>
+        <v>75.98276858577336</v>
       </c>
     </row>
     <row r="31">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>318.4608435631075</v>
+        <v>298.4946116556932</v>
       </c>
       <c r="D31" t="n">
-        <v>80.50273284489303</v>
+        <v>77.88347588017629</v>
       </c>
     </row>
     <row r="32">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448.0923187155727</v>
+        <v>309.7803378699714</v>
       </c>
       <c r="D32" t="n">
-        <v>81.34228390622275</v>
+        <v>76.28163584597445</v>
       </c>
     </row>
     <row r="33">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>290.0862395753768</v>
+        <v>480.8840214818367</v>
       </c>
       <c r="D33" t="n">
-        <v>93.88582274757381</v>
+        <v>76.17861039192456</v>
       </c>
     </row>
     <row r="34">
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>256.409809640396</v>
+        <v>150.3230399517444</v>
       </c>
       <c r="D34" t="n">
-        <v>84.81310580837454</v>
+        <v>86.2567458184427</v>
       </c>
     </row>
     <row r="35">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>203.3964815789832</v>
+        <v>352.958377496359</v>
       </c>
       <c r="D35" t="n">
-        <v>94.97739812476536</v>
+        <v>75.65309365050088</v>
       </c>
     </row>
     <row r="36">
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>306.8122763440628</v>
+        <v>458.819928687448</v>
       </c>
       <c r="D36" t="n">
-        <v>90.11503837291016</v>
+        <v>90.7377708233993</v>
       </c>
     </row>
     <row r="37">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>402.1164953149733</v>
+        <v>262.0933390932232</v>
       </c>
       <c r="D37" t="n">
-        <v>77.1598044187061</v>
+        <v>97.33157277044596</v>
       </c>
     </row>
     <row r="38">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>260.2504754466131</v>
+        <v>415.9267089134399</v>
       </c>
       <c r="D38" t="n">
-        <v>94.5926154568558</v>
+        <v>95.39389650590306</v>
       </c>
     </row>
     <row r="39">
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>255.3217464458955</v>
+        <v>266.6783559591607</v>
       </c>
       <c r="D39" t="n">
-        <v>82.0667367762307</v>
+        <v>95.06554489747731</v>
       </c>
     </row>
     <row r="40">
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>390.8683636323514</v>
+        <v>134.6780700723888</v>
       </c>
       <c r="D40" t="n">
-        <v>77.54362772770085</v>
+        <v>81.70990177607621</v>
       </c>
     </row>
     <row r="41">
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>276.0925903645902</v>
+        <v>267.9438606232434</v>
       </c>
       <c r="D41" t="n">
-        <v>81.21780357892331</v>
+        <v>89.0286529468417</v>
       </c>
     </row>
     <row r="42">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>351.0294691863205</v>
+        <v>334.3284916247239</v>
       </c>
       <c r="D42" t="n">
-        <v>81.16938226313854</v>
+        <v>82.76682154805171</v>
       </c>
     </row>
     <row r="43">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>402.3266169628999</v>
+        <v>482.1654695203763</v>
       </c>
       <c r="D43" t="n">
-        <v>80.34297925850437</v>
+        <v>76.75738555385774</v>
       </c>
     </row>
     <row r="44">
@@ -1141,10 +1141,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>361.5215754703121</v>
+        <v>428.0777641986103</v>
       </c>
       <c r="D44" t="n">
-        <v>75.46813985355713</v>
+        <v>92.29202800965732</v>
       </c>
     </row>
     <row r="45">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>448.8511530391452</v>
+        <v>406.0125762331866</v>
       </c>
       <c r="D45" t="n">
-        <v>90.37619068555463</v>
+        <v>86.21645846616592</v>
       </c>
     </row>
     <row r="46">
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>272.2541392187196</v>
+        <v>135.5499245397542</v>
       </c>
       <c r="D46" t="n">
-        <v>96.81178296748664</v>
+        <v>88.45084183012636</v>
       </c>
     </row>
     <row r="47">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>321.139114144531</v>
+        <v>449.6846014221106</v>
       </c>
       <c r="D47" t="n">
-        <v>86.47992485815523</v>
+        <v>77.05675814699498</v>
       </c>
     </row>
     <row r="48">
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>329.3242857550686</v>
+        <v>239.7696341439286</v>
       </c>
       <c r="D48" t="n">
-        <v>80.49018852836703</v>
+        <v>92.85030655274628</v>
       </c>
     </row>
     <row r="49">
@@ -1221,10 +1221,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>144.4190571608833</v>
+        <v>210.034799138906</v>
       </c>
       <c r="D49" t="n">
-        <v>93.50856311774827</v>
+        <v>91.00451614790758</v>
       </c>
     </row>
     <row r="50">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>293.4044083425706</v>
+        <v>356.9627081616866</v>
       </c>
       <c r="D50" t="n">
-        <v>83.76471522225508</v>
+        <v>89.03829256416071</v>
       </c>
     </row>
     <row r="51">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>331.9461290312908</v>
+        <v>421.4868020701041</v>
       </c>
       <c r="D51" t="n">
-        <v>88.19746434715596</v>
+        <v>80.3855508004191</v>
       </c>
     </row>
     <row r="52">
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>383.036504486795</v>
+        <v>277.3675980287034</v>
       </c>
       <c r="D52" t="n">
-        <v>89.45325138255355</v>
+        <v>86.56114741902118</v>
       </c>
     </row>
     <row r="53">
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>330.8690000065308</v>
+        <v>446.8105521636355</v>
       </c>
       <c r="D53" t="n">
-        <v>83.58269148092076</v>
+        <v>91.76290353062861</v>
       </c>
     </row>
     <row r="54">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>195.5494775463798</v>
+        <v>268.3731292433245</v>
       </c>
       <c r="D54" t="n">
-        <v>80.6743021700337</v>
+        <v>92.60974889386198</v>
       </c>
     </row>
     <row r="55">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>462.5187828620292</v>
+        <v>355.3862529026196</v>
       </c>
       <c r="D55" t="n">
-        <v>95.09932860772037</v>
+        <v>92.78364360875673</v>
       </c>
     </row>
     <row r="56">
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>371.987255957516</v>
+        <v>198.7843439899595</v>
       </c>
       <c r="D56" t="n">
-        <v>97.83045947818178</v>
+        <v>97.49729324443578</v>
       </c>
     </row>
     <row r="57">
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>242.4035892660275</v>
+        <v>176.1287982634529</v>
       </c>
       <c r="D57" t="n">
-        <v>81.52440466094207</v>
+        <v>85.30619745579045</v>
       </c>
     </row>
     <row r="58">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>225.0505964199174</v>
+        <v>288.1455562416925</v>
       </c>
       <c r="D58" t="n">
-        <v>93.36984850435374</v>
+        <v>90.66064698096085</v>
       </c>
     </row>
     <row r="59">
@@ -1381,10 +1381,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>372.1926522614198</v>
+        <v>171.8357686326573</v>
       </c>
       <c r="D59" t="n">
-        <v>79.35782984494053</v>
+        <v>75.91503733992273</v>
       </c>
     </row>
     <row r="60">
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>123.2087535131798</v>
+        <v>366.5145613461956</v>
       </c>
       <c r="D60" t="n">
-        <v>84.48583511385641</v>
+        <v>86.51852011400541</v>
       </c>
     </row>
     <row r="61">
@@ -1413,10 +1413,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>319.2249542370583</v>
+        <v>410.3931296444067</v>
       </c>
       <c r="D61" t="n">
-        <v>78.57516187219458</v>
+        <v>79.87465389892458</v>
       </c>
     </row>
     <row r="62">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>478.8602474281743</v>
+        <v>111.1818484285618</v>
       </c>
       <c r="D62" t="n">
-        <v>95.60781495799799</v>
+        <v>76.12026994627989</v>
       </c>
     </row>
     <row r="63">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>197.4145377641856</v>
+        <v>354.5727194132604</v>
       </c>
       <c r="D63" t="n">
-        <v>90.3790875735049</v>
+        <v>95.85112298690821</v>
       </c>
     </row>
     <row r="64">
@@ -1461,10 +1461,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>499.2277903996908</v>
+        <v>204.6780269302327</v>
       </c>
       <c r="D64" t="n">
-        <v>83.02560700679012</v>
+        <v>87.60014525072047</v>
       </c>
     </row>
     <row r="65">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>392.6669473530128</v>
+        <v>167.2116109761529</v>
       </c>
       <c r="D65" t="n">
-        <v>87.75777459891908</v>
+        <v>83.82755844508327</v>
       </c>
     </row>
     <row r="66">
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>220.2862710140505</v>
+        <v>433.4496027153363</v>
       </c>
       <c r="D66" t="n">
-        <v>93.29941016135751</v>
+        <v>94.35594415112809</v>
       </c>
     </row>
     <row r="67">
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>342.9891925320692</v>
+        <v>427.2332569090452</v>
       </c>
       <c r="D67" t="n">
-        <v>93.43307861219429</v>
+        <v>97.6446391559605</v>
       </c>
     </row>
     <row r="68">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>301.4562062020088</v>
+        <v>397.1000600471007</v>
       </c>
       <c r="D68" t="n">
-        <v>84.45790463097642</v>
+        <v>94.0807743037752</v>
       </c>
     </row>
     <row r="69">
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>304.5395468609426</v>
+        <v>334.3636373547981</v>
       </c>
       <c r="D69" t="n">
-        <v>90.02528775603291</v>
+        <v>91.95510662232357</v>
       </c>
     </row>
     <row r="70">
@@ -1557,10 +1557,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>475.8976137823948</v>
+        <v>103.6634722400045</v>
       </c>
       <c r="D70" t="n">
-        <v>97.43868766410961</v>
+        <v>80.7463261589749</v>
       </c>
     </row>
     <row r="71">
@@ -1573,10 +1573,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>331.5464709143417</v>
+        <v>454.9172938340806</v>
       </c>
       <c r="D71" t="n">
-        <v>86.99913509473204</v>
+        <v>90.08381606574233</v>
       </c>
     </row>
     <row r="72">
@@ -1589,10 +1589,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>418.9239726777095</v>
+        <v>455.6949672668825</v>
       </c>
       <c r="D72" t="n">
-        <v>85.08466382537807</v>
+        <v>91.90825635691877</v>
       </c>
     </row>
     <row r="73">
@@ -1605,10 +1605,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>247.8611814376572</v>
+        <v>269.0567445473917</v>
       </c>
       <c r="D73" t="n">
-        <v>87.23226152127049</v>
+        <v>85.54027469928189</v>
       </c>
     </row>
     <row r="74">
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>265.1331661605668</v>
+        <v>314.5182935633102</v>
       </c>
       <c r="D74" t="n">
-        <v>87.69743442543773</v>
+        <v>89.60841032781833</v>
       </c>
     </row>
     <row r="75">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>158.1587415613431</v>
+        <v>285.9410467849116</v>
       </c>
       <c r="D75" t="n">
-        <v>76.1504061246977</v>
+        <v>85.54824641996285</v>
       </c>
     </row>
     <row r="76">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>172.3378791368278</v>
+        <v>101.8601751529903</v>
       </c>
       <c r="D76" t="n">
-        <v>76.41096944509145</v>
+        <v>80.24911087807821</v>
       </c>
     </row>
     <row r="77">
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>227.1791537032575</v>
+        <v>177.9143437304757</v>
       </c>
       <c r="D77" t="n">
-        <v>86.29146068229493</v>
+        <v>75.01646114822812</v>
       </c>
     </row>
     <row r="78">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>106.288074180895</v>
+        <v>267.1445600790836</v>
       </c>
       <c r="D78" t="n">
-        <v>93.47943189318872</v>
+        <v>81.08365261386652</v>
       </c>
     </row>
     <row r="79">
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>362.2951145737937</v>
+        <v>143.5270795302035</v>
       </c>
       <c r="D79" t="n">
-        <v>90.40956571031954</v>
+        <v>93.21251624850645</v>
       </c>
     </row>
     <row r="80">
@@ -1717,10 +1717,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>167.8146167137007</v>
+        <v>473.9789603257638</v>
       </c>
       <c r="D80" t="n">
-        <v>93.00418362324251</v>
+        <v>76.70079747386096</v>
       </c>
     </row>
     <row r="81">
@@ -1733,10 +1733,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>155.7456989389803</v>
+        <v>163.1026582889344</v>
       </c>
       <c r="D81" t="n">
-        <v>79.18855885274512</v>
+        <v>82.95309105087168</v>
       </c>
     </row>
     <row r="82">
@@ -1749,10 +1749,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>489.1810688215119</v>
+        <v>145.4189343743313</v>
       </c>
       <c r="D82" t="n">
-        <v>82.70304429110156</v>
+        <v>94.49632848446595</v>
       </c>
     </row>
     <row r="83">
@@ -1765,10 +1765,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>308.3134151205945</v>
+        <v>328.1077892356773</v>
       </c>
       <c r="D83" t="n">
-        <v>76.87978529583818</v>
+        <v>87.9669852144047</v>
       </c>
     </row>
     <row r="84">
@@ -1781,10 +1781,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>218.5364770208248</v>
+        <v>476.3601743658811</v>
       </c>
       <c r="D84" t="n">
-        <v>84.88689486143751</v>
+        <v>91.00143741373506</v>
       </c>
     </row>
     <row r="85">
@@ -1797,10 +1797,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>249.0272356632007</v>
+        <v>258.9108845182111</v>
       </c>
       <c r="D85" t="n">
-        <v>95.12407960616632</v>
+        <v>80.69103032477216</v>
       </c>
     </row>
     <row r="86">
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>303.1926943165371</v>
+        <v>142.1178926307647</v>
       </c>
       <c r="D86" t="n">
-        <v>90.38849835772426</v>
+        <v>91.21705364126323</v>
       </c>
     </row>
     <row r="87">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>109.849023538581</v>
+        <v>258.6909191317044</v>
       </c>
       <c r="D87" t="n">
-        <v>82.03715669165723</v>
+        <v>80.92403193355935</v>
       </c>
     </row>
     <row r="88">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>465.6470340705279</v>
+        <v>198.6469468599498</v>
       </c>
       <c r="D88" t="n">
-        <v>83.34345274426155</v>
+        <v>80.87916365759162</v>
       </c>
     </row>
     <row r="89">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>315.8802651388262</v>
+        <v>240.7020394897437</v>
       </c>
       <c r="D89" t="n">
-        <v>77.46456307261721</v>
+        <v>86.56326800958118</v>
       </c>
     </row>
     <row r="90">
@@ -1877,10 +1877,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>198.0926409573061</v>
+        <v>187.2471487715698</v>
       </c>
       <c r="D90" t="n">
-        <v>84.46040278672334</v>
+        <v>96.085211479831</v>
       </c>
     </row>
     <row r="91">
@@ -1893,10 +1893,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>374.7256846243585</v>
+        <v>394.7815663594509</v>
       </c>
       <c r="D91" t="n">
-        <v>89.15738690532183</v>
+        <v>80.4648535099619</v>
       </c>
     </row>
     <row r="92">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>443.6101181315274</v>
+        <v>487.3992246157461</v>
       </c>
       <c r="D92" t="n">
-        <v>76.85722651840719</v>
+        <v>91.1956127749833</v>
       </c>
     </row>
     <row r="93">
@@ -1925,10 +1925,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>103.1093492110997</v>
+        <v>462.2768406769121</v>
       </c>
       <c r="D93" t="n">
-        <v>91.12827325585677</v>
+        <v>87.76195254483757</v>
       </c>
     </row>
     <row r="94">
@@ -1941,10 +1941,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>209.6752407299944</v>
+        <v>134.3560660565942</v>
       </c>
       <c r="D94" t="n">
-        <v>97.3018047987452</v>
+        <v>86.83836293691243</v>
       </c>
     </row>
     <row r="95">
@@ -1957,10 +1957,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>110.8918925489476</v>
+        <v>459.3984508365632</v>
       </c>
       <c r="D95" t="n">
-        <v>93.58492454310553</v>
+        <v>79.6140880038045</v>
       </c>
     </row>
     <row r="96">
@@ -1973,10 +1973,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>352.4421921030624</v>
+        <v>356.6743323632497</v>
       </c>
       <c r="D96" t="n">
-        <v>85.15747444493995</v>
+        <v>91.55900732095324</v>
       </c>
     </row>
     <row r="97">
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>449.2604767851157</v>
+        <v>408.9008982267517</v>
       </c>
       <c r="D97" t="n">
-        <v>78.629679367478</v>
+        <v>86.82736420706071</v>
       </c>
     </row>
     <row r="98">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>479.3504851514605</v>
+        <v>309.2630417511598</v>
       </c>
       <c r="D98" t="n">
-        <v>76.53785745177667</v>
+        <v>87.42926014708466</v>
       </c>
     </row>
     <row r="99">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>447.4901408603397</v>
+        <v>455.2991977309746</v>
       </c>
       <c r="D99" t="n">
-        <v>75.55717242378469</v>
+        <v>83.41408335663034</v>
       </c>
     </row>
     <row r="100">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>430.6156391541268</v>
+        <v>405.8346965061593</v>
       </c>
       <c r="D100" t="n">
-        <v>96.93005105030177</v>
+        <v>80.69777742807102</v>
       </c>
     </row>
     <row r="101">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>424.4226375536831</v>
+        <v>151.6785227322285</v>
       </c>
       <c r="D101" t="n">
-        <v>81.29027905523441</v>
+        <v>86.48571164252401</v>
       </c>
     </row>
     <row r="102">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>145.3211233698673</v>
+        <v>450.6672707757933</v>
       </c>
       <c r="D102" t="n">
-        <v>80.74165777200658</v>
+        <v>87.21648373025357</v>
       </c>
     </row>
     <row r="103">
@@ -2085,10 +2085,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>269.3663583267293</v>
+        <v>459.2040637178778</v>
       </c>
       <c r="D103" t="n">
-        <v>86.96832119739049</v>
+        <v>90.09859946899493</v>
       </c>
     </row>
     <row r="104">
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>402.7824853064604</v>
+        <v>300.762877098182</v>
       </c>
       <c r="D104" t="n">
-        <v>92.01572492275891</v>
+        <v>79.5636252953766</v>
       </c>
     </row>
     <row r="105">
@@ -2117,10 +2117,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>349.195449525401</v>
+        <v>135.1158604739578</v>
       </c>
       <c r="D105" t="n">
-        <v>83.02837465813002</v>
+        <v>81.11459609644267</v>
       </c>
     </row>
     <row r="106">
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>130.4369322165964</v>
+        <v>247.094020176567</v>
       </c>
       <c r="D106" t="n">
-        <v>75.33457727545996</v>
+        <v>96.71217708319858</v>
       </c>
     </row>
     <row r="107">
@@ -2149,10 +2149,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>238.3059675085464</v>
+        <v>437.850031310838</v>
       </c>
       <c r="D107" t="n">
-        <v>91.77255793854864</v>
+        <v>91.18240510884496</v>
       </c>
     </row>
     <row r="108">
@@ -2165,10 +2165,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>118.6285685943322</v>
+        <v>196.8673809249367</v>
       </c>
       <c r="D108" t="n">
-        <v>86.97009248755899</v>
+        <v>77.33793692532579</v>
       </c>
     </row>
     <row r="109">
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>128.6287190208498</v>
+        <v>373.5668016305831</v>
       </c>
       <c r="D109" t="n">
-        <v>75.4308837528588</v>
+        <v>94.59245525302698</v>
       </c>
     </row>
     <row r="110">
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>430.9258942821877</v>
+        <v>391.6507304858699</v>
       </c>
       <c r="D110" t="n">
-        <v>83.54554605544041</v>
+        <v>91.29039115491452</v>
       </c>
     </row>
     <row r="111">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>398.3436047324826</v>
+        <v>338.3100270167532</v>
       </c>
       <c r="D111" t="n">
-        <v>96.95617114453076</v>
+        <v>93.41868513229021</v>
       </c>
     </row>
     <row r="112">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>240.5007270727402</v>
+        <v>384.9648033225005</v>
       </c>
       <c r="D112" t="n">
-        <v>89.84907811492069</v>
+        <v>89.3801384453316</v>
       </c>
     </row>
     <row r="113">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>334.0084749196679</v>
+        <v>401.7736898377189</v>
       </c>
       <c r="D113" t="n">
-        <v>84.21933563162339</v>
+        <v>83.73287892264322</v>
       </c>
     </row>
     <row r="114">
@@ -2261,10 +2261,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>351.425148595342</v>
+        <v>331.5445975785868</v>
       </c>
       <c r="D114" t="n">
-        <v>97.52377734787602</v>
+        <v>83.18193417463739</v>
       </c>
     </row>
     <row r="115">
@@ -2277,10 +2277,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>165.2348214579338</v>
+        <v>230.6926597273586</v>
       </c>
       <c r="D115" t="n">
-        <v>84.33281441822186</v>
+        <v>94.48678830365975</v>
       </c>
     </row>
     <row r="116">
@@ -2293,10 +2293,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>402.1037677546895</v>
+        <v>367.3705541148124</v>
       </c>
       <c r="D116" t="n">
-        <v>80.4246445943984</v>
+        <v>93.60207764238194</v>
       </c>
     </row>
     <row r="117">
@@ -2309,10 +2309,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>109.1710286759673</v>
+        <v>275.7790189666177</v>
       </c>
       <c r="D117" t="n">
-        <v>81.07166238341375</v>
+        <v>93.63048622672962</v>
       </c>
     </row>
     <row r="118">
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>149.0790916980408</v>
+        <v>426.4851597436774</v>
       </c>
       <c r="D118" t="n">
-        <v>96.92101764194609</v>
+        <v>96.30892146835126</v>
       </c>
     </row>
     <row r="119">
@@ -2341,10 +2341,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>360.5719919391364</v>
+        <v>162.2146170091835</v>
       </c>
       <c r="D119" t="n">
-        <v>90.22569232261264</v>
+        <v>96.99386989243726</v>
       </c>
     </row>
     <row r="120">
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>138.2451405241611</v>
+        <v>177.4696000543242</v>
       </c>
       <c r="D120" t="n">
-        <v>83.8036429991099</v>
+        <v>76.85862026153235</v>
       </c>
     </row>
     <row r="121">
@@ -2373,10 +2373,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>391.6794854208475</v>
+        <v>135.4320650150378</v>
       </c>
       <c r="D121" t="n">
-        <v>83.68287055653931</v>
+        <v>91.35815919405924</v>
       </c>
     </row>
     <row r="122">
@@ -2389,10 +2389,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>155.1180682458644</v>
+        <v>231.6921013178024</v>
       </c>
       <c r="D122" t="n">
-        <v>75.81286627502199</v>
+        <v>76.36691081447438</v>
       </c>
     </row>
     <row r="123">
@@ -2405,10 +2405,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>299.4144214191895</v>
+        <v>219.6445672285803</v>
       </c>
       <c r="D123" t="n">
-        <v>87.08149894793075</v>
+        <v>93.6658733029867</v>
       </c>
     </row>
     <row r="124">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>111.908603846012</v>
+        <v>408.4639255741912</v>
       </c>
       <c r="D124" t="n">
-        <v>88.74801747601585</v>
+        <v>83.01041227544893</v>
       </c>
     </row>
     <row r="125">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>430.8632957013024</v>
+        <v>261.8414046288602</v>
       </c>
       <c r="D125" t="n">
-        <v>91.17090213749539</v>
+        <v>78.03212937136072</v>
       </c>
     </row>
     <row r="126">
@@ -2453,10 +2453,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>409.5837363556507</v>
+        <v>121.6824359531476</v>
       </c>
       <c r="D126" t="n">
-        <v>90.78957733841237</v>
+        <v>81.85101399670661</v>
       </c>
     </row>
     <row r="127">
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>211.2459897497781</v>
+        <v>163.2086202260194</v>
       </c>
       <c r="D127" t="n">
-        <v>75.30680443674679</v>
+        <v>97.40400375061203</v>
       </c>
     </row>
     <row r="128">
@@ -2485,10 +2485,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>397.9216742243099</v>
+        <v>484.1715436432904</v>
       </c>
       <c r="D128" t="n">
-        <v>97.88618832335308</v>
+        <v>93.39951475082481</v>
       </c>
     </row>
     <row r="129">
@@ -2501,10 +2501,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>162.5044997951389</v>
+        <v>353.9596912767024</v>
       </c>
       <c r="D129" t="n">
-        <v>82.68231648964581</v>
+        <v>75.29596082247907</v>
       </c>
     </row>
     <row r="130">
@@ -2517,10 +2517,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>233.969046518324</v>
+        <v>360.8654436682625</v>
       </c>
       <c r="D130" t="n">
-        <v>86.93075435293927</v>
+        <v>83.73714718165868</v>
       </c>
     </row>
     <row r="131">
@@ -2533,10 +2533,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>127.6808227156208</v>
+        <v>188.6295539474248</v>
       </c>
       <c r="D131" t="n">
-        <v>79.21553851141311</v>
+        <v>75.34576767533544</v>
       </c>
     </row>
     <row r="132">
@@ -2549,10 +2549,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>126.1355386629361</v>
+        <v>261.1969082002593</v>
       </c>
       <c r="D132" t="n">
-        <v>82.32250913006456</v>
+        <v>88.10907646300436</v>
       </c>
     </row>
     <row r="133">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>435.0445246831343</v>
+        <v>404.000445045251</v>
       </c>
       <c r="D133" t="n">
-        <v>86.73399310108206</v>
+        <v>84.67541803758218</v>
       </c>
     </row>
     <row r="134">
@@ -2581,10 +2581,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>164.2239482762229</v>
+        <v>148.9245879990778</v>
       </c>
       <c r="D134" t="n">
-        <v>92.7838903899211</v>
+        <v>85.91051806919536</v>
       </c>
     </row>
     <row r="135">
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>422.8195059215017</v>
+        <v>494.7513679501703</v>
       </c>
       <c r="D135" t="n">
-        <v>89.52158146974141</v>
+        <v>88.08456300591513</v>
       </c>
     </row>
     <row r="136">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>219.9604117024205</v>
+        <v>433.4480022697165</v>
       </c>
       <c r="D136" t="n">
-        <v>77.49709175624204</v>
+        <v>87.73131660494283</v>
       </c>
     </row>
     <row r="137">
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>293.3133530541419</v>
+        <v>348.4390097746331</v>
       </c>
       <c r="D137" t="n">
-        <v>86.36323584085939</v>
+        <v>81.28724252623434</v>
       </c>
     </row>
     <row r="138">
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>492.179566897251</v>
+        <v>444.1888084844086</v>
       </c>
       <c r="D138" t="n">
-        <v>80.729412006743</v>
+        <v>85.445726387679</v>
       </c>
     </row>
     <row r="139">
@@ -2661,10 +2661,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>275.8120644094658</v>
+        <v>107.5171582113258</v>
       </c>
       <c r="D139" t="n">
-        <v>79.1928896776964</v>
+        <v>94.58504245964045</v>
       </c>
     </row>
     <row r="140">
@@ -2677,10 +2677,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>132.7834198311267</v>
+        <v>477.3651133805488</v>
       </c>
       <c r="D140" t="n">
-        <v>92.46522766823142</v>
+        <v>88.30249043812751</v>
       </c>
     </row>
     <row r="141">
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>248.8093780315831</v>
+        <v>237.489635475914</v>
       </c>
       <c r="D141" t="n">
-        <v>88.4410508225168</v>
+        <v>95.51515614870273</v>
       </c>
     </row>
     <row r="142">
@@ -2709,10 +2709,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>357.2040221316338</v>
+        <v>108.5288497265391</v>
       </c>
       <c r="D142" t="n">
-        <v>77.24823742772361</v>
+        <v>80.66744329541075</v>
       </c>
     </row>
     <row r="143">
@@ -2725,10 +2725,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>300.151138219127</v>
+        <v>384.8729036378341</v>
       </c>
       <c r="D143" t="n">
-        <v>76.52972776192325</v>
+        <v>77.38247058145318</v>
       </c>
     </row>
     <row r="144">
@@ -2741,10 +2741,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>162.8286987813205</v>
+        <v>105.5095225032403</v>
       </c>
       <c r="D144" t="n">
-        <v>80.01984810136021</v>
+        <v>86.71766991352793</v>
       </c>
     </row>
     <row r="145">
@@ -2757,10 +2757,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>279.0272344086156</v>
+        <v>336.9812740434942</v>
       </c>
       <c r="D145" t="n">
-        <v>81.03796516940413</v>
+        <v>80.86714632507498</v>
       </c>
     </row>
     <row r="146">
@@ -2773,10 +2773,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>415.4514682572183</v>
+        <v>412.4354741840976</v>
       </c>
       <c r="D146" t="n">
-        <v>76.10271631047191</v>
+        <v>75.91367803167748</v>
       </c>
     </row>
     <row r="147">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>126.0392126577613</v>
+        <v>309.1408656939051</v>
       </c>
       <c r="D147" t="n">
-        <v>89.48917904985375</v>
+        <v>90.43197103515797</v>
       </c>
     </row>
     <row r="148">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>253.9481503948494</v>
+        <v>174.1294740498652</v>
       </c>
       <c r="D148" t="n">
-        <v>84.35162889960856</v>
+        <v>87.06093905520312</v>
       </c>
     </row>
     <row r="149">
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>244.9444723760034</v>
+        <v>256.5027384928047</v>
       </c>
       <c r="D149" t="n">
-        <v>92.71799859560832</v>
+        <v>86.74218171764919</v>
       </c>
     </row>
     <row r="150">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>193.835864633774</v>
+        <v>247.6064178168357</v>
       </c>
       <c r="D150" t="n">
-        <v>88.30585015065594</v>
+        <v>83.74049212026191</v>
       </c>
     </row>
     <row r="151">
@@ -2853,10 +2853,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>200.6185238676125</v>
+        <v>210.8384921348105</v>
       </c>
       <c r="D151" t="n">
-        <v>85.13077327701045</v>
+        <v>95.61525238532694</v>
       </c>
     </row>
     <row r="152">
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>365.3520631845491</v>
+        <v>331.2012503259928</v>
       </c>
       <c r="D152" t="n">
-        <v>96.63886810009969</v>
+        <v>78.61071758605236</v>
       </c>
     </row>
     <row r="153">
@@ -2885,10 +2885,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>332.3500830679175</v>
+        <v>167.3214133299376</v>
       </c>
       <c r="D153" t="n">
-        <v>94.151044654106</v>
+        <v>97.04746045567045</v>
       </c>
     </row>
     <row r="154">
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>427.1876089186633</v>
+        <v>489.4689543545024</v>
       </c>
       <c r="D154" t="n">
-        <v>91.7528386142437</v>
+        <v>80.41156048598037</v>
       </c>
     </row>
     <row r="155">
@@ -2917,10 +2917,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>441.0506445996084</v>
+        <v>345.481718786879</v>
       </c>
       <c r="D155" t="n">
-        <v>84.13804258081805</v>
+        <v>86.01001590149411</v>
       </c>
     </row>
     <row r="156">
@@ -2933,10 +2933,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>222.2198724871034</v>
+        <v>186.4094921185782</v>
       </c>
       <c r="D156" t="n">
-        <v>90.31537927049581</v>
+        <v>91.79845536805183</v>
       </c>
     </row>
     <row r="157">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>343.9098295693304</v>
+        <v>417.981923838499</v>
       </c>
       <c r="D157" t="n">
-        <v>94.59386241066487</v>
+        <v>77.58076918762886</v>
       </c>
     </row>
     <row r="158">
@@ -2965,10 +2965,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>257.4340981460313</v>
+        <v>177.8464472443671</v>
       </c>
       <c r="D158" t="n">
-        <v>76.19765880428325</v>
+        <v>86.80844526553484</v>
       </c>
     </row>
     <row r="159">
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>321.4391432622197</v>
+        <v>276.3463428763841</v>
       </c>
       <c r="D159" t="n">
-        <v>75.30123526559456</v>
+        <v>77.61124416057083</v>
       </c>
     </row>
     <row r="160">
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>223.2319970224582</v>
+        <v>115.8091624516063</v>
       </c>
       <c r="D160" t="n">
-        <v>75.9186462035192</v>
+        <v>97.26398808025256</v>
       </c>
     </row>
     <row r="161">
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>360.0528128256796</v>
+        <v>447.4614116372329</v>
       </c>
       <c r="D161" t="n">
-        <v>78.7979260472832</v>
+        <v>88.54997851040903</v>
       </c>
     </row>
     <row r="162">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>275.7528495495015</v>
+        <v>299.3924404037376</v>
       </c>
       <c r="D162" t="n">
-        <v>77.29071621373755</v>
+        <v>96.6781104425197</v>
       </c>
     </row>
     <row r="163">
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>380.6053086011329</v>
+        <v>101.010627356067</v>
       </c>
       <c r="D163" t="n">
-        <v>79.63615764827382</v>
+        <v>94.81646422373879</v>
       </c>
     </row>
     <row r="164">
@@ -3061,10 +3061,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>338.1827593840722</v>
+        <v>117.0137735215107</v>
       </c>
       <c r="D164" t="n">
-        <v>91.98053689495677</v>
+        <v>75.92029275350798</v>
       </c>
     </row>
     <row r="165">
@@ -3077,10 +3077,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>265.5261005205803</v>
+        <v>359.6272586973679</v>
       </c>
       <c r="D165" t="n">
-        <v>92.9174350905935</v>
+        <v>92.67334311994362</v>
       </c>
     </row>
     <row r="166">
@@ -3093,10 +3093,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>284.6153586678249</v>
+        <v>130.7483966131803</v>
       </c>
       <c r="D166" t="n">
-        <v>94.25949168968984</v>
+        <v>79.90214515369973</v>
       </c>
     </row>
     <row r="167">
@@ -3109,10 +3109,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>467.2917735906597</v>
+        <v>468.496393495389</v>
       </c>
       <c r="D167" t="n">
-        <v>95.1081198154794</v>
+        <v>82.98330006464758</v>
       </c>
     </row>
     <row r="168">
@@ -3125,10 +3125,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>135.9686545984549</v>
+        <v>305.5823986394799</v>
       </c>
       <c r="D168" t="n">
-        <v>80.96747002078232</v>
+        <v>77.90365271871653</v>
       </c>
     </row>
     <row r="169">
@@ -3141,10 +3141,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>231.7406570844033</v>
+        <v>491.1258163631423</v>
       </c>
       <c r="D169" t="n">
-        <v>80.81615398124504</v>
+        <v>84.82719955738449</v>
       </c>
     </row>
     <row r="170">
@@ -3157,10 +3157,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>449.0791932680185</v>
+        <v>152.457749309592</v>
       </c>
       <c r="D170" t="n">
-        <v>83.62066137324437</v>
+        <v>84.58483742216195</v>
       </c>
     </row>
     <row r="171">
@@ -3173,10 +3173,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>401.5992852333496</v>
+        <v>416.9012098256367</v>
       </c>
       <c r="D171" t="n">
-        <v>88.07567513968084</v>
+        <v>88.1458199880413</v>
       </c>
     </row>
     <row r="172">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>263.7720888376526</v>
+        <v>491.5278179888692</v>
       </c>
       <c r="D172" t="n">
-        <v>91.22291309857977</v>
+        <v>89.43868960535941</v>
       </c>
     </row>
     <row r="173">
@@ -3205,10 +3205,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>236.9050388123852</v>
+        <v>476.2429327688923</v>
       </c>
       <c r="D173" t="n">
-        <v>88.26310511345483</v>
+        <v>89.8334799327293</v>
       </c>
     </row>
     <row r="174">
@@ -3221,10 +3221,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>237.6526547561017</v>
+        <v>269.6222003915667</v>
       </c>
       <c r="D174" t="n">
-        <v>77.17143081618579</v>
+        <v>87.16114045451552</v>
       </c>
     </row>
     <row r="175">
@@ -3237,10 +3237,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>455.9777633514871</v>
+        <v>431.5130973524013</v>
       </c>
       <c r="D175" t="n">
-        <v>77.4470860524367</v>
+        <v>75.24451554961414</v>
       </c>
     </row>
     <row r="176">
@@ -3253,10 +3253,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>199.1052572973905</v>
+        <v>256.0829357101266</v>
       </c>
       <c r="D176" t="n">
-        <v>77.08182990257298</v>
+        <v>75.72572696441384</v>
       </c>
     </row>
     <row r="177">
@@ -3269,10 +3269,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>474.4071176454644</v>
+        <v>270.05738840458</v>
       </c>
       <c r="D177" t="n">
-        <v>96.00170658316048</v>
+        <v>76.66364037957594</v>
       </c>
     </row>
     <row r="178">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>139.0564268881992</v>
+        <v>453.7421206903478</v>
       </c>
       <c r="D178" t="n">
-        <v>92.61732127023802</v>
+        <v>96.32878770742626</v>
       </c>
     </row>
     <row r="179">
@@ -3301,10 +3301,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>370.9434435288422</v>
+        <v>422.6536020459038</v>
       </c>
       <c r="D179" t="n">
-        <v>86.13145026922508</v>
+        <v>90.43123057078972</v>
       </c>
     </row>
     <row r="180">
@@ -3317,10 +3317,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>110.1184963427912</v>
+        <v>437.1103437714044</v>
       </c>
       <c r="D180" t="n">
-        <v>80.32991349257296</v>
+        <v>80.40145081554321</v>
       </c>
     </row>
     <row r="181">
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>400.9479126369399</v>
+        <v>355.3485319731324</v>
       </c>
       <c r="D181" t="n">
-        <v>91.79137157120876</v>
+        <v>96.17694312319341</v>
       </c>
     </row>
     <row r="182">
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>377.5409910597904</v>
+        <v>235.5872850615325</v>
       </c>
       <c r="D182" t="n">
-        <v>75.81863767134014</v>
+        <v>97.62282620574625</v>
       </c>
     </row>
     <row r="183">
@@ -3365,10 +3365,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>109.608631349662</v>
+        <v>495.493340828059</v>
       </c>
       <c r="D183" t="n">
-        <v>94.87534236375393</v>
+        <v>85.59446726107278</v>
       </c>
     </row>
     <row r="184">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>235.723297476667</v>
+        <v>419.3210947031328</v>
       </c>
       <c r="D184" t="n">
-        <v>83.67214603349828</v>
+        <v>97.99263132398846</v>
       </c>
     </row>
     <row r="185">
@@ -3397,10 +3397,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>142.6721695559633</v>
+        <v>283.8444815603756</v>
       </c>
       <c r="D185" t="n">
-        <v>80.79259480581129</v>
+        <v>87.16885925842344</v>
       </c>
     </row>
     <row r="186">
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>233.0208972356325</v>
+        <v>160.672125820544</v>
       </c>
       <c r="D186" t="n">
-        <v>81.57329809422836</v>
+        <v>94.45995619743208</v>
       </c>
     </row>
     <row r="187">
@@ -3429,10 +3429,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>467.7247781576345</v>
+        <v>328.7381007444492</v>
       </c>
       <c r="D187" t="n">
-        <v>79.57864911204811</v>
+        <v>87.60509243025244</v>
       </c>
     </row>
     <row r="188">
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>356.030423431582</v>
+        <v>104.9960293806639</v>
       </c>
       <c r="D188" t="n">
-        <v>82.0707503488135</v>
+        <v>79.25392636780425</v>
       </c>
     </row>
     <row r="189">
@@ -3461,10 +3461,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>140.3111321229686</v>
+        <v>202.4499300773704</v>
       </c>
       <c r="D189" t="n">
-        <v>97.94594809410778</v>
+        <v>84.27511439377976</v>
       </c>
     </row>
     <row r="190">
@@ -3477,10 +3477,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>288.1378115697042</v>
+        <v>196.381024627558</v>
       </c>
       <c r="D190" t="n">
-        <v>88.72874845902339</v>
+        <v>83.85516988326577</v>
       </c>
     </row>
     <row r="191">
@@ -3493,10 +3493,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>407.4700681270485</v>
+        <v>156.9234347142576</v>
       </c>
       <c r="D191" t="n">
-        <v>94.17237580540734</v>
+        <v>82.15130578325969</v>
       </c>
     </row>
     <row r="192">
@@ -3509,10 +3509,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>390.4378501539462</v>
+        <v>381.3886758284102</v>
       </c>
       <c r="D192" t="n">
-        <v>88.44378549383353</v>
+        <v>77.73094583720612</v>
       </c>
     </row>
     <row r="193">
@@ -3525,10 +3525,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>119.9339626385538</v>
+        <v>382.6241988543625</v>
       </c>
       <c r="D193" t="n">
-        <v>83.40841961156066</v>
+        <v>91.210892753888</v>
       </c>
     </row>
     <row r="194">
@@ -3541,10 +3541,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>232.9168072717913</v>
+        <v>422.5711921324956</v>
       </c>
       <c r="D194" t="n">
-        <v>80.05736165224009</v>
+        <v>85.81537519613883</v>
       </c>
     </row>
     <row r="195">
@@ -3557,10 +3557,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>221.1495269158988</v>
+        <v>233.2877983602212</v>
       </c>
       <c r="D195" t="n">
-        <v>78.07429595440685</v>
+        <v>80.5789300020668</v>
       </c>
     </row>
     <row r="196">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>475.9878126682227</v>
+        <v>339.4863574849018</v>
       </c>
       <c r="D196" t="n">
-        <v>89.20711844511122</v>
+        <v>89.04955314358101</v>
       </c>
     </row>
     <row r="197">
@@ -3589,10 +3589,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>340.0085792851191</v>
+        <v>400.7583914430408</v>
       </c>
       <c r="D197" t="n">
-        <v>80.73011384997697</v>
+        <v>89.57552034301281</v>
       </c>
     </row>
     <row r="198">
@@ -3605,10 +3605,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>303.0056559566781</v>
+        <v>285.8912958684671</v>
       </c>
       <c r="D198" t="n">
-        <v>84.79925965228148</v>
+        <v>92.65377559056842</v>
       </c>
     </row>
     <row r="199">
@@ -3621,10 +3621,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>144.7699810563733</v>
+        <v>372.6043702288682</v>
       </c>
       <c r="D199" t="n">
-        <v>78.89555711725635</v>
+        <v>77.73630662732647</v>
       </c>
     </row>
     <row r="200">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>209.938257521435</v>
+        <v>273.5064793791393</v>
       </c>
       <c r="D200" t="n">
-        <v>94.24505227292043</v>
+        <v>77.709756687687</v>
       </c>
     </row>
     <row r="201">
@@ -3653,10 +3653,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>411.6749296867336</v>
+        <v>463.1779971658534</v>
       </c>
       <c r="D201" t="n">
-        <v>87.54262564580277</v>
+        <v>84.30593692128271</v>
       </c>
     </row>
     <row r="202">
@@ -3669,10 +3669,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>393.2032838214926</v>
+        <v>151.207072926026</v>
       </c>
       <c r="D202" t="n">
-        <v>91.9775672418061</v>
+        <v>78.93405278614392</v>
       </c>
     </row>
     <row r="203">
@@ -3685,10 +3685,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>376.1985292047107</v>
+        <v>312.6908376389816</v>
       </c>
       <c r="D203" t="n">
-        <v>95.81397167457972</v>
+        <v>87.85711174124</v>
       </c>
     </row>
     <row r="204">
@@ -3701,10 +3701,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>283.891881520439</v>
+        <v>476.9365451186397</v>
       </c>
       <c r="D204" t="n">
-        <v>91.40123142615289</v>
+        <v>87.17571309331916</v>
       </c>
     </row>
     <row r="205">
@@ -3717,10 +3717,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>300.8975996207946</v>
+        <v>320.4191171509535</v>
       </c>
       <c r="D205" t="n">
-        <v>81.5531453804973</v>
+        <v>88.28625388636046</v>
       </c>
     </row>
     <row r="206">
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>157.7669666481086</v>
+        <v>160.4404356303513</v>
       </c>
       <c r="D206" t="n">
-        <v>83.16877436717679</v>
+        <v>85.95620399065764</v>
       </c>
     </row>
     <row r="207">
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>223.8771603880151</v>
+        <v>168.306515386524</v>
       </c>
       <c r="D207" t="n">
-        <v>81.11066564502983</v>
+        <v>95.90725520416257</v>
       </c>
     </row>
     <row r="208">
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>404.4024026394592</v>
+        <v>491.0258762555175</v>
       </c>
       <c r="D208" t="n">
-        <v>90.80346886248988</v>
+        <v>91.9260348646668</v>
       </c>
     </row>
     <row r="209">
@@ -3781,10 +3781,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>372.5410501790319</v>
+        <v>196.6682659331924</v>
       </c>
       <c r="D209" t="n">
-        <v>75.29232005229895</v>
+        <v>92.68992198533348</v>
       </c>
     </row>
     <row r="210">
@@ -3797,10 +3797,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>478.4200008349742</v>
+        <v>129.38782711919</v>
       </c>
       <c r="D210" t="n">
-        <v>88.9367046785502</v>
+        <v>75.02783953779016</v>
       </c>
     </row>
     <row r="211">
@@ -3813,10 +3813,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>355.810822118273</v>
+        <v>419.3647874241772</v>
       </c>
       <c r="D211" t="n">
-        <v>84.76365735094618</v>
+        <v>97.20177259294695</v>
       </c>
     </row>
     <row r="212">
@@ -3829,10 +3829,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>432.2048672483538</v>
+        <v>252.8820594134211</v>
       </c>
       <c r="D212" t="n">
-        <v>76.79667141302436</v>
+        <v>82.29916951100023</v>
       </c>
     </row>
     <row r="213">
@@ -3845,10 +3845,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>378.8448838763519</v>
+        <v>209.7317698698269</v>
       </c>
       <c r="D213" t="n">
-        <v>80.06414529071083</v>
+        <v>93.26545053516799</v>
       </c>
     </row>
     <row r="214">
@@ -3861,10 +3861,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>354.3905593762347</v>
+        <v>378.2924047033538</v>
       </c>
       <c r="D214" t="n">
-        <v>85.26453089053314</v>
+        <v>94.56094830822082</v>
       </c>
     </row>
     <row r="215">
@@ -3877,10 +3877,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>109.9342328382963</v>
+        <v>455.0221073430515</v>
       </c>
       <c r="D215" t="n">
-        <v>80.4934565206311</v>
+        <v>82.93676443375631</v>
       </c>
     </row>
     <row r="216">
@@ -3893,10 +3893,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>468.6848357519523</v>
+        <v>204.4606574194082</v>
       </c>
       <c r="D216" t="n">
-        <v>78.89171112330807</v>
+        <v>75.25798353350864</v>
       </c>
     </row>
     <row r="217">
@@ -3909,10 +3909,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>323.3163609721974</v>
+        <v>105.3898519341459</v>
       </c>
       <c r="D217" t="n">
-        <v>79.00191045320676</v>
+        <v>88.47902224584942</v>
       </c>
     </row>
     <row r="218">
@@ -3925,10 +3925,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>393.5517496026863</v>
+        <v>132.4256531771562</v>
       </c>
       <c r="D218" t="n">
-        <v>83.9727031265942</v>
+        <v>96.95749429453026</v>
       </c>
     </row>
     <row r="219">
@@ -3941,10 +3941,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>486.5044869911681</v>
+        <v>370.2891118798933</v>
       </c>
       <c r="D219" t="n">
-        <v>95.02550512738988</v>
+        <v>85.57980032937802</v>
       </c>
     </row>
     <row r="220">
@@ -3957,10 +3957,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>242.3444997045692</v>
+        <v>459.2903898395602</v>
       </c>
       <c r="D220" t="n">
-        <v>94.20250119427523</v>
+        <v>92.69443813412133</v>
       </c>
     </row>
     <row r="221">
@@ -3973,10 +3973,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>435.5654306023735</v>
+        <v>267.2095058077362</v>
       </c>
       <c r="D221" t="n">
-        <v>80.59346619282607</v>
+        <v>94.53475573136663</v>
       </c>
     </row>
     <row r="222">
@@ -3989,10 +3989,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>445.3192544083259</v>
+        <v>451.7592008618628</v>
       </c>
       <c r="D222" t="n">
-        <v>75.33286869694319</v>
+        <v>86.50485292996338</v>
       </c>
     </row>
     <row r="223">
@@ -4005,10 +4005,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>130.7785930601407</v>
+        <v>140.6199171969703</v>
       </c>
       <c r="D223" t="n">
-        <v>86.87704154953883</v>
+        <v>77.41306850692649</v>
       </c>
     </row>
     <row r="224">
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>438.5332722947578</v>
+        <v>428.1375209005017</v>
       </c>
       <c r="D224" t="n">
-        <v>87.64481478163258</v>
+        <v>81.41048585006703</v>
       </c>
     </row>
     <row r="225">
@@ -4037,10 +4037,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>317.1749347973521</v>
+        <v>470.3695212459345</v>
       </c>
       <c r="D225" t="n">
-        <v>75.19631657007805</v>
+        <v>90.50747438323266</v>
       </c>
     </row>
     <row r="226">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>218.5908641528927</v>
+        <v>405.8306331874417</v>
       </c>
       <c r="D226" t="n">
-        <v>77.3570997492577</v>
+        <v>77.17711167316699</v>
       </c>
     </row>
     <row r="227">
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>348.1437331134621</v>
+        <v>101.9705422587817</v>
       </c>
       <c r="D227" t="n">
-        <v>97.20664061435538</v>
+        <v>90.05203939268083</v>
       </c>
     </row>
     <row r="228">
@@ -4085,10 +4085,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>445.135781803775</v>
+        <v>297.8008804218655</v>
       </c>
       <c r="D228" t="n">
-        <v>79.27205799208255</v>
+        <v>80.81390381148452</v>
       </c>
     </row>
     <row r="229">
@@ -4101,10 +4101,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>227.8421012025809</v>
+        <v>202.575142609561</v>
       </c>
       <c r="D229" t="n">
-        <v>93.79100932766183</v>
+        <v>85.59529564917631</v>
       </c>
     </row>
     <row r="230">
@@ -4117,10 +4117,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>284.6822996056013</v>
+        <v>333.1654890087144</v>
       </c>
       <c r="D230" t="n">
-        <v>92.74730501595445</v>
+        <v>75.13925878909451</v>
       </c>
     </row>
     <row r="231">
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>496.056533816778</v>
+        <v>401.0879398203278</v>
       </c>
       <c r="D231" t="n">
-        <v>84.45651399050033</v>
+        <v>79.20678694771753</v>
       </c>
     </row>
     <row r="232">
@@ -4149,10 +4149,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>489.6777741078876</v>
+        <v>466.7788532682421</v>
       </c>
       <c r="D232" t="n">
-        <v>95.27158962247806</v>
+        <v>90.74846523548771</v>
       </c>
     </row>
     <row r="233">
@@ -4165,10 +4165,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>276.775998545451</v>
+        <v>299.991577862701</v>
       </c>
       <c r="D233" t="n">
-        <v>81.01407627914028</v>
+        <v>83.09350720413612</v>
       </c>
     </row>
     <row r="234">
@@ -4181,10 +4181,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>111.5690204497855</v>
+        <v>205.8080814142752</v>
       </c>
       <c r="D234" t="n">
-        <v>85.8121552953002</v>
+        <v>88.50295213827955</v>
       </c>
     </row>
     <row r="235">
@@ -4197,10 +4197,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>273.3632631319547</v>
+        <v>353.930481602649</v>
       </c>
       <c r="D235" t="n">
-        <v>79.92563076593621</v>
+        <v>82.49652700438858</v>
       </c>
     </row>
     <row r="236">
@@ -4213,10 +4213,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>342.0856737697507</v>
+        <v>122.1621054238877</v>
       </c>
       <c r="D236" t="n">
-        <v>91.74793057325724</v>
+        <v>83.3898126426889</v>
       </c>
     </row>
     <row r="237">
@@ -4229,10 +4229,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>485.4171194576913</v>
+        <v>271.3048741733709</v>
       </c>
       <c r="D237" t="n">
-        <v>85.44949411580535</v>
+        <v>86.80864042735422</v>
       </c>
     </row>
     <row r="238">
@@ -4245,10 +4245,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>416.2760361016811</v>
+        <v>478.887807130436</v>
       </c>
       <c r="D238" t="n">
-        <v>81.45298548466606</v>
+        <v>81.82358922865778</v>
       </c>
     </row>
     <row r="239">
@@ -4261,10 +4261,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>346.418995490276</v>
+        <v>316.2855410789301</v>
       </c>
       <c r="D239" t="n">
-        <v>76.51965839434911</v>
+        <v>92.5118322503326</v>
       </c>
     </row>
     <row r="240">
@@ -4277,10 +4277,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>127.7850489229103</v>
+        <v>483.8258352660807</v>
       </c>
       <c r="D240" t="n">
-        <v>76.62634407430036</v>
+        <v>84.1683623690962</v>
       </c>
     </row>
     <row r="241">
@@ -4293,10 +4293,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>386.5924872547153</v>
+        <v>470.4966169745366</v>
       </c>
       <c r="D241" t="n">
-        <v>96.8330261647329</v>
+        <v>97.78699807347304</v>
       </c>
     </row>
     <row r="242">
@@ -4309,10 +4309,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>168.2575304870145</v>
+        <v>427.8347064356366</v>
       </c>
       <c r="D242" t="n">
-        <v>93.56063105414974</v>
+        <v>77.45087281208747</v>
       </c>
     </row>
     <row r="243">
@@ -4325,10 +4325,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>220.6954257018367</v>
+        <v>431.2834213194568</v>
       </c>
       <c r="D243" t="n">
-        <v>82.02754286347655</v>
+        <v>82.0802288235131</v>
       </c>
     </row>
     <row r="244">
@@ -4341,10 +4341,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>415.2688874259884</v>
+        <v>329.8110824811029</v>
       </c>
       <c r="D244" t="n">
-        <v>89.86443707176878</v>
+        <v>86.7045665991854</v>
       </c>
     </row>
     <row r="245">
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>395.1331226555333</v>
+        <v>164.3152558969519</v>
       </c>
       <c r="D245" t="n">
-        <v>83.52694761012096</v>
+        <v>94.93197561749618</v>
       </c>
     </row>
     <row r="246">
@@ -4373,10 +4373,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>217.9655605656237</v>
+        <v>313.0633918664588</v>
       </c>
       <c r="D246" t="n">
-        <v>95.90970063310944</v>
+        <v>79.98614275714948</v>
       </c>
     </row>
     <row r="247">
@@ -4389,10 +4389,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>212.7682745618087</v>
+        <v>249.9485047286016</v>
       </c>
       <c r="D247" t="n">
-        <v>78.40903804363943</v>
+        <v>83.70306488120296</v>
       </c>
     </row>
     <row r="248">
@@ -4405,10 +4405,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>353.6406335573995</v>
+        <v>132.7024717360072</v>
       </c>
       <c r="D248" t="n">
-        <v>83.79796413172987</v>
+        <v>77.93653904904924</v>
       </c>
     </row>
     <row r="249">
@@ -4421,10 +4421,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>499.6804952335801</v>
+        <v>406.1823739115243</v>
       </c>
       <c r="D249" t="n">
-        <v>80.3475122086645</v>
+        <v>79.60981122971668</v>
       </c>
     </row>
     <row r="250">
@@ -4437,10 +4437,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>215.7482483666563</v>
+        <v>211.5403365435523</v>
       </c>
       <c r="D250" t="n">
-        <v>95.25881121870768</v>
+        <v>89.71763313484774</v>
       </c>
     </row>
     <row r="251">
@@ -4453,10 +4453,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>493.043294777904</v>
+        <v>354.6146371897749</v>
       </c>
       <c r="D251" t="n">
-        <v>87.56766684815483</v>
+        <v>80.33771766109578</v>
       </c>
     </row>
     <row r="252">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>199.9619675747312</v>
+        <v>115.1505097020663</v>
       </c>
       <c r="D252" t="n">
-        <v>96.13928973540882</v>
+        <v>81.25508940896404</v>
       </c>
     </row>
     <row r="253">
@@ -4485,10 +4485,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>397.9781224296188</v>
+        <v>325.6535053153298</v>
       </c>
       <c r="D253" t="n">
-        <v>88.62059669549856</v>
+        <v>95.05910271696513</v>
       </c>
     </row>
     <row r="254">
@@ -4501,10 +4501,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>332.9371507732322</v>
+        <v>106.4399485188111</v>
       </c>
       <c r="D254" t="n">
-        <v>77.023522948851</v>
+        <v>93.2018017577702</v>
       </c>
     </row>
     <row r="255">
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>362.89629315917</v>
+        <v>473.7852090800524</v>
       </c>
       <c r="D255" t="n">
-        <v>83.17978814352873</v>
+        <v>91.58691694249296</v>
       </c>
     </row>
     <row r="256">
@@ -4533,10 +4533,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>137.959378209761</v>
+        <v>490.0941104959741</v>
       </c>
       <c r="D256" t="n">
-        <v>88.55849282102741</v>
+        <v>87.17242316544417</v>
       </c>
     </row>
     <row r="257">
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>280.318508311055</v>
+        <v>376.2800058569799</v>
       </c>
       <c r="D257" t="n">
-        <v>95.48962938695189</v>
+        <v>78.27770025339657</v>
       </c>
     </row>
     <row r="258">
@@ -4565,10 +4565,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>197.8576753069376</v>
+        <v>456.3501322124381</v>
       </c>
       <c r="D258" t="n">
-        <v>81.69877617431888</v>
+        <v>77.56884329913726</v>
       </c>
     </row>
     <row r="259">
@@ -4581,10 +4581,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>319.6786773194559</v>
+        <v>331.8593063225034</v>
       </c>
       <c r="D259" t="n">
-        <v>91.30192639624757</v>
+        <v>88.48490695990267</v>
       </c>
     </row>
     <row r="260">
@@ -4597,10 +4597,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>261.9746666894633</v>
+        <v>442.7919288192656</v>
       </c>
       <c r="D260" t="n">
-        <v>92.12860816633126</v>
+        <v>93.88758841939109</v>
       </c>
     </row>
     <row r="261">
@@ -4613,10 +4613,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>286.4270313832122</v>
+        <v>109.3046652877804</v>
       </c>
       <c r="D261" t="n">
-        <v>80.48607507646946</v>
+        <v>84.5537613891767</v>
       </c>
     </row>
     <row r="262">
@@ -4629,10 +4629,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>113.3658599731577</v>
+        <v>109.6696648356137</v>
       </c>
       <c r="D262" t="n">
-        <v>84.36059432640067</v>
+        <v>75.63132496154229</v>
       </c>
     </row>
     <row r="263">
@@ -4645,10 +4645,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>312.3282378965132</v>
+        <v>314.3568545606638</v>
       </c>
       <c r="D263" t="n">
-        <v>81.70741633626619</v>
+        <v>76.4881462101514</v>
       </c>
     </row>
     <row r="264">
@@ -4661,10 +4661,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>375.7554841518081</v>
+        <v>316.1861639604043</v>
       </c>
       <c r="D264" t="n">
-        <v>86.19809300494268</v>
+        <v>96.66103116157569</v>
       </c>
     </row>
     <row r="265">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>403.1380897937827</v>
+        <v>246.1926585768587</v>
       </c>
       <c r="D265" t="n">
-        <v>86.46497289752313</v>
+        <v>82.03842116844736</v>
       </c>
     </row>
     <row r="266">
@@ -4693,10 +4693,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>297.8114252748389</v>
+        <v>306.402582406003</v>
       </c>
       <c r="D266" t="n">
-        <v>92.3043389164626</v>
+        <v>77.73113155181859</v>
       </c>
     </row>
     <row r="267">
@@ -4709,10 +4709,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>139.8474754477037</v>
+        <v>195.4830647038342</v>
       </c>
       <c r="D267" t="n">
-        <v>76.42795463862237</v>
+        <v>87.56192088711092</v>
       </c>
     </row>
     <row r="268">
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>255.6155237583793</v>
+        <v>180.795994154363</v>
       </c>
       <c r="D268" t="n">
-        <v>82.47347547963938</v>
+        <v>95.98826925232206</v>
       </c>
     </row>
     <row r="269">
@@ -4741,10 +4741,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>132.5129259997149</v>
+        <v>182.828925481885</v>
       </c>
       <c r="D269" t="n">
-        <v>95.48206588349923</v>
+        <v>88.71847879888695</v>
       </c>
     </row>
     <row r="270">
@@ -4757,10 +4757,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>209.8857341610037</v>
+        <v>372.124144080355</v>
       </c>
       <c r="D270" t="n">
-        <v>90.19734289389923</v>
+        <v>76.13893632671824</v>
       </c>
     </row>
     <row r="271">
@@ -4773,10 +4773,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>388.0128271050128</v>
+        <v>373.5166451742288</v>
       </c>
       <c r="D271" t="n">
-        <v>90.41909904008381</v>
+        <v>78.53015942067516</v>
       </c>
     </row>
     <row r="272">
@@ -4789,10 +4789,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>100.1369285994576</v>
+        <v>132.7011840949361</v>
       </c>
       <c r="D272" t="n">
-        <v>92.56872990910243</v>
+        <v>97.67642014913885</v>
       </c>
     </row>
     <row r="273">
@@ -4805,10 +4805,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>342.0123980058341</v>
+        <v>254.8340452200894</v>
       </c>
       <c r="D273" t="n">
-        <v>85.96881937865234</v>
+        <v>75.46412265623036</v>
       </c>
     </row>
     <row r="274">
@@ -4821,10 +4821,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>314.201542491359</v>
+        <v>377.3272310397027</v>
       </c>
       <c r="D274" t="n">
-        <v>82.96156118334272</v>
+        <v>82.10766390875047</v>
       </c>
     </row>
     <row r="275">
@@ -4837,10 +4837,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>212.8685931383592</v>
+        <v>449.4908706537012</v>
       </c>
       <c r="D275" t="n">
-        <v>79.98212068797041</v>
+        <v>82.28804385506064</v>
       </c>
     </row>
     <row r="276">
@@ -4853,10 +4853,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>395.3383865335173</v>
+        <v>380.8525150592619</v>
       </c>
       <c r="D276" t="n">
-        <v>95.11827344128304</v>
+        <v>87.88751224530439</v>
       </c>
     </row>
     <row r="277">
@@ -4869,10 +4869,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>422.4400340175093</v>
+        <v>127.1582756716086</v>
       </c>
       <c r="D277" t="n">
-        <v>75.87821443269486</v>
+        <v>91.20287111388959</v>
       </c>
     </row>
     <row r="278">
@@ -4885,10 +4885,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>326.6533702900342</v>
+        <v>307.1499493950788</v>
       </c>
       <c r="D278" t="n">
-        <v>93.57939135402752</v>
+        <v>82.86525673390861</v>
       </c>
     </row>
     <row r="279">
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>263.9824929674759</v>
+        <v>497.5509768074742</v>
       </c>
       <c r="D279" t="n">
-        <v>97.08937030458684</v>
+        <v>93.06279946202494</v>
       </c>
     </row>
     <row r="280">
@@ -4917,10 +4917,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>304.8121454153255</v>
+        <v>272.8485427048524</v>
       </c>
       <c r="D280" t="n">
-        <v>81.68091922822626</v>
+        <v>80.57828064059002</v>
       </c>
     </row>
     <row r="281">
@@ -4933,10 +4933,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>256.4431398074541</v>
+        <v>224.3867961631171</v>
       </c>
       <c r="D281" t="n">
-        <v>87.60017955503513</v>
+        <v>94.16715584294739</v>
       </c>
     </row>
     <row r="282">
@@ -4949,10 +4949,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>284.5753062528359</v>
+        <v>298.0807720357759</v>
       </c>
       <c r="D282" t="n">
-        <v>92.73180736235511</v>
+        <v>95.50491055037891</v>
       </c>
     </row>
     <row r="283">
@@ -4965,10 +4965,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>314.6574833578986</v>
+        <v>453.5698251756247</v>
       </c>
       <c r="D283" t="n">
-        <v>92.16460774597424</v>
+        <v>76.81142766499777</v>
       </c>
     </row>
     <row r="284">
@@ -4981,10 +4981,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>341.8571779966929</v>
+        <v>189.3460902207158</v>
       </c>
       <c r="D284" t="n">
-        <v>75.46238503648235</v>
+        <v>91.6910603100508</v>
       </c>
     </row>
     <row r="285">
@@ -4997,10 +4997,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>115.3078819404031</v>
+        <v>365.8191761819837</v>
       </c>
       <c r="D285" t="n">
-        <v>92.60735890902222</v>
+        <v>89.10358176173091</v>
       </c>
     </row>
     <row r="286">
@@ -5013,10 +5013,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>208.7884300845458</v>
+        <v>202.8236463219006</v>
       </c>
       <c r="D286" t="n">
-        <v>96.93318815890487</v>
+        <v>85.06858802517105</v>
       </c>
     </row>
     <row r="287">
@@ -5029,10 +5029,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>314.26013911595</v>
+        <v>333.5165417107906</v>
       </c>
       <c r="D287" t="n">
-        <v>79.79863757957604</v>
+        <v>84.97137273257145</v>
       </c>
     </row>
     <row r="288">
@@ -5045,10 +5045,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>318.2688881019413</v>
+        <v>381.4583626068391</v>
       </c>
       <c r="D288" t="n">
-        <v>93.11311123353663</v>
+        <v>77.68968021156181</v>
       </c>
     </row>
     <row r="289">
@@ -5061,10 +5061,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>378.0896294771204</v>
+        <v>143.3766099918896</v>
       </c>
       <c r="D289" t="n">
-        <v>84.79509024402729</v>
+        <v>92.90917159045463</v>
       </c>
     </row>
     <row r="290">
@@ -5077,10 +5077,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>317.1975012283315</v>
+        <v>452.4573647134077</v>
       </c>
       <c r="D290" t="n">
-        <v>80.30533973480138</v>
+        <v>90.44784315911119</v>
       </c>
     </row>
     <row r="291">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>415.1951227962033</v>
+        <v>296.4916003636257</v>
       </c>
       <c r="D291" t="n">
-        <v>96.52656066579972</v>
+        <v>76.65811661848417</v>
       </c>
     </row>
     <row r="292">
@@ -5109,10 +5109,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>315.0931334985719</v>
+        <v>132.0200935979738</v>
       </c>
       <c r="D292" t="n">
-        <v>89.43813648167924</v>
+        <v>91.93231168085883</v>
       </c>
     </row>
     <row r="293">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>125.7388371268454</v>
+        <v>406.4544357922404</v>
       </c>
       <c r="D293" t="n">
-        <v>90.86280447720398</v>
+        <v>80.88336197314538</v>
       </c>
     </row>
     <row r="294">
@@ -5141,10 +5141,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>386.6789190180002</v>
+        <v>103.2203547038169</v>
       </c>
       <c r="D294" t="n">
-        <v>86.53325375091796</v>
+        <v>95.17172086872384</v>
       </c>
     </row>
     <row r="295">
@@ -5157,10 +5157,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>452.1687493785686</v>
+        <v>320.6479776064727</v>
       </c>
       <c r="D295" t="n">
-        <v>85.8532236875147</v>
+        <v>94.17317605788975</v>
       </c>
     </row>
     <row r="296">
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>187.1392849388048</v>
+        <v>200.3434444862673</v>
       </c>
       <c r="D296" t="n">
-        <v>90.69810098601704</v>
+        <v>78.30668459698926</v>
       </c>
     </row>
     <row r="297">
@@ -5189,10 +5189,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>415.0967540567572</v>
+        <v>394.6460066671121</v>
       </c>
       <c r="D297" t="n">
-        <v>92.12925561551486</v>
+        <v>89.03034204713205</v>
       </c>
     </row>
     <row r="298">
@@ -5205,10 +5205,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>350.5477874917262</v>
+        <v>302.9980842677993</v>
       </c>
       <c r="D298" t="n">
-        <v>87.60486311364242</v>
+        <v>85.48820605103758</v>
       </c>
     </row>
     <row r="299">
@@ -5221,10 +5221,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>326.6995064850633</v>
+        <v>299.2422593675134</v>
       </c>
       <c r="D299" t="n">
-        <v>94.27508487770235</v>
+        <v>96.78894180488233</v>
       </c>
     </row>
     <row r="300">
@@ -5237,10 +5237,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>168.4872384548902</v>
+        <v>288.2496262783986</v>
       </c>
       <c r="D300" t="n">
-        <v>84.65679273634568</v>
+        <v>89.63591880539904</v>
       </c>
     </row>
     <row r="301">
@@ -5253,10 +5253,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>479.1562833204979</v>
+        <v>323.0942607059008</v>
       </c>
       <c r="D301" t="n">
-        <v>90.79551125127662</v>
+        <v>94.53374882206587</v>
       </c>
     </row>
     <row r="302">
@@ -5269,10 +5269,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>225.5251122219991</v>
+        <v>356.820996792766</v>
       </c>
       <c r="D302" t="n">
-        <v>77.40756564515726</v>
+        <v>97.20682397089381</v>
       </c>
     </row>
     <row r="303">
@@ -5285,10 +5285,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>450.2820743382431</v>
+        <v>474.3050443394227</v>
       </c>
       <c r="D303" t="n">
-        <v>83.33141376715422</v>
+        <v>76.76405155765792</v>
       </c>
     </row>
     <row r="304">
@@ -5301,10 +5301,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>170.9526280488653</v>
+        <v>492.7738606559714</v>
       </c>
       <c r="D304" t="n">
-        <v>82.82518111494797</v>
+        <v>76.96869902646242</v>
       </c>
     </row>
     <row r="305">
@@ -5317,10 +5317,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>130.6003945274246</v>
+        <v>233.0059649428815</v>
       </c>
       <c r="D305" t="n">
-        <v>88.47704440537203</v>
+        <v>94.33320589468198</v>
       </c>
     </row>
     <row r="306">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>346.022767841974</v>
+        <v>136.7677004980722</v>
       </c>
       <c r="D306" t="n">
-        <v>78.33751725970934</v>
+        <v>88.77682869994979</v>
       </c>
     </row>
     <row r="307">
@@ -5349,10 +5349,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>268.9055637707046</v>
+        <v>413.2300471293768</v>
       </c>
       <c r="D307" t="n">
-        <v>93.56364675485779</v>
+        <v>78.71549995424783</v>
       </c>
     </row>
     <row r="308">
@@ -5365,10 +5365,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>396.7697308572679</v>
+        <v>211.8790821175958</v>
       </c>
       <c r="D308" t="n">
-        <v>77.28778873094979</v>
+        <v>92.52875398046196</v>
       </c>
     </row>
     <row r="309">
@@ -5381,10 +5381,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>143.1876952295063</v>
+        <v>447.9276868812076</v>
       </c>
       <c r="D309" t="n">
-        <v>92.91064808826559</v>
+        <v>88.35691761583661</v>
       </c>
     </row>
     <row r="310">
@@ -5397,10 +5397,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>483.0627941769493</v>
+        <v>241.0401387146057</v>
       </c>
       <c r="D310" t="n">
-        <v>89.5243687286863</v>
+        <v>89.10351759009438</v>
       </c>
     </row>
     <row r="311">
@@ -5413,10 +5413,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>301.1437160923196</v>
+        <v>450.7521293878651</v>
       </c>
       <c r="D311" t="n">
-        <v>93.42074474172109</v>
+        <v>80.77010761826325</v>
       </c>
     </row>
     <row r="312">
@@ -5429,10 +5429,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>321.5388286144091</v>
+        <v>279.099342762333</v>
       </c>
       <c r="D312" t="n">
-        <v>90.51379373952142</v>
+        <v>87.48901437557646</v>
       </c>
     </row>
     <row r="313">
@@ -5445,10 +5445,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>496.799081009006</v>
+        <v>222.6538954702126</v>
       </c>
       <c r="D313" t="n">
-        <v>88.53198406500675</v>
+        <v>90.67220821638756</v>
       </c>
     </row>
     <row r="314">
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>158.1302705332787</v>
+        <v>216.1432589890578</v>
       </c>
       <c r="D314" t="n">
-        <v>94.67312592753395</v>
+        <v>93.88241211709783</v>
       </c>
     </row>
     <row r="315">
@@ -5477,10 +5477,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>113.1639121606164</v>
+        <v>289.4759405953677</v>
       </c>
       <c r="D315" t="n">
-        <v>88.20531258940483</v>
+        <v>76.42472379879078</v>
       </c>
     </row>
     <row r="316">
@@ -5493,10 +5493,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>424.3943178893719</v>
+        <v>372.1986622195172</v>
       </c>
       <c r="D316" t="n">
-        <v>94.57392836435594</v>
+        <v>79.30325460314381</v>
       </c>
     </row>
     <row r="317">
@@ -5509,10 +5509,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>268.0843366263811</v>
+        <v>434.5599573002873</v>
       </c>
       <c r="D317" t="n">
-        <v>90.85906831776101</v>
+        <v>76.60663593073942</v>
       </c>
     </row>
     <row r="318">
@@ -5525,10 +5525,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>493.1957242500296</v>
+        <v>354.2517498314417</v>
       </c>
       <c r="D318" t="n">
-        <v>97.98107569763665</v>
+        <v>82.81636931492397</v>
       </c>
     </row>
     <row r="319">
@@ -5541,10 +5541,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>329.5427461701646</v>
+        <v>169.5877455989363</v>
       </c>
       <c r="D319" t="n">
-        <v>93.57762967626502</v>
+        <v>89.03682854783669</v>
       </c>
     </row>
     <row r="320">
@@ -5557,10 +5557,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>130.7569041224534</v>
+        <v>181.3784846541607</v>
       </c>
       <c r="D320" t="n">
-        <v>76.9086960028184</v>
+        <v>95.93136970070275</v>
       </c>
     </row>
     <row r="321">
@@ -5573,10 +5573,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>418.4120124951813</v>
+        <v>447.2540618442</v>
       </c>
       <c r="D321" t="n">
-        <v>75.73865193926774</v>
+        <v>76.91945353730279</v>
       </c>
     </row>
     <row r="322">
@@ -5589,10 +5589,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>352.0151874462216</v>
+        <v>184.429703267124</v>
       </c>
       <c r="D322" t="n">
-        <v>97.95343375561779</v>
+        <v>94.55410334722501</v>
       </c>
     </row>
     <row r="323">
@@ -5605,10 +5605,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>356.4097551361245</v>
+        <v>139.9290947747904</v>
       </c>
       <c r="D323" t="n">
-        <v>86.1742205849623</v>
+        <v>79.99009809222957</v>
       </c>
     </row>
     <row r="324">
@@ -5621,10 +5621,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>187.3250729461682</v>
+        <v>263.2632814674813</v>
       </c>
       <c r="D324" t="n">
-        <v>83.67780251048875</v>
+        <v>92.72749120660508</v>
       </c>
     </row>
     <row r="325">
@@ -5637,10 +5637,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>481.8817397012494</v>
+        <v>395.0543891658911</v>
       </c>
       <c r="D325" t="n">
-        <v>87.61962679865863</v>
+        <v>87.21504919879442</v>
       </c>
     </row>
     <row r="326">
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>149.6314168267307</v>
+        <v>485.4091675583815</v>
       </c>
       <c r="D326" t="n">
-        <v>89.22600803579135</v>
+        <v>79.50428006677842</v>
       </c>
     </row>
     <row r="327">
@@ -5669,10 +5669,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>412.9861869293467</v>
+        <v>224.8008827540834</v>
       </c>
       <c r="D327" t="n">
-        <v>83.12381491309047</v>
+        <v>82.19709236572106</v>
       </c>
     </row>
     <row r="328">
@@ -5685,10 +5685,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>165.4304831395274</v>
+        <v>215.7223516086877</v>
       </c>
       <c r="D328" t="n">
-        <v>76.72743329789472</v>
+        <v>94.89303590149936</v>
       </c>
     </row>
     <row r="329">
@@ -5701,10 +5701,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>335.8191167362888</v>
+        <v>498.2884084241037</v>
       </c>
       <c r="D329" t="n">
-        <v>75.01372548066908</v>
+        <v>95.5555523644294</v>
       </c>
     </row>
     <row r="330">
@@ -5717,10 +5717,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>155.2227101420893</v>
+        <v>339.7393043052749</v>
       </c>
       <c r="D330" t="n">
-        <v>92.12126794940298</v>
+        <v>79.86669997505084</v>
       </c>
     </row>
     <row r="331">
@@ -5733,10 +5733,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>114.2025544153282</v>
+        <v>438.5493819845869</v>
       </c>
       <c r="D331" t="n">
-        <v>81.20684338155682</v>
+        <v>90.74891520839211</v>
       </c>
     </row>
     <row r="332">
@@ -5749,10 +5749,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>319.6387014844679</v>
+        <v>467.3383164354119</v>
       </c>
       <c r="D332" t="n">
-        <v>85.8327757257578</v>
+        <v>75.09547497316704</v>
       </c>
     </row>
     <row r="333">
@@ -5765,10 +5765,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>456.6692668800352</v>
+        <v>403.4862063658388</v>
       </c>
       <c r="D333" t="n">
-        <v>81.49873318266623</v>
+        <v>78.34983019749927</v>
       </c>
     </row>
     <row r="334">
@@ -5781,10 +5781,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>499.828845373547</v>
+        <v>306.1410943410314</v>
       </c>
       <c r="D334" t="n">
-        <v>79.29388537103952</v>
+        <v>97.23912919102699</v>
       </c>
     </row>
     <row r="335">
@@ -5797,10 +5797,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>429.5871425967508</v>
+        <v>168.9633361707373</v>
       </c>
       <c r="D335" t="n">
-        <v>90.33516422044686</v>
+        <v>83.11366151265064</v>
       </c>
     </row>
     <row r="336">
@@ -5813,10 +5813,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>342.2207402599414</v>
+        <v>356.4949842461285</v>
       </c>
       <c r="D336" t="n">
-        <v>93.47248594310548</v>
+        <v>95.61985498173141</v>
       </c>
     </row>
     <row r="337">
@@ -5829,10 +5829,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>102.4915187598462</v>
+        <v>487.4223546972823</v>
       </c>
       <c r="D337" t="n">
-        <v>90.21296814711681</v>
+        <v>91.14618389819208</v>
       </c>
     </row>
     <row r="338">
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>403.1953917215217</v>
+        <v>393.2702291462408</v>
       </c>
       <c r="D338" t="n">
-        <v>84.40558223070212</v>
+        <v>95.34121098373906</v>
       </c>
     </row>
     <row r="339">
@@ -5861,10 +5861,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>422.5740869223605</v>
+        <v>113.5665823204115</v>
       </c>
       <c r="D339" t="n">
-        <v>76.53790718692012</v>
+        <v>90.78312703940068</v>
       </c>
     </row>
     <row r="340">
@@ -5877,10 +5877,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>398.7439718051055</v>
+        <v>439.9555774490967</v>
       </c>
       <c r="D340" t="n">
-        <v>82.17351322858379</v>
+        <v>83.02817796700776</v>
       </c>
     </row>
     <row r="341">
@@ -5893,10 +5893,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>258.494381831253</v>
+        <v>302.8345621398619</v>
       </c>
       <c r="D341" t="n">
-        <v>96.45787814417164</v>
+        <v>83.55251313576497</v>
       </c>
     </row>
     <row r="342">
@@ -5909,10 +5909,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>315.4149396035655</v>
+        <v>236.39866037231</v>
       </c>
       <c r="D342" t="n">
-        <v>86.76282724864714</v>
+        <v>91.672184280743</v>
       </c>
     </row>
     <row r="343">
@@ -5925,10 +5925,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>145.4321486289966</v>
+        <v>101.531048051094</v>
       </c>
       <c r="D343" t="n">
-        <v>90.42507601518018</v>
+        <v>94.19497149020025</v>
       </c>
     </row>
     <row r="344">
@@ -5941,10 +5941,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>273.0517888602745</v>
+        <v>438.1653963563921</v>
       </c>
       <c r="D344" t="n">
-        <v>84.19049980292046</v>
+        <v>90.22598349585411</v>
       </c>
     </row>
     <row r="345">
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>205.6186071923365</v>
+        <v>108.0916343499143</v>
       </c>
       <c r="D345" t="n">
-        <v>95.45224993536578</v>
+        <v>90.4245823445528</v>
       </c>
     </row>
     <row r="346">
@@ -5973,10 +5973,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>480.3711383947384</v>
+        <v>343.2815502908211</v>
       </c>
       <c r="D346" t="n">
-        <v>97.74699804008114</v>
+        <v>86.61823964567165</v>
       </c>
     </row>
     <row r="347">
@@ -5989,10 +5989,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>319.1033570784222</v>
+        <v>197.4438838171212</v>
       </c>
       <c r="D347" t="n">
-        <v>97.16329529389708</v>
+        <v>75.5535542562949</v>
       </c>
     </row>
     <row r="348">
@@ -6005,10 +6005,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>155.9786720576269</v>
+        <v>459.4428243595962</v>
       </c>
       <c r="D348" t="n">
-        <v>88.63764565029537</v>
+        <v>97.85741420240814</v>
       </c>
     </row>
     <row r="349">
@@ -6021,10 +6021,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>141.7114302376492</v>
+        <v>167.9193600452715</v>
       </c>
       <c r="D349" t="n">
-        <v>90.385549118765</v>
+        <v>93.35614090090844</v>
       </c>
     </row>
     <row r="350">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>253.7169588303498</v>
+        <v>231.4562278661412</v>
       </c>
       <c r="D350" t="n">
-        <v>78.53034547656945</v>
+        <v>76.3896766281383</v>
       </c>
     </row>
     <row r="351">
@@ -6053,10 +6053,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>253.5400883547443</v>
+        <v>293.3361994047938</v>
       </c>
       <c r="D351" t="n">
-        <v>83.54964872865941</v>
+        <v>89.74407500868985</v>
       </c>
     </row>
     <row r="352">
@@ -6069,10 +6069,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>230.8671423771179</v>
+        <v>176.35062883883</v>
       </c>
       <c r="D352" t="n">
-        <v>88.79200264657145</v>
+        <v>94.59843584867309</v>
       </c>
     </row>
     <row r="353">
@@ -6085,10 +6085,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>417.5546686801069</v>
+        <v>161.387205092935</v>
       </c>
       <c r="D353" t="n">
-        <v>85.75179890364745</v>
+        <v>76.77124080900522</v>
       </c>
     </row>
     <row r="354">
@@ -6101,10 +6101,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>215.0667745301359</v>
+        <v>371.0990669706911</v>
       </c>
       <c r="D354" t="n">
-        <v>89.17661362220626</v>
+        <v>85.46631313443655</v>
       </c>
     </row>
     <row r="355">
@@ -6117,10 +6117,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>427.8406450570625</v>
+        <v>319.9418668433449</v>
       </c>
       <c r="D355" t="n">
-        <v>81.37927900330719</v>
+        <v>89.43398625338048</v>
       </c>
     </row>
     <row r="356">
@@ -6133,10 +6133,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>336.8226321616709</v>
+        <v>374.1256370371676</v>
       </c>
       <c r="D356" t="n">
-        <v>95.11960213089178</v>
+        <v>97.17804557320036</v>
       </c>
     </row>
     <row r="357">
@@ -6149,10 +6149,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>237.8236562622431</v>
+        <v>175.8785891746387</v>
       </c>
       <c r="D357" t="n">
-        <v>91.41003432787022</v>
+        <v>91.508719638247</v>
       </c>
     </row>
     <row r="358">
@@ -6165,10 +6165,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>487.1233997432529</v>
+        <v>392.9501203165584</v>
       </c>
       <c r="D358" t="n">
-        <v>77.13476482137474</v>
+        <v>96.86806235843413</v>
       </c>
     </row>
     <row r="359">
@@ -6181,10 +6181,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>258.8444936879496</v>
+        <v>352.5826215349762</v>
       </c>
       <c r="D359" t="n">
-        <v>87.46595403115458</v>
+        <v>81.07347156338997</v>
       </c>
     </row>
     <row r="360">
@@ -6197,10 +6197,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>378.5803668747005</v>
+        <v>180.2847425691867</v>
       </c>
       <c r="D360" t="n">
-        <v>93.01570389960736</v>
+        <v>78.63928230873711</v>
       </c>
     </row>
     <row r="361">
@@ -6213,10 +6213,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>382.7887962040195</v>
+        <v>318.3421084613919</v>
       </c>
       <c r="D361" t="n">
-        <v>93.15095445742141</v>
+        <v>95.68705586016809</v>
       </c>
     </row>
     <row r="362">
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>428.7938630215908</v>
+        <v>237.387849288314</v>
       </c>
       <c r="D362" t="n">
-        <v>87.05513079050152</v>
+        <v>76.65060411894076</v>
       </c>
     </row>
     <row r="363">
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>331.148221069753</v>
+        <v>321.8421365202125</v>
       </c>
       <c r="D363" t="n">
-        <v>83.96799669608571</v>
+        <v>83.44172649671748</v>
       </c>
     </row>
     <row r="364">
@@ -6261,10 +6261,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>440.3477951516517</v>
+        <v>392.7099303217454</v>
       </c>
       <c r="D364" t="n">
-        <v>96.6028182941011</v>
+        <v>82.27388611518981</v>
       </c>
     </row>
     <row r="365">
@@ -6277,10 +6277,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>476.4175628650548</v>
+        <v>489.3848173145789</v>
       </c>
       <c r="D365" t="n">
-        <v>79.62932919722181</v>
+        <v>90.69183434867314</v>
       </c>
     </row>
     <row r="366">
@@ -6293,10 +6293,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>302.0996622422156</v>
+        <v>152.615873158692</v>
       </c>
       <c r="D366" t="n">
-        <v>89.17361457425974</v>
+        <v>87.44384974671</v>
       </c>
     </row>
     <row r="367">
@@ -6309,10 +6309,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>192.4887875616149</v>
+        <v>158.6077563541255</v>
       </c>
       <c r="D367" t="n">
-        <v>96.65940601919601</v>
+        <v>96.14724797886885</v>
       </c>
     </row>
     <row r="368">
@@ -6325,10 +6325,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>116.7851309020456</v>
+        <v>100.1171617625513</v>
       </c>
       <c r="D368" t="n">
-        <v>92.15601463002537</v>
+        <v>76.18516424408355</v>
       </c>
     </row>
     <row r="369">
@@ -6341,10 +6341,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>128.3958446208381</v>
+        <v>285.0856112876475</v>
       </c>
       <c r="D369" t="n">
-        <v>89.20726599900416</v>
+        <v>78.81204637185677</v>
       </c>
     </row>
     <row r="370">
@@ -6357,10 +6357,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>162.1663973852116</v>
+        <v>482.446205748876</v>
       </c>
       <c r="D370" t="n">
-        <v>76.26033903837796</v>
+        <v>88.15539682285761</v>
       </c>
     </row>
     <row r="371">
@@ -6373,10 +6373,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>463.9626127722955</v>
+        <v>414.6265498766599</v>
       </c>
       <c r="D371" t="n">
-        <v>91.44097818933481</v>
+        <v>86.60086488567561</v>
       </c>
     </row>
     <row r="372">
@@ -6389,10 +6389,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>275.8261046961718</v>
+        <v>202.1822103588577</v>
       </c>
       <c r="D372" t="n">
-        <v>80.82192765480826</v>
+        <v>90.05897257555891</v>
       </c>
     </row>
     <row r="373">
@@ -6405,10 +6405,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>344.0003547789649</v>
+        <v>101.8001453883065</v>
       </c>
       <c r="D373" t="n">
-        <v>77.72093091495061</v>
+        <v>79.505433386281</v>
       </c>
     </row>
     <row r="374">
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>113.9797587894524</v>
+        <v>462.8512454778364</v>
       </c>
       <c r="D374" t="n">
-        <v>76.29056611651777</v>
+        <v>93.76675805130597</v>
       </c>
     </row>
     <row r="375">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>344.771643651633</v>
+        <v>475.1809900598957</v>
       </c>
       <c r="D375" t="n">
-        <v>80.03949503049354</v>
+        <v>82.95371742708843</v>
       </c>
     </row>
     <row r="376">
@@ -6453,10 +6453,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>206.5741403593101</v>
+        <v>392.4707776076754</v>
       </c>
       <c r="D376" t="n">
-        <v>78.41449464707458</v>
+        <v>79.53707125719814</v>
       </c>
     </row>
     <row r="377">
@@ -6469,10 +6469,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>174.9304155685468</v>
+        <v>262.7014959217717</v>
       </c>
       <c r="D377" t="n">
-        <v>96.95621232009051</v>
+        <v>84.21438105804781</v>
       </c>
     </row>
     <row r="378">
@@ -6485,10 +6485,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>389.8191134786957</v>
+        <v>481.3927689379249</v>
       </c>
       <c r="D378" t="n">
-        <v>92.81247030534882</v>
+        <v>80.6694799169334</v>
       </c>
     </row>
     <row r="379">
@@ -6501,10 +6501,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>476.4572041627349</v>
+        <v>461.3824747648144</v>
       </c>
       <c r="D379" t="n">
-        <v>93.37755978460014</v>
+        <v>89.25507881004386</v>
       </c>
     </row>
     <row r="380">
@@ -6517,10 +6517,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>168.3733710231212</v>
+        <v>180.1363516336566</v>
       </c>
       <c r="D380" t="n">
-        <v>77.99212708858592</v>
+        <v>94.38011918626634</v>
       </c>
     </row>
     <row r="381">
@@ -6533,10 +6533,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>277.2456311520078</v>
+        <v>188.369370585989</v>
       </c>
       <c r="D381" t="n">
-        <v>94.29060372767746</v>
+        <v>79.46504685973687</v>
       </c>
     </row>
     <row r="382">
@@ -6549,10 +6549,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>415.6251567312312</v>
+        <v>175.9683658487826</v>
       </c>
       <c r="D382" t="n">
-        <v>78.30813748584052</v>
+        <v>76.51060432388051</v>
       </c>
     </row>
     <row r="383">
@@ -6565,10 +6565,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>496.338838893247</v>
+        <v>214.5521277387807</v>
       </c>
       <c r="D383" t="n">
-        <v>87.84908032860685</v>
+        <v>75.71091001292091</v>
       </c>
     </row>
     <row r="384">
@@ -6581,10 +6581,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>354.7223137342767</v>
+        <v>176.9434819929224</v>
       </c>
       <c r="D384" t="n">
-        <v>86.79587108045929</v>
+        <v>83.12995439462146</v>
       </c>
     </row>
     <row r="385">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>328.527218792663</v>
+        <v>148.6377370270411</v>
       </c>
       <c r="D385" t="n">
-        <v>92.75738279722714</v>
+        <v>88.26206549770289</v>
       </c>
     </row>
     <row r="386">
@@ -6613,10 +6613,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>381.8211388346023</v>
+        <v>420.0147756163393</v>
       </c>
       <c r="D386" t="n">
-        <v>80.52221676856163</v>
+        <v>78.40151049996842</v>
       </c>
     </row>
     <row r="387">
@@ -6629,10 +6629,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>281.6860124731921</v>
+        <v>119.5185773289482</v>
       </c>
       <c r="D387" t="n">
-        <v>83.88008967830805</v>
+        <v>80.53950863821365</v>
       </c>
     </row>
     <row r="388">
@@ -6645,10 +6645,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>128.6736906742157</v>
+        <v>364.1811000071402</v>
       </c>
       <c r="D388" t="n">
-        <v>93.82793544469146</v>
+        <v>91.77839543087605</v>
       </c>
     </row>
     <row r="389">
@@ -6661,10 +6661,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>497.7650941578964</v>
+        <v>121.0331909438811</v>
       </c>
       <c r="D389" t="n">
-        <v>78.10511719506005</v>
+        <v>97.81417197422149</v>
       </c>
     </row>
     <row r="390">
@@ -6677,10 +6677,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>289.3539791386461</v>
+        <v>355.0333382239487</v>
       </c>
       <c r="D390" t="n">
-        <v>82.66335391647448</v>
+        <v>87.17316159966173</v>
       </c>
     </row>
     <row r="391">
@@ -6693,10 +6693,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>156.4708699172479</v>
+        <v>436.9766680285272</v>
       </c>
       <c r="D391" t="n">
-        <v>78.8064396746221</v>
+        <v>84.40675046213592</v>
       </c>
     </row>
     <row r="392">
@@ -6709,10 +6709,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>497.1885725628185</v>
+        <v>494.3496350941203</v>
       </c>
       <c r="D392" t="n">
-        <v>76.55158823540582</v>
+        <v>86.98771831288617</v>
       </c>
     </row>
     <row r="393">
@@ -6725,10 +6725,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>106.7202336712979</v>
+        <v>322.223820785407</v>
       </c>
       <c r="D393" t="n">
-        <v>83.72184307768836</v>
+        <v>89.786960371793</v>
       </c>
     </row>
     <row r="394">
@@ -6741,10 +6741,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>184.3924832886654</v>
+        <v>475.2081665722943</v>
       </c>
       <c r="D394" t="n">
-        <v>94.1158601546083</v>
+        <v>81.87533963049171</v>
       </c>
     </row>
     <row r="395">
@@ -6757,10 +6757,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>437.0300102161914</v>
+        <v>249.7459740601894</v>
       </c>
       <c r="D395" t="n">
-        <v>86.08622986572078</v>
+        <v>97.16467363460744</v>
       </c>
     </row>
     <row r="396">
@@ -6773,10 +6773,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>425.2422262748136</v>
+        <v>353.0135931926494</v>
       </c>
       <c r="D396" t="n">
-        <v>93.70306878440709</v>
+        <v>92.60996249642849</v>
       </c>
     </row>
     <row r="397">
@@ -6789,10 +6789,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>204.1424418181026</v>
+        <v>387.3883955950944</v>
       </c>
       <c r="D397" t="n">
-        <v>89.88497892028857</v>
+        <v>79.9626748725137</v>
       </c>
     </row>
     <row r="398">
@@ -6805,10 +6805,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>227.1083508275854</v>
+        <v>479.4141400696288</v>
       </c>
       <c r="D398" t="n">
-        <v>90.73289814330386</v>
+        <v>92.495732193658</v>
       </c>
     </row>
     <row r="399">
@@ -6821,10 +6821,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>210.5350313139791</v>
+        <v>326.5990962811807</v>
       </c>
       <c r="D399" t="n">
-        <v>95.93451651673914</v>
+        <v>96.31755343541903</v>
       </c>
     </row>
     <row r="400">
@@ -6837,10 +6837,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>123.5590959317751</v>
+        <v>387.0436571817879</v>
       </c>
       <c r="D400" t="n">
-        <v>75.91853706474934</v>
+        <v>78.59515971658033</v>
       </c>
     </row>
     <row r="401">
@@ -6853,10 +6853,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>157.3370431299463</v>
+        <v>441.5120778563902</v>
       </c>
       <c r="D401" t="n">
-        <v>75.5789772171394</v>
+        <v>93.48067177870362</v>
       </c>
     </row>
     <row r="402">
@@ -6869,10 +6869,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>271.458839763493</v>
+        <v>301.2345655240785</v>
       </c>
       <c r="D402" t="n">
-        <v>82.29823980396955</v>
+        <v>85.34363942297492</v>
       </c>
     </row>
     <row r="403">
@@ -6885,10 +6885,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>200.0267461340124</v>
+        <v>474.8123124302349</v>
       </c>
       <c r="D403" t="n">
-        <v>88.86869410421245</v>
+        <v>88.99628658828635</v>
       </c>
     </row>
     <row r="404">
@@ -6901,10 +6901,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>124.4347110737454</v>
+        <v>222.8442856381745</v>
       </c>
       <c r="D404" t="n">
-        <v>90.06179778786793</v>
+        <v>91.12329023372023</v>
       </c>
     </row>
     <row r="405">
@@ -6917,10 +6917,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>364.8367768253765</v>
+        <v>107.916477232708</v>
       </c>
       <c r="D405" t="n">
-        <v>97.29500111756937</v>
+        <v>75.39615114526002</v>
       </c>
     </row>
     <row r="406">
@@ -6933,10 +6933,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>137.4812876674513</v>
+        <v>172.6037132467035</v>
       </c>
       <c r="D406" t="n">
-        <v>75.48823448664196</v>
+        <v>91.04432324806848</v>
       </c>
     </row>
     <row r="407">
@@ -6949,10 +6949,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>289.6373690606436</v>
+        <v>476.1186009027659</v>
       </c>
       <c r="D407" t="n">
-        <v>95.51345207967873</v>
+        <v>95.06310262160763</v>
       </c>
     </row>
     <row r="408">
@@ -6965,10 +6965,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>366.0589451518962</v>
+        <v>315.5718000383656</v>
       </c>
       <c r="D408" t="n">
-        <v>93.04496935053112</v>
+        <v>82.84527743142847</v>
       </c>
     </row>
     <row r="409">
@@ -6981,10 +6981,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>461.1426583991217</v>
+        <v>263.5377801940554</v>
       </c>
       <c r="D409" t="n">
-        <v>75.21353500724727</v>
+        <v>86.68396766988781</v>
       </c>
     </row>
     <row r="410">
@@ -6997,10 +6997,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>389.7687627984193</v>
+        <v>407.2905795225745</v>
       </c>
       <c r="D410" t="n">
-        <v>93.4165462525264</v>
+        <v>89.79265385785739</v>
       </c>
     </row>
     <row r="411">
@@ -7013,10 +7013,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>126.3950922015546</v>
+        <v>336.5421423368419</v>
       </c>
       <c r="D411" t="n">
-        <v>89.7133944358548</v>
+        <v>77.78137788502077</v>
       </c>
     </row>
     <row r="412">
@@ -7029,10 +7029,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>129.6944710002705</v>
+        <v>250.8158455062368</v>
       </c>
       <c r="D412" t="n">
-        <v>88.11636890527406</v>
+        <v>87.88019512641723</v>
       </c>
     </row>
     <row r="413">
@@ -7045,10 +7045,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>415.0837180025659</v>
+        <v>200.1084042053749</v>
       </c>
       <c r="D413" t="n">
-        <v>77.03500300596156</v>
+        <v>83.66552050914483</v>
       </c>
     </row>
     <row r="414">
@@ -7061,10 +7061,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>284.4961392530718</v>
+        <v>472.6321626724143</v>
       </c>
       <c r="D414" t="n">
-        <v>95.56834542724893</v>
+        <v>97.48781716812118</v>
       </c>
     </row>
     <row r="415">
@@ -7077,10 +7077,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>381.4375482260999</v>
+        <v>414.258203749592</v>
       </c>
       <c r="D415" t="n">
-        <v>84.02758136123585</v>
+        <v>87.60054773665954</v>
       </c>
     </row>
     <row r="416">
@@ -7093,10 +7093,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>154.0926566037138</v>
+        <v>439.0504036564208</v>
       </c>
       <c r="D416" t="n">
-        <v>88.40062804309967</v>
+        <v>94.91145144760776</v>
       </c>
     </row>
     <row r="417">
@@ -7109,10 +7109,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>331.1797251779855</v>
+        <v>108.8343246100345</v>
       </c>
       <c r="D417" t="n">
-        <v>83.02339171182381</v>
+        <v>94.49721758128678</v>
       </c>
     </row>
     <row r="418">
@@ -7125,10 +7125,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>112.7418609968709</v>
+        <v>185.1557715740684</v>
       </c>
       <c r="D418" t="n">
-        <v>81.64561776262465</v>
+        <v>86.76276814286207</v>
       </c>
     </row>
     <row r="419">
@@ -7141,10 +7141,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>401.8880276598661</v>
+        <v>160.7766976057995</v>
       </c>
       <c r="D419" t="n">
-        <v>78.50034658714705</v>
+        <v>78.13226407604238</v>
       </c>
     </row>
     <row r="420">
@@ -7157,10 +7157,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>106.9551120339539</v>
+        <v>431.554606715152</v>
       </c>
       <c r="D420" t="n">
-        <v>94.07807339125415</v>
+        <v>91.77888338275422</v>
       </c>
     </row>
     <row r="421">
@@ -7173,10 +7173,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>486.7607331021773</v>
+        <v>357.7098181631536</v>
       </c>
       <c r="D421" t="n">
-        <v>90.91317514379051</v>
+        <v>90.16313356900537</v>
       </c>
     </row>
     <row r="422">
@@ -7189,10 +7189,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>231.0700546820368</v>
+        <v>421.0509763554998</v>
       </c>
       <c r="D422" t="n">
-        <v>81.19956080303197</v>
+        <v>84.54760079861133</v>
       </c>
     </row>
     <row r="423">
@@ -7205,10 +7205,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>239.5885185081299</v>
+        <v>411.1633177873558</v>
       </c>
       <c r="D423" t="n">
-        <v>81.95291318773093</v>
+        <v>90.62794881479198</v>
       </c>
     </row>
     <row r="424">
@@ -7221,10 +7221,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>183.3240158253741</v>
+        <v>283.557724931643</v>
       </c>
       <c r="D424" t="n">
-        <v>95.64227223790994</v>
+        <v>75.36435740106606</v>
       </c>
     </row>
     <row r="425">
@@ -7237,10 +7237,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>476.7612256132877</v>
+        <v>210.8664511626597</v>
       </c>
       <c r="D425" t="n">
-        <v>79.05567912074839</v>
+        <v>94.79070291588005</v>
       </c>
     </row>
     <row r="426">
@@ -7253,10 +7253,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>280.7911265811299</v>
+        <v>237.9588160310373</v>
       </c>
       <c r="D426" t="n">
-        <v>86.28098203867533</v>
+        <v>77.96926539481861</v>
       </c>
     </row>
     <row r="427">
@@ -7269,10 +7269,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>193.657184165096</v>
+        <v>259.5088364953264</v>
       </c>
       <c r="D427" t="n">
-        <v>79.3225939465741</v>
+        <v>89.61920967674418</v>
       </c>
     </row>
     <row r="428">
@@ -7285,10 +7285,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>158.3967620688845</v>
+        <v>120.1073182057626</v>
       </c>
       <c r="D428" t="n">
-        <v>83.30712012838951</v>
+        <v>93.33988039945928</v>
       </c>
     </row>
     <row r="429">
@@ -7301,10 +7301,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>158.0903399214519</v>
+        <v>297.630652907569</v>
       </c>
       <c r="D429" t="n">
-        <v>77.25676522420571</v>
+        <v>85.4084933584389</v>
       </c>
     </row>
     <row r="430">
@@ -7317,10 +7317,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>345.9845878186634</v>
+        <v>372.8899311714276</v>
       </c>
       <c r="D430" t="n">
-        <v>93.20467257284918</v>
+        <v>90.49454773556845</v>
       </c>
     </row>
     <row r="431">
@@ -7333,10 +7333,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>127.2192158769233</v>
+        <v>333.3905775619683</v>
       </c>
       <c r="D431" t="n">
-        <v>77.61372748933101</v>
+        <v>93.14381704338352</v>
       </c>
     </row>
     <row r="432">
@@ -7349,10 +7349,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>118.084488637159</v>
+        <v>379.2114628723283</v>
       </c>
       <c r="D432" t="n">
-        <v>82.21669021505448</v>
+        <v>88.92099467410985</v>
       </c>
     </row>
     <row r="433">
@@ -7365,10 +7365,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>336.5918609702428</v>
+        <v>350.203120506238</v>
       </c>
       <c r="D433" t="n">
-        <v>89.78923744627959</v>
+        <v>94.97850662930966</v>
       </c>
     </row>
     <row r="434">
@@ -7381,10 +7381,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>371.547327396654</v>
+        <v>387.3648405540375</v>
       </c>
       <c r="D434" t="n">
-        <v>80.6077863413288</v>
+        <v>90.65584238591093</v>
       </c>
     </row>
     <row r="435">
@@ -7397,10 +7397,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>175.6668499959964</v>
+        <v>353.8508208228465</v>
       </c>
       <c r="D435" t="n">
-        <v>94.66523426649269</v>
+        <v>92.69944036394762</v>
       </c>
     </row>
     <row r="436">
@@ -7413,10 +7413,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>319.9613676859055</v>
+        <v>405.4362051687157</v>
       </c>
       <c r="D436" t="n">
-        <v>92.24618388560472</v>
+        <v>93.51863452618645</v>
       </c>
     </row>
     <row r="437">
@@ -7429,10 +7429,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>190.242571382106</v>
+        <v>274.9079074798021</v>
       </c>
       <c r="D437" t="n">
-        <v>79.05485388034069</v>
+        <v>92.67281926259368</v>
       </c>
     </row>
     <row r="438">
@@ -7445,10 +7445,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>395.9348568436097</v>
+        <v>479.6821819016199</v>
       </c>
       <c r="D438" t="n">
-        <v>80.95297006223674</v>
+        <v>75.58648581199513</v>
       </c>
     </row>
     <row r="439">
@@ -7461,10 +7461,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>475.1712917007947</v>
+        <v>458.1263817811952</v>
       </c>
       <c r="D439" t="n">
-        <v>95.73664464550072</v>
+        <v>83.5640767421679</v>
       </c>
     </row>
     <row r="440">
@@ -7477,10 +7477,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>418.9388394735853</v>
+        <v>187.2543312968706</v>
       </c>
       <c r="D440" t="n">
-        <v>76.7842214667246</v>
+        <v>84.38205799218503</v>
       </c>
     </row>
     <row r="441">
@@ -7493,10 +7493,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>131.9631820280094</v>
+        <v>477.5984169856627</v>
       </c>
       <c r="D441" t="n">
-        <v>83.96163986128629</v>
+        <v>84.10050095747567</v>
       </c>
     </row>
     <row r="442">
@@ -7509,10 +7509,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>463.4134907367022</v>
+        <v>414.9028755728051</v>
       </c>
       <c r="D442" t="n">
-        <v>90.36875648473104</v>
+        <v>79.49179256758545</v>
       </c>
     </row>
     <row r="443">
@@ -7525,10 +7525,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>443.4885782592632</v>
+        <v>272.960710183685</v>
       </c>
       <c r="D443" t="n">
-        <v>76.33470124311894</v>
+        <v>76.15357180643824</v>
       </c>
     </row>
     <row r="444">
@@ -7541,10 +7541,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>136.2742722803425</v>
+        <v>243.8124548485874</v>
       </c>
       <c r="D444" t="n">
-        <v>89.87716189367343</v>
+        <v>77.97791070491284</v>
       </c>
     </row>
     <row r="445">
@@ -7557,10 +7557,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>434.4224319704689</v>
+        <v>139.3081602524659</v>
       </c>
       <c r="D445" t="n">
-        <v>78.34628660465218</v>
+        <v>95.18293147230196</v>
       </c>
     </row>
     <row r="446">
@@ -7573,10 +7573,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>402.0654346394977</v>
+        <v>145.0666461689936</v>
       </c>
       <c r="D446" t="n">
-        <v>78.17660970908103</v>
+        <v>90.37475100343343</v>
       </c>
     </row>
     <row r="447">
@@ -7589,10 +7589,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>246.7685377578447</v>
+        <v>499.5024203638706</v>
       </c>
       <c r="D447" t="n">
-        <v>78.48567280099593</v>
+        <v>88.68542687859319</v>
       </c>
     </row>
     <row r="448">
@@ -7605,10 +7605,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>285.1742115534861</v>
+        <v>499.4238107214601</v>
       </c>
       <c r="D448" t="n">
-        <v>86.23630433534971</v>
+        <v>97.86808883621514</v>
       </c>
     </row>
     <row r="449">
@@ -7621,10 +7621,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>295.4848856981827</v>
+        <v>371.38813077492</v>
       </c>
       <c r="D449" t="n">
-        <v>85.8861064953087</v>
+        <v>85.25091040349386</v>
       </c>
     </row>
     <row r="450">
@@ -7637,10 +7637,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>433.1586734517931</v>
+        <v>326.8238848857941</v>
       </c>
       <c r="D450" t="n">
-        <v>95.24004155640189</v>
+        <v>75.31319712433771</v>
       </c>
     </row>
     <row r="451">
@@ -7653,10 +7653,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>134.1681732992765</v>
+        <v>451.6714349479358</v>
       </c>
       <c r="D451" t="n">
-        <v>85.88237896483432</v>
+        <v>80.86990889207848</v>
       </c>
     </row>
     <row r="452">
@@ -7669,10 +7669,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>381.100250143213</v>
+        <v>488.1825433831323</v>
       </c>
       <c r="D452" t="n">
-        <v>75.16092116821947</v>
+        <v>84.03508437934359</v>
       </c>
     </row>
     <row r="453">
@@ -7685,10 +7685,10 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>460.1769797014515</v>
+        <v>300.6846608518915</v>
       </c>
       <c r="D453" t="n">
-        <v>82.13893370116305</v>
+        <v>84.85423337858333</v>
       </c>
     </row>
     <row r="454">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>470.0425018423751</v>
+        <v>429.3601936906921</v>
       </c>
       <c r="D454" t="n">
-        <v>86.59529578082278</v>
+        <v>83.58084983090353</v>
       </c>
     </row>
     <row r="455">
@@ -7717,10 +7717,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>192.1726133397614</v>
+        <v>163.9409951494676</v>
       </c>
       <c r="D455" t="n">
-        <v>82.35092830227849</v>
+        <v>75.92808661175978</v>
       </c>
     </row>
     <row r="456">
@@ -7733,10 +7733,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>278.4386257073342</v>
+        <v>203.7156809066552</v>
       </c>
       <c r="D456" t="n">
-        <v>97.36657627347201</v>
+        <v>90.48622400854482</v>
       </c>
     </row>
     <row r="457">
@@ -7749,10 +7749,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>327.4832969377006</v>
+        <v>448.9922949583336</v>
       </c>
       <c r="D457" t="n">
-        <v>82.40696848651962</v>
+        <v>86.12475847076819</v>
       </c>
     </row>
     <row r="458">
@@ -7765,10 +7765,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>399.7661155705778</v>
+        <v>194.2732275562452</v>
       </c>
       <c r="D458" t="n">
-        <v>96.57096910619497</v>
+        <v>76.32059384318885</v>
       </c>
     </row>
     <row r="459">
@@ -7781,10 +7781,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>467.9385127982638</v>
+        <v>298.9729794692998</v>
       </c>
       <c r="D459" t="n">
-        <v>86.22944395993545</v>
+        <v>78.06009810499201</v>
       </c>
     </row>
     <row r="460">
@@ -7797,10 +7797,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>443.7827687601298</v>
+        <v>234.5838342614027</v>
       </c>
       <c r="D460" t="n">
-        <v>75.09836880723201</v>
+        <v>79.66225883535468</v>
       </c>
     </row>
     <row r="461">
@@ -7813,10 +7813,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>235.6476427930956</v>
+        <v>313.7161746546131</v>
       </c>
       <c r="D461" t="n">
-        <v>88.08597425067148</v>
+        <v>93.22455083744433</v>
       </c>
     </row>
     <row r="462">
@@ -7829,10 +7829,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>327.7897852754115</v>
+        <v>406.819898082776</v>
       </c>
       <c r="D462" t="n">
-        <v>84.05363964737074</v>
+        <v>82.8388623275479</v>
       </c>
     </row>
     <row r="463">
@@ -7845,10 +7845,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>297.6230048665293</v>
+        <v>299.2592581945818</v>
       </c>
       <c r="D463" t="n">
-        <v>85.58226014126676</v>
+        <v>85.93761206623245</v>
       </c>
     </row>
     <row r="464">
@@ -7861,10 +7861,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>327.4077577242915</v>
+        <v>166.679083510133</v>
       </c>
       <c r="D464" t="n">
-        <v>95.44496485231429</v>
+        <v>81.45836969861161</v>
       </c>
     </row>
     <row r="465">
@@ -7877,10 +7877,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>245.0258863713502</v>
+        <v>382.5443017702382</v>
       </c>
       <c r="D465" t="n">
-        <v>88.11706017363294</v>
+        <v>91.67660464089226</v>
       </c>
     </row>
     <row r="466">
@@ -7893,10 +7893,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>334.570167993621</v>
+        <v>331.5649284905821</v>
       </c>
       <c r="D466" t="n">
-        <v>78.15897297755836</v>
+        <v>80.27022260924031</v>
       </c>
     </row>
     <row r="467">
@@ -7909,10 +7909,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>156.4929783951423</v>
+        <v>270.6528348378446</v>
       </c>
       <c r="D467" t="n">
-        <v>86.90947748938149</v>
+        <v>91.3662187174163</v>
       </c>
     </row>
     <row r="468">
@@ -7925,10 +7925,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>354.0939220275687</v>
+        <v>297.587276710933</v>
       </c>
       <c r="D468" t="n">
-        <v>88.46521144595377</v>
+        <v>96.58949188565035</v>
       </c>
     </row>
     <row r="469">
@@ -7941,10 +7941,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>316.4234220733146</v>
+        <v>360.184304139038</v>
       </c>
       <c r="D469" t="n">
-        <v>93.01975215085146</v>
+        <v>75.38553290556635</v>
       </c>
     </row>
     <row r="470">
@@ -7957,10 +7957,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>219.6872029267498</v>
+        <v>109.300805094659</v>
       </c>
       <c r="D470" t="n">
-        <v>78.70614535772188</v>
+        <v>92.25330167180024</v>
       </c>
     </row>
     <row r="471">
@@ -7973,10 +7973,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>147.8809340788365</v>
+        <v>290.9444002265795</v>
       </c>
       <c r="D471" t="n">
-        <v>90.00951662369535</v>
+        <v>76.08868767504133</v>
       </c>
     </row>
     <row r="472">
@@ -7989,10 +7989,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>421.5080914787223</v>
+        <v>340.2325485633293</v>
       </c>
       <c r="D472" t="n">
-        <v>96.43430117583513</v>
+        <v>82.03507104838746</v>
       </c>
     </row>
     <row r="473">
@@ -8005,10 +8005,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>166.5858793055584</v>
+        <v>417.3461334169583</v>
       </c>
       <c r="D473" t="n">
-        <v>89.01855435047065</v>
+        <v>89.24523736250315</v>
       </c>
     </row>
     <row r="474">
@@ -8021,10 +8021,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>174.892849150667</v>
+        <v>179.965529324961</v>
       </c>
       <c r="D474" t="n">
-        <v>88.18093299538498</v>
+        <v>89.29211960297545</v>
       </c>
     </row>
     <row r="475">
@@ -8037,10 +8037,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>241.3732224191264</v>
+        <v>374.2874384021357</v>
       </c>
       <c r="D475" t="n">
-        <v>84.48342638283947</v>
+        <v>96.50700784877851</v>
       </c>
     </row>
     <row r="476">
@@ -8053,10 +8053,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>495.0207116180969</v>
+        <v>326.9548087470081</v>
       </c>
       <c r="D476" t="n">
-        <v>82.20068809750056</v>
+        <v>78.54283094294192</v>
       </c>
     </row>
     <row r="477">
@@ -8069,10 +8069,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>252.7803000110943</v>
+        <v>275.6951164436988</v>
       </c>
       <c r="D477" t="n">
-        <v>84.56451781851632</v>
+        <v>83.84223078397004</v>
       </c>
     </row>
     <row r="478">
@@ -8085,10 +8085,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>243.5301009531673</v>
+        <v>255.6348560934157</v>
       </c>
       <c r="D478" t="n">
-        <v>76.10538406943836</v>
+        <v>91.18514964095326</v>
       </c>
     </row>
     <row r="479">
@@ -8101,10 +8101,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>192.7794050955429</v>
+        <v>481.980423842889</v>
       </c>
       <c r="D479" t="n">
-        <v>76.46865290949034</v>
+        <v>79.59264786501771</v>
       </c>
     </row>
     <row r="480">
@@ -8117,10 +8117,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>203.9400561477431</v>
+        <v>152.8812686906261</v>
       </c>
       <c r="D480" t="n">
-        <v>97.17149982996371</v>
+        <v>87.56991908852042</v>
       </c>
     </row>
     <row r="481">
@@ -8133,10 +8133,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>194.0769013116158</v>
+        <v>494.4714918557215</v>
       </c>
       <c r="D481" t="n">
-        <v>91.80067617334883</v>
+        <v>87.0815720159561</v>
       </c>
     </row>
     <row r="482">
@@ -8149,10 +8149,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>330.199769334355</v>
+        <v>260.9886598653704</v>
       </c>
       <c r="D482" t="n">
-        <v>92.45164163058115</v>
+        <v>94.722577314433</v>
       </c>
     </row>
     <row r="483">
@@ -8165,10 +8165,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>325.3477016045496</v>
+        <v>284.7465177647744</v>
       </c>
       <c r="D483" t="n">
-        <v>95.22565558366077</v>
+        <v>85.06281417973597</v>
       </c>
     </row>
     <row r="484">
@@ -8181,10 +8181,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>344.8741300531375</v>
+        <v>314.5850074548259</v>
       </c>
       <c r="D484" t="n">
-        <v>80.17573216214032</v>
+        <v>93.26219198320339</v>
       </c>
     </row>
     <row r="485">
@@ -8197,10 +8197,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>453.1373732364924</v>
+        <v>131.0073341816726</v>
       </c>
       <c r="D485" t="n">
-        <v>82.74138004531702</v>
+        <v>94.57571516799121</v>
       </c>
     </row>
     <row r="486">
@@ -8213,10 +8213,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>269.6064478932462</v>
+        <v>138.3906740394448</v>
       </c>
       <c r="D486" t="n">
-        <v>83.96779166668848</v>
+        <v>87.87573621808693</v>
       </c>
     </row>
     <row r="487">
@@ -8229,10 +8229,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>332.8446772251502</v>
+        <v>269.7087683095543</v>
       </c>
       <c r="D487" t="n">
-        <v>86.96016060936731</v>
+        <v>75.84628321548807</v>
       </c>
     </row>
     <row r="488">
@@ -8245,10 +8245,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>430.5140752065769</v>
+        <v>358.0625087093991</v>
       </c>
       <c r="D488" t="n">
-        <v>87.57601102643478</v>
+        <v>77.92648338636533</v>
       </c>
     </row>
     <row r="489">
@@ -8261,10 +8261,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>419.3925881300492</v>
+        <v>489.490061285479</v>
       </c>
       <c r="D489" t="n">
-        <v>76.94918727512946</v>
+        <v>82.39309820217727</v>
       </c>
     </row>
     <row r="490">
@@ -8277,10 +8277,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>488.9190527191157</v>
+        <v>174.0235552561617</v>
       </c>
       <c r="D490" t="n">
-        <v>96.28394845830802</v>
+        <v>75.91046132466104</v>
       </c>
     </row>
     <row r="491">
@@ -8293,10 +8293,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>427.1298669022411</v>
+        <v>304.590785820026</v>
       </c>
       <c r="D491" t="n">
-        <v>95.755420689903</v>
+        <v>83.73430669349609</v>
       </c>
     </row>
     <row r="492">
@@ -8309,10 +8309,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>371.7715165657805</v>
+        <v>301.5387939956194</v>
       </c>
       <c r="D492" t="n">
-        <v>94.02732602867053</v>
+        <v>90.64795649706531</v>
       </c>
     </row>
     <row r="493">
@@ -8325,10 +8325,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>226.3924405674768</v>
+        <v>212.93880761971</v>
       </c>
       <c r="D493" t="n">
-        <v>78.45396854651909</v>
+        <v>85.43172747467695</v>
       </c>
     </row>
     <row r="494">
@@ -8341,10 +8341,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>143.7456092071883</v>
+        <v>273.9670990233337</v>
       </c>
       <c r="D494" t="n">
-        <v>92.62441273549305</v>
+        <v>91.51951954799335</v>
       </c>
     </row>
     <row r="495">
@@ -8357,10 +8357,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>264.0734014104664</v>
+        <v>499.1900250841996</v>
       </c>
       <c r="D495" t="n">
-        <v>89.29670206050214</v>
+        <v>79.11521135603624</v>
       </c>
     </row>
     <row r="496">
@@ -8373,10 +8373,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>366.0652609319776</v>
+        <v>471.2707663169558</v>
       </c>
       <c r="D496" t="n">
-        <v>81.30336024663461</v>
+        <v>91.36664506503645</v>
       </c>
     </row>
     <row r="497">
@@ -8389,10 +8389,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>202.0215435821614</v>
+        <v>102.8565061901728</v>
       </c>
       <c r="D497" t="n">
-        <v>85.25722599801195</v>
+        <v>81.23237791045285</v>
       </c>
     </row>
     <row r="498">
@@ -8405,10 +8405,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>210.8854987397805</v>
+        <v>459.7336332282998</v>
       </c>
       <c r="D498" t="n">
-        <v>84.70922344695062</v>
+        <v>97.81463748130911</v>
       </c>
     </row>
     <row r="499">
@@ -8421,10 +8421,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>166.0366216799169</v>
+        <v>287.3779759029874</v>
       </c>
       <c r="D499" t="n">
-        <v>96.9856472659508</v>
+        <v>82.2781535512095</v>
       </c>
     </row>
     <row r="500">
@@ -8437,10 +8437,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>364.6932474115377</v>
+        <v>203.4070557686827</v>
       </c>
       <c r="D500" t="n">
-        <v>97.04909718400675</v>
+        <v>93.90947780403989</v>
       </c>
     </row>
     <row r="501">
@@ -8453,10 +8453,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>349.0412566347754</v>
+        <v>164.2801337273447</v>
       </c>
       <c r="D501" t="n">
-        <v>84.55135969597717</v>
+        <v>77.75309777524851</v>
       </c>
     </row>
     <row r="502">
@@ -8469,10 +8469,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>317.792106231617</v>
+        <v>245.9370054649842</v>
       </c>
       <c r="D502" t="n">
-        <v>80.4694763897528</v>
+        <v>83.89777005631915</v>
       </c>
     </row>
     <row r="503">
@@ -8485,10 +8485,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>363.1588401627417</v>
+        <v>455.3543227355345</v>
       </c>
       <c r="D503" t="n">
-        <v>85.01138730449202</v>
+        <v>90.44036151931388</v>
       </c>
     </row>
     <row r="504">
@@ -8501,10 +8501,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>155.9081335850957</v>
+        <v>106.5074883379833</v>
       </c>
       <c r="D504" t="n">
-        <v>80.4853037471218</v>
+        <v>88.21635295715843</v>
       </c>
     </row>
     <row r="505">
@@ -8517,10 +8517,10 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>178.5428990213282</v>
+        <v>267.7570149290863</v>
       </c>
       <c r="D505" t="n">
-        <v>94.77077825591394</v>
+        <v>76.26151474721165</v>
       </c>
     </row>
     <row r="506">
@@ -8533,10 +8533,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>426.0972710564329</v>
+        <v>446.3622648695386</v>
       </c>
       <c r="D506" t="n">
-        <v>88.25288450346928</v>
+        <v>79.51348530336507</v>
       </c>
     </row>
     <row r="507">
@@ -8549,10 +8549,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>412.0262178226156</v>
+        <v>245.5724177899878</v>
       </c>
       <c r="D507" t="n">
-        <v>75.06385652517488</v>
+        <v>95.3382680537355</v>
       </c>
     </row>
     <row r="508">
@@ -8565,10 +8565,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>324.7272400268752</v>
+        <v>235.4909407752086</v>
       </c>
       <c r="D508" t="n">
-        <v>91.39166630469313</v>
+        <v>95.37736691585282</v>
       </c>
     </row>
     <row r="509">
@@ -8581,10 +8581,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>365.2028413791697</v>
+        <v>314.0098396885973</v>
       </c>
       <c r="D509" t="n">
-        <v>97.50660676788485</v>
+        <v>91.25765382224097</v>
       </c>
     </row>
     <row r="510">
@@ -8597,10 +8597,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>218.1072628695338</v>
+        <v>361.8393362512984</v>
       </c>
       <c r="D510" t="n">
-        <v>75.29393175563972</v>
+        <v>92.12499734451465</v>
       </c>
     </row>
     <row r="511">
@@ -8613,10 +8613,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>358.0178732882443</v>
+        <v>154.9125195789535</v>
       </c>
       <c r="D511" t="n">
-        <v>94.04585965192908</v>
+        <v>91.99121778366873</v>
       </c>
     </row>
     <row r="512">
@@ -8629,10 +8629,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>319.8683971571057</v>
+        <v>161.3069782346899</v>
       </c>
       <c r="D512" t="n">
-        <v>82.1546710737213</v>
+        <v>97.06379185062015</v>
       </c>
     </row>
     <row r="513">
@@ -8645,10 +8645,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>273.9656648653965</v>
+        <v>454.5091067892781</v>
       </c>
       <c r="D513" t="n">
-        <v>97.45314931946022</v>
+        <v>97.41892387481599</v>
       </c>
     </row>
     <row r="514">
@@ -8661,10 +8661,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>203.8770043402762</v>
+        <v>265.8552526210794</v>
       </c>
       <c r="D514" t="n">
-        <v>82.68598888648617</v>
+        <v>96.61504798111039</v>
       </c>
     </row>
     <row r="515">
@@ -8677,10 +8677,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>281.8786480107549</v>
+        <v>229.0961407786681</v>
       </c>
       <c r="D515" t="n">
-        <v>80.70676997181093</v>
+        <v>79.72831038272612</v>
       </c>
     </row>
     <row r="516">
@@ -8693,10 +8693,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>170.7196624689863</v>
+        <v>494.8550271553583</v>
       </c>
       <c r="D516" t="n">
-        <v>83.84002215250433</v>
+        <v>88.70352776750364</v>
       </c>
     </row>
     <row r="517">
@@ -8709,10 +8709,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>458.6694034413856</v>
+        <v>475.0995132510335</v>
       </c>
       <c r="D517" t="n">
-        <v>76.0279327289953</v>
+        <v>76.91021378563143</v>
       </c>
     </row>
     <row r="518">
@@ -8725,10 +8725,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>345.8725885848003</v>
+        <v>288.1818412864185</v>
       </c>
       <c r="D518" t="n">
-        <v>86.94152014397504</v>
+        <v>82.3595409366273</v>
       </c>
     </row>
     <row r="519">
@@ -8741,10 +8741,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>324.7282321463256</v>
+        <v>205.004268645275</v>
       </c>
       <c r="D519" t="n">
-        <v>79.60162683487141</v>
+        <v>89.48317967200141</v>
       </c>
     </row>
     <row r="520">
@@ -8757,10 +8757,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>215.1258497242547</v>
+        <v>484.8340227436781</v>
       </c>
       <c r="D520" t="n">
-        <v>85.25972704091355</v>
+        <v>95.39797576649468</v>
       </c>
     </row>
     <row r="521">
@@ -8773,10 +8773,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>410.9875201622497</v>
+        <v>486.6388529706971</v>
       </c>
       <c r="D521" t="n">
-        <v>85.53624357065577</v>
+        <v>82.89261825669708</v>
       </c>
     </row>
     <row r="522">
@@ -8789,10 +8789,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>297.3305819347911</v>
+        <v>168.9645201342916</v>
       </c>
       <c r="D522" t="n">
-        <v>90.35917505608128</v>
+        <v>85.99332174299745</v>
       </c>
     </row>
     <row r="523">
@@ -8805,10 +8805,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>156.3830781481616</v>
+        <v>224.1895911289439</v>
       </c>
       <c r="D523" t="n">
-        <v>97.73512383648921</v>
+        <v>84.49929833328909</v>
       </c>
     </row>
     <row r="524">
@@ -8821,10 +8821,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>161.6214606392758</v>
+        <v>421.7969525840826</v>
       </c>
       <c r="D524" t="n">
-        <v>83.97631607424101</v>
+        <v>96.08121555394904</v>
       </c>
     </row>
     <row r="525">
@@ -8837,10 +8837,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>263.9669695317953</v>
+        <v>374.8617047817551</v>
       </c>
       <c r="D525" t="n">
-        <v>80.70241316673338</v>
+        <v>86.42286696598035</v>
       </c>
     </row>
     <row r="526">
@@ -8853,10 +8853,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>439.037795861778</v>
+        <v>178.1686388486967</v>
       </c>
       <c r="D526" t="n">
-        <v>92.84004226287641</v>
+        <v>82.67531353124048</v>
       </c>
     </row>
     <row r="527">
@@ -8869,10 +8869,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>312.6892449184423</v>
+        <v>415.5297385586403</v>
       </c>
       <c r="D527" t="n">
-        <v>90.48208103529404</v>
+        <v>83.38584090307954</v>
       </c>
     </row>
     <row r="528">
@@ -8885,10 +8885,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>150.0725580418312</v>
+        <v>144.543747921565</v>
       </c>
       <c r="D528" t="n">
-        <v>91.5205984133151</v>
+        <v>82.15074058514575</v>
       </c>
     </row>
     <row r="529">
@@ -8901,10 +8901,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>473.8198694030135</v>
+        <v>488.4199796006251</v>
       </c>
       <c r="D529" t="n">
-        <v>80.8799829387724</v>
+        <v>86.60263228812077</v>
       </c>
     </row>
     <row r="530">
@@ -8917,10 +8917,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>442.7858942513892</v>
+        <v>247.3313697357906</v>
       </c>
       <c r="D530" t="n">
-        <v>85.52982875014888</v>
+        <v>81.35443248549255</v>
       </c>
     </row>
     <row r="531">
@@ -8933,10 +8933,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>273.2697722787092</v>
+        <v>293.4904490195107</v>
       </c>
       <c r="D531" t="n">
-        <v>85.83408711391675</v>
+        <v>75.82798910954352</v>
       </c>
     </row>
     <row r="532">
@@ -8949,10 +8949,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>419.1129362236259</v>
+        <v>383.4425462181815</v>
       </c>
       <c r="D532" t="n">
-        <v>90.96958714476516</v>
+        <v>91.59392547341741</v>
       </c>
     </row>
     <row r="533">
@@ -8965,10 +8965,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>482.4471804447402</v>
+        <v>181.3910429939274</v>
       </c>
       <c r="D533" t="n">
-        <v>92.0325008855754</v>
+        <v>93.98186614687283</v>
       </c>
     </row>
     <row r="534">
@@ -8981,10 +8981,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>380.9510597946373</v>
+        <v>433.6485314472284</v>
       </c>
       <c r="D534" t="n">
-        <v>92.40456080253998</v>
+        <v>79.18518321252951</v>
       </c>
     </row>
     <row r="535">
@@ -8997,10 +8997,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>455.0014136921269</v>
+        <v>235.8284313064177</v>
       </c>
       <c r="D535" t="n">
-        <v>89.29394463723372</v>
+        <v>86.48695718527978</v>
       </c>
     </row>
     <row r="536">
@@ -9013,10 +9013,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>315.3397636517534</v>
+        <v>311.7688929750465</v>
       </c>
       <c r="D536" t="n">
-        <v>89.95288375367571</v>
+        <v>88.71229723068589</v>
       </c>
     </row>
     <row r="537">
@@ -9029,10 +9029,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>444.3691613207876</v>
+        <v>128.2241415528667</v>
       </c>
       <c r="D537" t="n">
-        <v>91.66491208557794</v>
+        <v>76.30814106237288</v>
       </c>
     </row>
     <row r="538">
@@ -9045,10 +9045,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>331.6820820004006</v>
+        <v>332.6779913535963</v>
       </c>
       <c r="D538" t="n">
-        <v>91.86131455473941</v>
+        <v>88.84359084439315</v>
       </c>
     </row>
     <row r="539">
@@ -9061,10 +9061,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>376.3695228662252</v>
+        <v>426.6148965441798</v>
       </c>
       <c r="D539" t="n">
-        <v>80.77596694781742</v>
+        <v>94.47862740182077</v>
       </c>
     </row>
     <row r="540">
@@ -9077,10 +9077,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>125.6896839643139</v>
+        <v>324.0202463309022</v>
       </c>
       <c r="D540" t="n">
-        <v>96.39773022880202</v>
+        <v>90.67160839223661</v>
       </c>
     </row>
     <row r="541">
@@ -9093,10 +9093,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>452.5224420789329</v>
+        <v>129.2707410639817</v>
       </c>
       <c r="D541" t="n">
-        <v>90.89554437425706</v>
+        <v>90.29119808940175</v>
       </c>
     </row>
     <row r="542">
@@ -9109,10 +9109,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>109.3603153878888</v>
+        <v>328.4284075590023</v>
       </c>
       <c r="D542" t="n">
-        <v>83.89996877553713</v>
+        <v>81.66882162876431</v>
       </c>
     </row>
     <row r="543">
@@ -9125,10 +9125,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>479.3021628889412</v>
+        <v>399.4801356846029</v>
       </c>
       <c r="D543" t="n">
-        <v>81.75756701123393</v>
+        <v>85.14771708858609</v>
       </c>
     </row>
     <row r="544">
@@ -9141,10 +9141,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>134.0563993771888</v>
+        <v>279.6274306964114</v>
       </c>
       <c r="D544" t="n">
-        <v>90.54357405150458</v>
+        <v>94.11696038015141</v>
       </c>
     </row>
     <row r="545">
@@ -9157,10 +9157,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>122.5325585304921</v>
+        <v>316.7559753853665</v>
       </c>
       <c r="D545" t="n">
-        <v>82.60384775337447</v>
+        <v>81.78079573716181</v>
       </c>
     </row>
     <row r="546">
@@ -9173,10 +9173,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>273.213985129114</v>
+        <v>367.4190252317489</v>
       </c>
       <c r="D546" t="n">
-        <v>90.67606457643052</v>
+        <v>96.3982719602804</v>
       </c>
     </row>
     <row r="547">
@@ -9189,10 +9189,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>482.2730910334599</v>
+        <v>495.1492301247883</v>
       </c>
       <c r="D547" t="n">
-        <v>97.58294735287049</v>
+        <v>81.30744539123909</v>
       </c>
     </row>
     <row r="548">
@@ -9205,10 +9205,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>175.5625000261631</v>
+        <v>482.6923456610295</v>
       </c>
       <c r="D548" t="n">
-        <v>84.75344982618856</v>
+        <v>88.65576021854474</v>
       </c>
     </row>
     <row r="549">
@@ -9221,10 +9221,10 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>482.2166297872184</v>
+        <v>140.025612263799</v>
       </c>
       <c r="D549" t="n">
-        <v>88.50910035124807</v>
+        <v>76.4048546914651</v>
       </c>
     </row>
     <row r="550">
@@ -9237,10 +9237,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>447.9187310639734</v>
+        <v>438.7274393423314</v>
       </c>
       <c r="D550" t="n">
-        <v>79.40447346110919</v>
+        <v>85.01305215070883</v>
       </c>
     </row>
     <row r="551">
@@ -9253,10 +9253,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>344.6773489715908</v>
+        <v>280.6396093306519</v>
       </c>
       <c r="D551" t="n">
-        <v>88.06874054820966</v>
+        <v>80.01011263073512</v>
       </c>
     </row>
     <row r="552">
@@ -9269,10 +9269,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>430.0054606466814</v>
+        <v>261.1118757600627</v>
       </c>
       <c r="D552" t="n">
-        <v>90.58601859457954</v>
+        <v>86.9747483175147</v>
       </c>
     </row>
     <row r="553">
@@ -9285,10 +9285,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>124.8042049980664</v>
+        <v>448.9705232634803</v>
       </c>
       <c r="D553" t="n">
-        <v>89.01884496903524</v>
+        <v>93.152735748152</v>
       </c>
     </row>
     <row r="554">
@@ -9301,10 +9301,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>328.4128428623848</v>
+        <v>313.3345263835606</v>
       </c>
       <c r="D554" t="n">
-        <v>93.05238611390917</v>
+        <v>88.13684171471444</v>
       </c>
     </row>
     <row r="555">
@@ -9317,10 +9317,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>111.9896222183371</v>
+        <v>285.8144423253552</v>
       </c>
       <c r="D555" t="n">
-        <v>77.42017656821736</v>
+        <v>85.68589981526318</v>
       </c>
     </row>
     <row r="556">
@@ -9333,10 +9333,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>372.2618496203809</v>
+        <v>370.3030496334918</v>
       </c>
       <c r="D556" t="n">
-        <v>84.15741350959094</v>
+        <v>81.66601610362912</v>
       </c>
     </row>
     <row r="557">
@@ -9349,10 +9349,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>351.0387930198913</v>
+        <v>306.643586145681</v>
       </c>
       <c r="D557" t="n">
-        <v>86.3152145108244</v>
+        <v>79.01306137367004</v>
       </c>
     </row>
     <row r="558">
@@ -9365,10 +9365,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>100.6757620626503</v>
+        <v>151.5486051158097</v>
       </c>
       <c r="D558" t="n">
-        <v>76.43308723956545</v>
+        <v>97.81475173867763</v>
       </c>
     </row>
     <row r="559">
@@ -9381,10 +9381,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>475.4164550840919</v>
+        <v>486.9260731714489</v>
       </c>
       <c r="D559" t="n">
-        <v>94.3750789490468</v>
+        <v>95.69264260928051</v>
       </c>
     </row>
     <row r="560">
@@ -9397,10 +9397,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>166.5898847002703</v>
+        <v>428.4634554717601</v>
       </c>
       <c r="D560" t="n">
-        <v>78.86290954654376</v>
+        <v>86.91650051521837</v>
       </c>
     </row>
     <row r="561">
@@ -9413,10 +9413,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>216.6314538356528</v>
+        <v>484.1926500602988</v>
       </c>
       <c r="D561" t="n">
-        <v>90.80940084409916</v>
+        <v>77.62032274715318</v>
       </c>
     </row>
     <row r="562">
@@ -9429,10 +9429,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>205.8554718011243</v>
+        <v>465.6490517817301</v>
       </c>
       <c r="D562" t="n">
-        <v>88.2954022863849</v>
+        <v>81.41066162796054</v>
       </c>
     </row>
     <row r="563">
@@ -9445,10 +9445,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>142.6670631360602</v>
+        <v>366.1530598960433</v>
       </c>
       <c r="D563" t="n">
-        <v>97.8859011215946</v>
+        <v>78.94066541593416</v>
       </c>
     </row>
     <row r="564">
@@ -9461,10 +9461,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>206.2984780673495</v>
+        <v>165.0447888890959</v>
       </c>
       <c r="D564" t="n">
-        <v>88.8914210089869</v>
+        <v>76.42862955689471</v>
       </c>
     </row>
     <row r="565">
@@ -9477,10 +9477,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>141.339176149777</v>
+        <v>107.7053412532834</v>
       </c>
       <c r="D565" t="n">
-        <v>76.0875253575083</v>
+        <v>81.03691180234576</v>
       </c>
     </row>
     <row r="566">
@@ -9493,10 +9493,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>369.5066132425954</v>
+        <v>120.7973095589155</v>
       </c>
       <c r="D566" t="n">
-        <v>95.55439633737399</v>
+        <v>76.47023430403026</v>
       </c>
     </row>
     <row r="567">
@@ -9509,10 +9509,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>244.3604139593385</v>
+        <v>120.4133608687338</v>
       </c>
       <c r="D567" t="n">
-        <v>81.58432190685581</v>
+        <v>87.0729626679251</v>
       </c>
     </row>
     <row r="568">
@@ -9525,10 +9525,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>440.7673392468403</v>
+        <v>177.6938086508587</v>
       </c>
       <c r="D568" t="n">
-        <v>75.42357832931542</v>
+        <v>89.4260737074091</v>
       </c>
     </row>
     <row r="569">
@@ -9541,10 +9541,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>325.8164329059302</v>
+        <v>344.3808704037549</v>
       </c>
       <c r="D569" t="n">
-        <v>88.25976104038367</v>
+        <v>75.32755561812529</v>
       </c>
     </row>
     <row r="570">
@@ -9557,10 +9557,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>327.8054788941443</v>
+        <v>301.3576470553985</v>
       </c>
       <c r="D570" t="n">
-        <v>77.43427399464174</v>
+        <v>89.7211968161284</v>
       </c>
     </row>
     <row r="571">
@@ -9573,10 +9573,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>155.690383651731</v>
+        <v>410.1546908810458</v>
       </c>
       <c r="D571" t="n">
-        <v>90.38242780394866</v>
+        <v>90.29771675647882</v>
       </c>
     </row>
     <row r="572">
@@ -9589,10 +9589,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>274.9459416079669</v>
+        <v>371.0710834257716</v>
       </c>
       <c r="D572" t="n">
-        <v>84.00188209684161</v>
+        <v>88.15824350690656</v>
       </c>
     </row>
     <row r="573">
@@ -9605,10 +9605,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>341.5318516375218</v>
+        <v>305.6266089378287</v>
       </c>
       <c r="D573" t="n">
-        <v>86.56325603392584</v>
+        <v>85.94954802778244</v>
       </c>
     </row>
     <row r="574">
@@ -9621,10 +9621,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>327.7232255622182</v>
+        <v>345.7405321913664</v>
       </c>
       <c r="D574" t="n">
-        <v>96.29700904649451</v>
+        <v>94.75729980294776</v>
       </c>
     </row>
     <row r="575">
@@ -9637,10 +9637,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>413.8413677636187</v>
+        <v>495.0888762113062</v>
       </c>
       <c r="D575" t="n">
-        <v>89.59803544063458</v>
+        <v>75.17577272608746</v>
       </c>
     </row>
     <row r="576">
@@ -9653,10 +9653,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>353.7650925554216</v>
+        <v>109.0198743230372</v>
       </c>
       <c r="D576" t="n">
-        <v>87.97910973083903</v>
+        <v>97.56689709979612</v>
       </c>
     </row>
     <row r="577">
@@ -9669,10 +9669,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>386.4918449965781</v>
+        <v>380.1937330414243</v>
       </c>
       <c r="D577" t="n">
-        <v>83.09355383056685</v>
+        <v>95.70098248980095</v>
       </c>
     </row>
     <row r="578">
@@ -9685,10 +9685,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>138.2392178074684</v>
+        <v>495.401720271308</v>
       </c>
       <c r="D578" t="n">
-        <v>86.39982538570651</v>
+        <v>94.3607918738179</v>
       </c>
     </row>
     <row r="579">
@@ -9701,10 +9701,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>390.8202297979544</v>
+        <v>466.9402536792433</v>
       </c>
       <c r="D579" t="n">
-        <v>78.41924129683008</v>
+        <v>80.01217970782253</v>
       </c>
     </row>
     <row r="580">
@@ -9717,10 +9717,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>471.3112991892572</v>
+        <v>104.7193421857632</v>
       </c>
       <c r="D580" t="n">
-        <v>86.54238991900181</v>
+        <v>93.45113358573346</v>
       </c>
     </row>
     <row r="581">
@@ -9733,10 +9733,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>298.8063174778473</v>
+        <v>189.5604059393104</v>
       </c>
       <c r="D581" t="n">
-        <v>75.06371232579146</v>
+        <v>82.53373904675507</v>
       </c>
     </row>
     <row r="582">
@@ -9749,10 +9749,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>465.6293577696339</v>
+        <v>125.8916402576772</v>
       </c>
       <c r="D582" t="n">
-        <v>93.03722044623673</v>
+        <v>82.46472086549558</v>
       </c>
     </row>
     <row r="583">
@@ -9765,10 +9765,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>100.8659101011653</v>
+        <v>268.9782476679701</v>
       </c>
       <c r="D583" t="n">
-        <v>79.43603916358414</v>
+        <v>77.59779827744205</v>
       </c>
     </row>
     <row r="584">
@@ -9781,10 +9781,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>167.3204369151426</v>
+        <v>255.279798897497</v>
       </c>
       <c r="D584" t="n">
-        <v>76.97263746617931</v>
+        <v>83.15097365652385</v>
       </c>
     </row>
     <row r="585">
@@ -9797,10 +9797,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>286.0818800265793</v>
+        <v>131.1412413171848</v>
       </c>
       <c r="D585" t="n">
-        <v>96.95157660343281</v>
+        <v>90.68008382182428</v>
       </c>
     </row>
     <row r="586">
@@ -9813,10 +9813,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>357.329873932068</v>
+        <v>395.6193384206349</v>
       </c>
       <c r="D586" t="n">
-        <v>85.67740011443024</v>
+        <v>75.75917623992162</v>
       </c>
     </row>
     <row r="587">
@@ -9829,10 +9829,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>420.3778530881984</v>
+        <v>484.0161340863287</v>
       </c>
       <c r="D587" t="n">
-        <v>83.22842263729355</v>
+        <v>83.90722832052688</v>
       </c>
     </row>
     <row r="588">
@@ -9845,10 +9845,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>439.0921973829894</v>
+        <v>448.7653093726938</v>
       </c>
       <c r="D588" t="n">
-        <v>77.37130554918113</v>
+        <v>77.8758349438355</v>
       </c>
     </row>
     <row r="589">
@@ -9861,10 +9861,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>460.7281497816977</v>
+        <v>414.4017002281847</v>
       </c>
       <c r="D589" t="n">
-        <v>85.51560722373945</v>
+        <v>94.85683189435896</v>
       </c>
     </row>
     <row r="590">
@@ -9877,10 +9877,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>333.7978561935932</v>
+        <v>299.9260474662572</v>
       </c>
       <c r="D590" t="n">
-        <v>81.56780359128722</v>
+        <v>88.28650744794244</v>
       </c>
     </row>
     <row r="591">
@@ -9893,10 +9893,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>228.4249710291471</v>
+        <v>354.5431619601067</v>
       </c>
       <c r="D591" t="n">
-        <v>87.35950573479657</v>
+        <v>76.57135789422237</v>
       </c>
     </row>
     <row r="592">
@@ -9909,10 +9909,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>366.0203651344344</v>
+        <v>369.2474973057494</v>
       </c>
       <c r="D592" t="n">
-        <v>89.68142712810757</v>
+        <v>82.58740639949946</v>
       </c>
     </row>
     <row r="593">
@@ -9925,10 +9925,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>404.5515297431383</v>
+        <v>121.934605998154</v>
       </c>
       <c r="D593" t="n">
-        <v>83.29631424914771</v>
+        <v>86.87098445799961</v>
       </c>
     </row>
     <row r="594">
@@ -9941,10 +9941,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>455.9824633831467</v>
+        <v>193.3545423791732</v>
       </c>
       <c r="D594" t="n">
-        <v>93.75049959107059</v>
+        <v>91.17494915547556</v>
       </c>
     </row>
     <row r="595">
@@ -9957,10 +9957,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>448.2502024380984</v>
+        <v>354.9834273955519</v>
       </c>
       <c r="D595" t="n">
-        <v>86.35007727066626</v>
+        <v>92.4742774572445</v>
       </c>
     </row>
     <row r="596">
@@ -9973,10 +9973,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>430.7306690004029</v>
+        <v>233.5684333459096</v>
       </c>
       <c r="D596" t="n">
-        <v>97.49725706069576</v>
+        <v>79.87125965599085</v>
       </c>
     </row>
     <row r="597">
@@ -9989,10 +9989,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>460.6365319546875</v>
+        <v>469.2332016130015</v>
       </c>
       <c r="D597" t="n">
-        <v>81.74310719632776</v>
+        <v>92.02031218247308</v>
       </c>
     </row>
     <row r="598">
@@ -10005,10 +10005,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>323.8649679741518</v>
+        <v>417.3319733243891</v>
       </c>
       <c r="D598" t="n">
-        <v>87.5953360525227</v>
+        <v>95.15024271064776</v>
       </c>
     </row>
     <row r="599">
@@ -10021,10 +10021,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>317.8071830161587</v>
+        <v>446.2715925313595</v>
       </c>
       <c r="D599" t="n">
-        <v>96.30699158243506</v>
+        <v>79.78780463654203</v>
       </c>
     </row>
     <row r="600">
@@ -10037,10 +10037,10 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>471.7352081554823</v>
+        <v>348.9527712819672</v>
       </c>
       <c r="D600" t="n">
-        <v>93.59553277151508</v>
+        <v>94.98914568035808</v>
       </c>
     </row>
     <row r="601">
@@ -10053,10 +10053,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>139.235612459512</v>
+        <v>276.3361602096664</v>
       </c>
       <c r="D601" t="n">
-        <v>79.69657821837241</v>
+        <v>90.3086153479376</v>
       </c>
     </row>
     <row r="602">
@@ -10069,10 +10069,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>341.9889193665807</v>
+        <v>326.6920688178095</v>
       </c>
       <c r="D602" t="n">
-        <v>89.2919362651637</v>
+        <v>91.33062685641025</v>
       </c>
     </row>
     <row r="603">
@@ -10085,10 +10085,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>158.7581935014601</v>
+        <v>186.6604286315793</v>
       </c>
       <c r="D603" t="n">
-        <v>85.55881968037455</v>
+        <v>79.56085652717225</v>
       </c>
     </row>
     <row r="604">
@@ -10101,10 +10101,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>393.0184444113441</v>
+        <v>383.7940127415453</v>
       </c>
       <c r="D604" t="n">
-        <v>80.98695540482447</v>
+        <v>90.641176511738</v>
       </c>
     </row>
     <row r="605">
@@ -10117,10 +10117,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>281.4874563333598</v>
+        <v>213.4683661242121</v>
       </c>
       <c r="D605" t="n">
-        <v>77.62931413681264</v>
+        <v>76.55273342678144</v>
       </c>
     </row>
     <row r="606">
@@ -10133,10 +10133,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>399.8307515445545</v>
+        <v>221.860697598182</v>
       </c>
       <c r="D606" t="n">
-        <v>82.07721927284132</v>
+        <v>75.63834558405472</v>
       </c>
     </row>
     <row r="607">
@@ -10149,10 +10149,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>217.7376445023439</v>
+        <v>488.9278092169351</v>
       </c>
       <c r="D607" t="n">
-        <v>84.33929046390507</v>
+        <v>88.60715321066701</v>
       </c>
     </row>
     <row r="608">
@@ -10165,10 +10165,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>171.5231744301493</v>
+        <v>475.6735250383749</v>
       </c>
       <c r="D608" t="n">
-        <v>94.0218148533357</v>
+        <v>75.51707623761503</v>
       </c>
     </row>
     <row r="609">
@@ -10181,10 +10181,10 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>412.1237832062242</v>
+        <v>255.1226933703546</v>
       </c>
       <c r="D609" t="n">
-        <v>92.05869107457704</v>
+        <v>91.83244692055021</v>
       </c>
     </row>
     <row r="610">
@@ -10197,10 +10197,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>182.9796958607923</v>
+        <v>280.6213322041331</v>
       </c>
       <c r="D610" t="n">
-        <v>87.45190273423955</v>
+        <v>78.03013056934888</v>
       </c>
     </row>
     <row r="611">
@@ -10213,10 +10213,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>305.8082219029139</v>
+        <v>484.8761940967551</v>
       </c>
       <c r="D611" t="n">
-        <v>92.40383102453897</v>
+        <v>85.1311535477668</v>
       </c>
     </row>
     <row r="612">
@@ -10229,10 +10229,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>301.7934323506119</v>
+        <v>201.951684868618</v>
       </c>
       <c r="D612" t="n">
-        <v>93.15411593413877</v>
+        <v>81.4676313938438</v>
       </c>
     </row>
     <row r="613">
@@ -10245,10 +10245,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>331.010357437638</v>
+        <v>225.3548934822529</v>
       </c>
       <c r="D613" t="n">
-        <v>97.20567111947913</v>
+        <v>88.73834490731072</v>
       </c>
     </row>
     <row r="614">
@@ -10261,10 +10261,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>243.0323519852536</v>
+        <v>354.7724442128882</v>
       </c>
       <c r="D614" t="n">
-        <v>91.12534049359708</v>
+        <v>80.88878821645069</v>
       </c>
     </row>
     <row r="615">
@@ -10277,10 +10277,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>366.6129153632961</v>
+        <v>109.2505906749905</v>
       </c>
       <c r="D615" t="n">
-        <v>86.20997111198793</v>
+        <v>83.02382695208445</v>
       </c>
     </row>
     <row r="616">
@@ -10293,10 +10293,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>279.3273651945807</v>
+        <v>177.8121390369554</v>
       </c>
       <c r="D616" t="n">
-        <v>80.84905915515131</v>
+        <v>96.56779232993898</v>
       </c>
     </row>
     <row r="617">
@@ -10309,10 +10309,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>283.625548580436</v>
+        <v>382.9700465173146</v>
       </c>
       <c r="D617" t="n">
-        <v>84.1610226532264</v>
+        <v>81.48360915538393</v>
       </c>
     </row>
     <row r="618">
@@ -10325,10 +10325,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>131.4435000845319</v>
+        <v>444.0662007604504</v>
       </c>
       <c r="D618" t="n">
-        <v>87.91809853732688</v>
+        <v>88.21604391425849</v>
       </c>
     </row>
     <row r="619">
@@ -10341,10 +10341,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>186.1395567407687</v>
+        <v>222.9865194996209</v>
       </c>
       <c r="D619" t="n">
-        <v>78.26174938138489</v>
+        <v>87.61485471666903</v>
       </c>
     </row>
     <row r="620">
@@ -10357,10 +10357,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>471.8729648434524</v>
+        <v>177.4645588357568</v>
       </c>
       <c r="D620" t="n">
-        <v>96.02089551849011</v>
+        <v>89.99568924326407</v>
       </c>
     </row>
     <row r="621">
@@ -10373,10 +10373,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>323.2857523117804</v>
+        <v>194.4457732771363</v>
       </c>
       <c r="D621" t="n">
-        <v>95.58538892331009</v>
+        <v>78.49182867049565</v>
       </c>
     </row>
     <row r="622">
@@ -10389,10 +10389,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>152.868397135975</v>
+        <v>247.5692703446281</v>
       </c>
       <c r="D622" t="n">
-        <v>87.80115144971936</v>
+        <v>92.29683204686279</v>
       </c>
     </row>
     <row r="623">
@@ -10405,10 +10405,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>112.7630222810286</v>
+        <v>495.0019050961535</v>
       </c>
       <c r="D623" t="n">
-        <v>97.50009365726788</v>
+        <v>89.55834849923127</v>
       </c>
     </row>
     <row r="624">
@@ -10421,10 +10421,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>366.3634147558549</v>
+        <v>366.2708013678559</v>
       </c>
       <c r="D624" t="n">
-        <v>93.99461717068793</v>
+        <v>83.75854891070932</v>
       </c>
     </row>
     <row r="625">
@@ -10437,10 +10437,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>192.0898058328289</v>
+        <v>223.939906689362</v>
       </c>
       <c r="D625" t="n">
-        <v>95.00359229025031</v>
+        <v>83.5349553581502</v>
       </c>
     </row>
     <row r="626">
@@ -10453,10 +10453,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>163.5586048797477</v>
+        <v>247.6670098733809</v>
       </c>
       <c r="D626" t="n">
-        <v>94.86844203555995</v>
+        <v>90.87144682863833</v>
       </c>
     </row>
     <row r="627">
@@ -10469,10 +10469,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>130.469196284206</v>
+        <v>275.9933980971241</v>
       </c>
       <c r="D627" t="n">
-        <v>81.07198274331762</v>
+        <v>79.60440003352103</v>
       </c>
     </row>
     <row r="628">
@@ -10485,10 +10485,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>408.9988015467698</v>
+        <v>472.2167660176269</v>
       </c>
       <c r="D628" t="n">
-        <v>79.50437104961053</v>
+        <v>95.43403035353256</v>
       </c>
     </row>
     <row r="629">
@@ -10501,10 +10501,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>160.4256553643351</v>
+        <v>296.0000734151046</v>
       </c>
       <c r="D629" t="n">
-        <v>82.70851065425794</v>
+        <v>80.93165258046119</v>
       </c>
     </row>
     <row r="630">
@@ -10517,10 +10517,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>492.2758061863672</v>
+        <v>286.7038372202415</v>
       </c>
       <c r="D630" t="n">
-        <v>92.95072284388237</v>
+        <v>82.2733262290088</v>
       </c>
     </row>
     <row r="631">
@@ -10533,10 +10533,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>254.0568866320174</v>
+        <v>428.1631226963752</v>
       </c>
       <c r="D631" t="n">
-        <v>90.38492435841076</v>
+        <v>82.71066503148599</v>
       </c>
     </row>
     <row r="632">
@@ -10549,10 +10549,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>492.5665808097013</v>
+        <v>246.4333256893455</v>
       </c>
       <c r="D632" t="n">
-        <v>88.98070426216916</v>
+        <v>90.26809615219838</v>
       </c>
     </row>
     <row r="633">
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>196.3037725345935</v>
+        <v>320.8577403453594</v>
       </c>
       <c r="D633" t="n">
-        <v>87.01210990081631</v>
+        <v>76.10056674044998</v>
       </c>
     </row>
     <row r="634">
@@ -10581,10 +10581,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>486.0024388080775</v>
+        <v>335.9288622300276</v>
       </c>
       <c r="D634" t="n">
-        <v>81.35466759866138</v>
+        <v>76.91390062252214</v>
       </c>
     </row>
     <row r="635">
@@ -10597,10 +10597,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>154.499029432682</v>
+        <v>219.1823921928203</v>
       </c>
       <c r="D635" t="n">
-        <v>92.41979738436135</v>
+        <v>90.29868612373201</v>
       </c>
     </row>
     <row r="636">
@@ -10613,10 +10613,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>444.5929349345589</v>
+        <v>247.834100216029</v>
       </c>
       <c r="D636" t="n">
-        <v>86.37357382561774</v>
+        <v>87.03315271523701</v>
       </c>
     </row>
     <row r="637">
@@ -10629,10 +10629,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>170.910124954402</v>
+        <v>296.2999316343829</v>
       </c>
       <c r="D637" t="n">
-        <v>91.84102761382903</v>
+        <v>82.4898473151375</v>
       </c>
     </row>
     <row r="638">
@@ -10645,10 +10645,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>118.5371230378489</v>
+        <v>300.6499351719561</v>
       </c>
       <c r="D638" t="n">
-        <v>96.43154055244027</v>
+        <v>91.72098502372209</v>
       </c>
     </row>
     <row r="639">
@@ -10661,10 +10661,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>257.5674309311814</v>
+        <v>357.067502983798</v>
       </c>
       <c r="D639" t="n">
-        <v>93.9937233378086</v>
+        <v>88.54304799716364</v>
       </c>
     </row>
     <row r="640">
@@ -10677,10 +10677,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>453.168403375365</v>
+        <v>432.094065678355</v>
       </c>
       <c r="D640" t="n">
-        <v>85.04246773722342</v>
+        <v>81.16029326413633</v>
       </c>
     </row>
     <row r="641">
@@ -10693,10 +10693,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>278.1986899777997</v>
+        <v>229.0783972057341</v>
       </c>
       <c r="D641" t="n">
-        <v>88.05884038133736</v>
+        <v>78.62877925355468</v>
       </c>
     </row>
     <row r="642">
@@ -10709,10 +10709,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>327.9914944345759</v>
+        <v>428.8404897832364</v>
       </c>
       <c r="D642" t="n">
-        <v>81.77784334163213</v>
+        <v>87.90879810659939</v>
       </c>
     </row>
     <row r="643">
@@ -10725,10 +10725,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>259.9531004752628</v>
+        <v>233.9967272853398</v>
       </c>
       <c r="D643" t="n">
-        <v>89.39524738943314</v>
+        <v>97.92247491690011</v>
       </c>
     </row>
     <row r="644">
@@ -10741,10 +10741,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>218.1378379774256</v>
+        <v>282.2992170136322</v>
       </c>
       <c r="D644" t="n">
-        <v>87.50748126248526</v>
+        <v>85.38992833136919</v>
       </c>
     </row>
     <row r="645">
@@ -10757,10 +10757,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>297.7332030349154</v>
+        <v>247.9056738630227</v>
       </c>
       <c r="D645" t="n">
-        <v>82.81567463116538</v>
+        <v>75.26019262491056</v>
       </c>
     </row>
     <row r="646">
@@ -10773,10 +10773,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>303.2536170515917</v>
+        <v>496.1769101040962</v>
       </c>
       <c r="D646" t="n">
-        <v>82.99068489568037</v>
+        <v>87.30649908618666</v>
       </c>
     </row>
     <row r="647">
@@ -10789,10 +10789,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>113.5989101133604</v>
+        <v>255.3882850363649</v>
       </c>
       <c r="D647" t="n">
-        <v>94.96453123389908</v>
+        <v>91.70643405373049</v>
       </c>
     </row>
     <row r="648">
@@ -10805,10 +10805,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>457.4158821381383</v>
+        <v>227.4450792309653</v>
       </c>
       <c r="D648" t="n">
-        <v>95.72568194468195</v>
+        <v>91.27254101349013</v>
       </c>
     </row>
     <row r="649">
@@ -10821,10 +10821,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>103.7518165661214</v>
+        <v>380.8678096347839</v>
       </c>
       <c r="D649" t="n">
-        <v>89.95812999580518</v>
+        <v>87.08430595566662</v>
       </c>
     </row>
     <row r="650">
@@ -10837,10 +10837,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>317.6174340419579</v>
+        <v>312.345853934723</v>
       </c>
       <c r="D650" t="n">
-        <v>77.17539731556639</v>
+        <v>85.22949153127419</v>
       </c>
     </row>
     <row r="651">
@@ -10853,10 +10853,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>361.5373805357798</v>
+        <v>344.6423533981529</v>
       </c>
       <c r="D651" t="n">
-        <v>75.10231046474318</v>
+        <v>94.26134283318005</v>
       </c>
     </row>
     <row r="652">
@@ -10869,10 +10869,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>219.874277841022</v>
+        <v>136.5834299501069</v>
       </c>
       <c r="D652" t="n">
-        <v>88.74502688824379</v>
+        <v>93.0232611048917</v>
       </c>
     </row>
     <row r="653">
@@ -10885,10 +10885,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>384.1079717228828</v>
+        <v>315.9301280972648</v>
       </c>
       <c r="D653" t="n">
-        <v>76.49947403092999</v>
+        <v>80.96707058579689</v>
       </c>
     </row>
     <row r="654">
@@ -10901,10 +10901,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>359.581020610124</v>
+        <v>483.870516610986</v>
       </c>
       <c r="D654" t="n">
-        <v>82.8856557997494</v>
+        <v>83.09335183372725</v>
       </c>
     </row>
     <row r="655">
@@ -10917,10 +10917,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>269.4057433877931</v>
+        <v>281.1074079473128</v>
       </c>
       <c r="D655" t="n">
-        <v>93.10245239152673</v>
+        <v>85.30656824528172</v>
       </c>
     </row>
     <row r="656">
@@ -10933,10 +10933,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>287.0207261161869</v>
+        <v>272.7332810479299</v>
       </c>
       <c r="D656" t="n">
-        <v>76.62893795005115</v>
+        <v>77.2713165592116</v>
       </c>
     </row>
     <row r="657">
@@ -10949,10 +10949,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>451.5631186099515</v>
+        <v>201.4393416174287</v>
       </c>
       <c r="D657" t="n">
-        <v>96.57661932427658</v>
+        <v>88.71790482411927</v>
       </c>
     </row>
     <row r="658">
@@ -10965,10 +10965,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>452.0059298331458</v>
+        <v>240.7361278817621</v>
       </c>
       <c r="D658" t="n">
-        <v>79.35771522568264</v>
+        <v>75.32683917528533</v>
       </c>
     </row>
     <row r="659">
@@ -10981,10 +10981,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>319.0902904001593</v>
+        <v>144.4742538081701</v>
       </c>
       <c r="D659" t="n">
-        <v>80.923044813152</v>
+        <v>92.54182926244229</v>
       </c>
     </row>
     <row r="660">
@@ -10997,10 +10997,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>144.2623557850455</v>
+        <v>254.2519644957819</v>
       </c>
       <c r="D660" t="n">
-        <v>76.61515893872581</v>
+        <v>95.91528846802018</v>
       </c>
     </row>
     <row r="661">
@@ -11013,10 +11013,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>212.182569631861</v>
+        <v>194.30219132325</v>
       </c>
       <c r="D661" t="n">
-        <v>79.92967222917156</v>
+        <v>90.23598321266455</v>
       </c>
     </row>
     <row r="662">
@@ -11029,10 +11029,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>289.3521680969806</v>
+        <v>253.1718680182928</v>
       </c>
       <c r="D662" t="n">
-        <v>76.18287736171736</v>
+        <v>91.60760321981584</v>
       </c>
     </row>
     <row r="663">
@@ -11045,10 +11045,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>125.2757696032959</v>
+        <v>422.8930612432501</v>
       </c>
       <c r="D663" t="n">
-        <v>87.5759430167253</v>
+        <v>82.45989657420954</v>
       </c>
     </row>
     <row r="664">
@@ -11061,10 +11061,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>253.0184727656832</v>
+        <v>404.2962410317154</v>
       </c>
       <c r="D664" t="n">
-        <v>76.73893679930909</v>
+        <v>75.18661274834773</v>
       </c>
     </row>
     <row r="665">
@@ -11077,10 +11077,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>442.7429980466179</v>
+        <v>213.7320827248481</v>
       </c>
       <c r="D665" t="n">
-        <v>92.38827731463056</v>
+        <v>91.69435408140535</v>
       </c>
     </row>
     <row r="666">
@@ -11093,10 +11093,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>309.2820152890081</v>
+        <v>285.0401389914811</v>
       </c>
       <c r="D666" t="n">
-        <v>89.21991685187736</v>
+        <v>93.23706250446284</v>
       </c>
     </row>
     <row r="667">
@@ -11109,10 +11109,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>490.6692945810723</v>
+        <v>183.1597316401912</v>
       </c>
       <c r="D667" t="n">
-        <v>91.15710805148737</v>
+        <v>75.8319487554609</v>
       </c>
     </row>
     <row r="668">
@@ -11125,10 +11125,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>143.6416534845835</v>
+        <v>432.6626781393359</v>
       </c>
       <c r="D668" t="n">
-        <v>80.92969924125407</v>
+        <v>87.87548769622795</v>
       </c>
     </row>
     <row r="669">
@@ -11141,10 +11141,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>220.9107096387357</v>
+        <v>325.7699735258563</v>
       </c>
       <c r="D669" t="n">
-        <v>86.77368716823379</v>
+        <v>80.39569854306113</v>
       </c>
     </row>
     <row r="670">
@@ -11157,10 +11157,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>283.2918453937591</v>
+        <v>462.8678016845143</v>
       </c>
       <c r="D670" t="n">
-        <v>80.59636048356786</v>
+        <v>78.41810833098616</v>
       </c>
     </row>
     <row r="671">
@@ -11173,10 +11173,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>207.1388349561518</v>
+        <v>341.6776168918063</v>
       </c>
       <c r="D671" t="n">
-        <v>87.60725269412454</v>
+        <v>77.06766246475983</v>
       </c>
     </row>
     <row r="672">
@@ -11189,10 +11189,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>303.7596149256944</v>
+        <v>243.4349658011866</v>
       </c>
       <c r="D672" t="n">
-        <v>96.74983207910961</v>
+        <v>97.02235159639893</v>
       </c>
     </row>
     <row r="673">
@@ -11205,10 +11205,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>212.175575544602</v>
+        <v>215.7124880068698</v>
       </c>
       <c r="D673" t="n">
-        <v>81.78205972849211</v>
+        <v>78.99110870639588</v>
       </c>
     </row>
     <row r="674">
@@ -11221,10 +11221,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>106.6209687352138</v>
+        <v>355.2485516482778</v>
       </c>
       <c r="D674" t="n">
-        <v>76.08521402649657</v>
+        <v>97.32875463998356</v>
       </c>
     </row>
     <row r="675">
@@ -11237,10 +11237,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>374.0720820279196</v>
+        <v>410.5953291345893</v>
       </c>
       <c r="D675" t="n">
-        <v>75.00816557815034</v>
+        <v>91.01234425275608</v>
       </c>
     </row>
     <row r="676">
@@ -11253,10 +11253,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>157.8833883747258</v>
+        <v>403.347724290366</v>
       </c>
       <c r="D676" t="n">
-        <v>80.96226085321291</v>
+        <v>89.71559118950447</v>
       </c>
     </row>
     <row r="677">
@@ -11269,10 +11269,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>294.0734545349124</v>
+        <v>271.5770401692603</v>
       </c>
       <c r="D677" t="n">
-        <v>80.91695935342528</v>
+        <v>93.85441291620758</v>
       </c>
     </row>
     <row r="678">
@@ -11285,10 +11285,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>179.3769034171713</v>
+        <v>229.5769474957315</v>
       </c>
       <c r="D678" t="n">
-        <v>96.05982281999908</v>
+        <v>86.93438099608547</v>
       </c>
     </row>
     <row r="679">
@@ -11301,10 +11301,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>440.1317824876221</v>
+        <v>452.9793433268499</v>
       </c>
       <c r="D679" t="n">
-        <v>79.02365653044022</v>
+        <v>77.7398184344167</v>
       </c>
     </row>
     <row r="680">
@@ -11317,10 +11317,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>328.795850582634</v>
+        <v>197.7822500252046</v>
       </c>
       <c r="D680" t="n">
-        <v>87.64542335943416</v>
+        <v>90.54074487586657</v>
       </c>
     </row>
     <row r="681">
@@ -11333,10 +11333,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>260.3941872038463</v>
+        <v>338.9372766666921</v>
       </c>
       <c r="D681" t="n">
-        <v>85.14216885905093</v>
+        <v>89.71695120566756</v>
       </c>
     </row>
     <row r="682">
@@ -11349,10 +11349,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>443.4442289826098</v>
+        <v>466.1763696404625</v>
       </c>
       <c r="D682" t="n">
-        <v>88.0734218033858</v>
+        <v>94.00346801185187</v>
       </c>
     </row>
     <row r="683">
@@ -11365,10 +11365,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>157.138065805501</v>
+        <v>467.0320940714898</v>
       </c>
       <c r="D683" t="n">
-        <v>76.86361561600262</v>
+        <v>88.39845188954686</v>
       </c>
     </row>
     <row r="684">
@@ -11381,10 +11381,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>173.4410477113869</v>
+        <v>211.806668630759</v>
       </c>
       <c r="D684" t="n">
-        <v>96.24461883930839</v>
+        <v>93.19662687543821</v>
       </c>
     </row>
     <row r="685">
@@ -11397,10 +11397,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>479.0769728382398</v>
+        <v>435.5517986234502</v>
       </c>
       <c r="D685" t="n">
-        <v>90.70592837362939</v>
+        <v>85.38980751684862</v>
       </c>
     </row>
     <row r="686">
@@ -11413,10 +11413,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>428.0550404591089</v>
+        <v>400.34650467731</v>
       </c>
       <c r="D686" t="n">
-        <v>91.60192460790438</v>
+        <v>92.64904537636308</v>
       </c>
     </row>
     <row r="687">
@@ -11429,10 +11429,10 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>406.2751352433471</v>
+        <v>212.1901928594666</v>
       </c>
       <c r="D687" t="n">
-        <v>84.30690818085833</v>
+        <v>94.97541288059969</v>
       </c>
     </row>
     <row r="688">
@@ -11445,10 +11445,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>190.2020145639773</v>
+        <v>173.5738660717907</v>
       </c>
       <c r="D688" t="n">
-        <v>91.07254869849338</v>
+        <v>94.83484530454982</v>
       </c>
     </row>
     <row r="689">
@@ -11461,10 +11461,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>352.4044569090961</v>
+        <v>470.1828853230928</v>
       </c>
       <c r="D689" t="n">
-        <v>87.50763082687601</v>
+        <v>96.00131453855046</v>
       </c>
     </row>
     <row r="690">
@@ -11477,10 +11477,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>133.4858512472175</v>
+        <v>225.5007697276281</v>
       </c>
       <c r="D690" t="n">
-        <v>79.42798519325682</v>
+        <v>85.75768556555241</v>
       </c>
     </row>
     <row r="691">
@@ -11493,10 +11493,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>197.8266784304028</v>
+        <v>476.3823253884433</v>
       </c>
       <c r="D691" t="n">
-        <v>80.64305098183152</v>
+        <v>91.57474367523872</v>
       </c>
     </row>
     <row r="692">
@@ -11509,10 +11509,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>443.8755522296588</v>
+        <v>432.9626952310426</v>
       </c>
       <c r="D692" t="n">
-        <v>80.30875846888786</v>
+        <v>83.05765687069893</v>
       </c>
     </row>
     <row r="693">
@@ -11525,10 +11525,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>275.8043863306092</v>
+        <v>288.7373020538574</v>
       </c>
       <c r="D693" t="n">
-        <v>93.02866195358179</v>
+        <v>77.16390809106714</v>
       </c>
     </row>
     <row r="694">
@@ -11541,10 +11541,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>277.6137208486341</v>
+        <v>169.8207541425935</v>
       </c>
       <c r="D694" t="n">
-        <v>82.31241734204508</v>
+        <v>84.36879645232905</v>
       </c>
     </row>
     <row r="695">
@@ -11557,10 +11557,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>202.5109786987887</v>
+        <v>297.4683803615987</v>
       </c>
       <c r="D695" t="n">
-        <v>88.94630866937244</v>
+        <v>84.24096409961697</v>
       </c>
     </row>
     <row r="696">
@@ -11573,10 +11573,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>372.7016302713337</v>
+        <v>180.2149411682711</v>
       </c>
       <c r="D696" t="n">
-        <v>77.11392772166903</v>
+        <v>83.11342797452022</v>
       </c>
     </row>
     <row r="697">
@@ -11589,10 +11589,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>227.1316769983488</v>
+        <v>423.0837594646455</v>
       </c>
       <c r="D697" t="n">
-        <v>97.68953093629582</v>
+        <v>94.06432235586219</v>
       </c>
     </row>
     <row r="698">
@@ -11605,10 +11605,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>322.0676491801547</v>
+        <v>404.2954215098408</v>
       </c>
       <c r="D698" t="n">
-        <v>97.16310133119022</v>
+        <v>91.82665710022491</v>
       </c>
     </row>
     <row r="699">
@@ -11621,10 +11621,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>272.5747295855546</v>
+        <v>147.8233805904854</v>
       </c>
       <c r="D699" t="n">
-        <v>91.46663194876027</v>
+        <v>92.71473810751365</v>
       </c>
     </row>
     <row r="700">
@@ -11637,10 +11637,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>484.3904225301895</v>
+        <v>111.5129216316831</v>
       </c>
       <c r="D700" t="n">
-        <v>94.3435702312716</v>
+        <v>86.12021792750969</v>
       </c>
     </row>
     <row r="701">
@@ -11653,10 +11653,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>131.0315066379763</v>
+        <v>204.8563811844078</v>
       </c>
       <c r="D701" t="n">
-        <v>83.01051255681938</v>
+        <v>90.2284100250022</v>
       </c>
     </row>
     <row r="702">
@@ -11669,10 +11669,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>368.6015951465524</v>
+        <v>357.5533770254569</v>
       </c>
       <c r="D702" t="n">
-        <v>77.01255853106053</v>
+        <v>82.56791259878776</v>
       </c>
     </row>
     <row r="703">
@@ -11685,10 +11685,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>134.7009258153634</v>
+        <v>164.8868608636035</v>
       </c>
       <c r="D703" t="n">
-        <v>75.80425294859069</v>
+        <v>80.81893026485423</v>
       </c>
     </row>
     <row r="704">
@@ -11701,10 +11701,10 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>226.2944043041765</v>
+        <v>364.816079221387</v>
       </c>
       <c r="D704" t="n">
-        <v>97.44182472419749</v>
+        <v>89.55662549276036</v>
       </c>
     </row>
     <row r="705">
@@ -11717,10 +11717,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>319.3776942185926</v>
+        <v>134.9012202878834</v>
       </c>
       <c r="D705" t="n">
-        <v>88.73661000304335</v>
+        <v>88.68929868861545</v>
       </c>
     </row>
     <row r="706">
@@ -11733,10 +11733,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>144.7616246030012</v>
+        <v>425.3384589224379</v>
       </c>
       <c r="D706" t="n">
-        <v>86.768523133394</v>
+        <v>97.83572803166753</v>
       </c>
     </row>
     <row r="707">
@@ -11749,10 +11749,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>354.7025233954299</v>
+        <v>382.3059704385429</v>
       </c>
       <c r="D707" t="n">
-        <v>92.5959182547293</v>
+        <v>85.93747813055376</v>
       </c>
     </row>
     <row r="708">
@@ -11765,10 +11765,10 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>358.853890113138</v>
+        <v>172.8651301224989</v>
       </c>
       <c r="D708" t="n">
-        <v>86.75107838911278</v>
+        <v>77.52333175130178</v>
       </c>
     </row>
     <row r="709">
@@ -11781,10 +11781,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>374.8288417321753</v>
+        <v>305.1004316100989</v>
       </c>
       <c r="D709" t="n">
-        <v>94.51300310550717</v>
+        <v>81.89542426782495</v>
       </c>
     </row>
     <row r="710">
@@ -11797,10 +11797,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>235.0701021892076</v>
+        <v>453.6002364768098</v>
       </c>
       <c r="D710" t="n">
-        <v>91.69250333202257</v>
+        <v>83.637289218178</v>
       </c>
     </row>
     <row r="711">
@@ -11813,10 +11813,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>200.4907508642878</v>
+        <v>470.1202709057343</v>
       </c>
       <c r="D711" t="n">
-        <v>77.23005314954496</v>
+        <v>93.88472384403886</v>
       </c>
     </row>
     <row r="712">
@@ -11829,10 +11829,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>418.740243407513</v>
+        <v>380.8418961830884</v>
       </c>
       <c r="D712" t="n">
-        <v>93.7574173524695</v>
+        <v>81.69524601049997</v>
       </c>
     </row>
     <row r="713">
@@ -11845,10 +11845,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>343.2871616674065</v>
+        <v>332.0275998783484</v>
       </c>
       <c r="D713" t="n">
-        <v>81.63517042278079</v>
+        <v>83.04284347870251</v>
       </c>
     </row>
     <row r="714">
@@ -11861,10 +11861,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>154.685720337284</v>
+        <v>213.1170566015237</v>
       </c>
       <c r="D714" t="n">
-        <v>75.133501065725</v>
+        <v>94.76488491794508</v>
       </c>
     </row>
     <row r="715">
@@ -11877,10 +11877,10 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>137.8649853575767</v>
+        <v>319.0074288978043</v>
       </c>
       <c r="D715" t="n">
-        <v>93.30192353512808</v>
+        <v>96.51721536198818</v>
       </c>
     </row>
     <row r="716">
@@ -11893,10 +11893,10 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>167.8219280483594</v>
+        <v>444.2648574670249</v>
       </c>
       <c r="D716" t="n">
-        <v>78.06754019683373</v>
+        <v>92.3960106897979</v>
       </c>
     </row>
     <row r="717">
@@ -11909,10 +11909,10 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>445.0067800369863</v>
+        <v>270.969952100545</v>
       </c>
       <c r="D717" t="n">
-        <v>83.43242811062791</v>
+        <v>96.31566549858653</v>
       </c>
     </row>
     <row r="718">
@@ -11925,10 +11925,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>279.4000033284846</v>
+        <v>174.1283085623597</v>
       </c>
       <c r="D718" t="n">
-        <v>85.52672422678224</v>
+        <v>93.46214172245107</v>
       </c>
     </row>
     <row r="719">
@@ -11941,10 +11941,10 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>351.4298781209995</v>
+        <v>390.1420888082995</v>
       </c>
       <c r="D719" t="n">
-        <v>93.3856438339911</v>
+        <v>87.05308785099567</v>
       </c>
     </row>
     <row r="720">
@@ -11957,10 +11957,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>457.4232320142414</v>
+        <v>414.5128280798095</v>
       </c>
       <c r="D720" t="n">
-        <v>86.57119787153326</v>
+        <v>89.3653897303177</v>
       </c>
     </row>
     <row r="721">
@@ -11973,10 +11973,10 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>426.873918008246</v>
+        <v>236.9852923785108</v>
       </c>
       <c r="D721" t="n">
-        <v>84.32649750299008</v>
+        <v>96.89736175179591</v>
       </c>
     </row>
     <row r="722">
@@ -11989,10 +11989,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>221.5450359047732</v>
+        <v>310.8556608689321</v>
       </c>
       <c r="D722" t="n">
-        <v>94.07917765118725</v>
+        <v>92.28366366539881</v>
       </c>
     </row>
     <row r="723">
@@ -12005,10 +12005,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>428.8399610371931</v>
+        <v>357.3146181674762</v>
       </c>
       <c r="D723" t="n">
-        <v>76.84159908181286</v>
+        <v>89.8546345623176</v>
       </c>
     </row>
     <row r="724">
@@ -12021,10 +12021,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>139.033395265823</v>
+        <v>224.3715857099753</v>
       </c>
       <c r="D724" t="n">
-        <v>82.35973703013221</v>
+        <v>84.82346798121878</v>
       </c>
     </row>
     <row r="725">
@@ -12037,10 +12037,10 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>379.8311590838924</v>
+        <v>288.6423593280567</v>
       </c>
       <c r="D725" t="n">
-        <v>84.58168379170358</v>
+        <v>95.78697540568794</v>
       </c>
     </row>
     <row r="726">
@@ -12053,10 +12053,10 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>398.9424113585553</v>
+        <v>136.6696089988575</v>
       </c>
       <c r="D726" t="n">
-        <v>77.57451943346858</v>
+        <v>83.4475738252118</v>
       </c>
     </row>
     <row r="727">
@@ -12069,10 +12069,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>478.858810908294</v>
+        <v>264.1970113450895</v>
       </c>
       <c r="D727" t="n">
-        <v>95.94974674860018</v>
+        <v>86.30429718146546</v>
       </c>
     </row>
     <row r="728">
@@ -12085,10 +12085,10 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>111.629246075143</v>
+        <v>255.2497998604211</v>
       </c>
       <c r="D728" t="n">
-        <v>91.12628610794872</v>
+        <v>78.77513382177287</v>
       </c>
     </row>
     <row r="729">
@@ -12101,10 +12101,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>285.1016423224349</v>
+        <v>196.2914122076825</v>
       </c>
       <c r="D729" t="n">
-        <v>76.6468262084782</v>
+        <v>78.00554291355351</v>
       </c>
     </row>
     <row r="730">
@@ -12117,10 +12117,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>394.3557738226423</v>
+        <v>244.6363951301421</v>
       </c>
       <c r="D730" t="n">
-        <v>80.25162671489569</v>
+        <v>75.45483717305342</v>
       </c>
     </row>
     <row r="731">
@@ -12133,10 +12133,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>288.0826531788971</v>
+        <v>274.8280442850736</v>
       </c>
       <c r="D731" t="n">
-        <v>76.29387995758628</v>
+        <v>87.70241165788183</v>
       </c>
     </row>
     <row r="732">
@@ -12149,10 +12149,10 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>261.9893118073844</v>
+        <v>234.3511522877484</v>
       </c>
       <c r="D732" t="n">
-        <v>86.69935075008166</v>
+        <v>83.42387033984566</v>
       </c>
     </row>
     <row r="733">
@@ -12165,10 +12165,10 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>208.5177641733502</v>
+        <v>126.0149858187764</v>
       </c>
       <c r="D733" t="n">
-        <v>75.57300701812274</v>
+        <v>84.30122125483386</v>
       </c>
     </row>
   </sheetData>

--- a/data_source/paper_production.xlsx
+++ b/data_source/paper_production.xlsx
@@ -469,10 +469,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>395.7664304368906</v>
+        <v>400.6858330715178</v>
       </c>
       <c r="D2" t="n">
-        <v>85.25191598830857</v>
+        <v>86.9936257528383</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>365.8904309446847</v>
+        <v>445.8612853551729</v>
       </c>
       <c r="D3" t="n">
-        <v>95.55475997225895</v>
+        <v>92.89945697676691</v>
       </c>
     </row>
     <row r="4">
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>461.4936009228847</v>
+        <v>176.5386198378255</v>
       </c>
       <c r="D4" t="n">
-        <v>81.70277196719557</v>
+        <v>88.25952587482892</v>
       </c>
     </row>
     <row r="5">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>120.6640984181718</v>
+        <v>229.826147386243</v>
       </c>
       <c r="D5" t="n">
-        <v>96.49740542780053</v>
+        <v>97.87871766265798</v>
       </c>
     </row>
     <row r="6">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>343.3424517217094</v>
+        <v>267.048098667071</v>
       </c>
       <c r="D6" t="n">
-        <v>87.86567941226579</v>
+        <v>89.46333542411422</v>
       </c>
     </row>
     <row r="7">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>109.9244446192002</v>
+        <v>240.0251805206823</v>
       </c>
       <c r="D7" t="n">
-        <v>76.91136877594273</v>
+        <v>86.41590749142013</v>
       </c>
     </row>
     <row r="8">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>106.4416691058128</v>
+        <v>273.5016261537885</v>
       </c>
       <c r="D8" t="n">
-        <v>86.56603851774231</v>
+        <v>78.01558267712626</v>
       </c>
     </row>
     <row r="9">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>173.563092543245</v>
+        <v>296.1163196628024</v>
       </c>
       <c r="D9" t="n">
-        <v>83.61893977857629</v>
+        <v>91.25081955707087</v>
       </c>
     </row>
     <row r="10">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>346.7862926164632</v>
+        <v>203.0478308226938</v>
       </c>
       <c r="D10" t="n">
-        <v>95.45565227781699</v>
+        <v>96.50378229732669</v>
       </c>
     </row>
     <row r="11">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>407.3798986734864</v>
+        <v>496.3196274029537</v>
       </c>
       <c r="D11" t="n">
-        <v>83.79086015081083</v>
+        <v>96.8592602749393</v>
       </c>
     </row>
     <row r="12">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>296.6233342869783</v>
+        <v>474.633573160437</v>
       </c>
       <c r="D12" t="n">
-        <v>88.30398649926917</v>
+        <v>75.86187353255406</v>
       </c>
     </row>
     <row r="13">
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>483.6533087042829</v>
+        <v>252.2820405748518</v>
       </c>
       <c r="D13" t="n">
-        <v>92.70706923576756</v>
+        <v>94.76901917153586</v>
       </c>
     </row>
     <row r="14">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>253.2659337373411</v>
+        <v>317.8455593049075</v>
       </c>
       <c r="D14" t="n">
-        <v>79.35595008882515</v>
+        <v>76.74242533666973</v>
       </c>
     </row>
     <row r="15">
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>132.408292824464</v>
+        <v>478.0053652409946</v>
       </c>
       <c r="D15" t="n">
-        <v>94.77424943788856</v>
+        <v>75.03690118659367</v>
       </c>
     </row>
     <row r="16">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>124.4931257953528</v>
+        <v>257.6099017089721</v>
       </c>
       <c r="D16" t="n">
-        <v>85.66301826157283</v>
+        <v>88.76867295428616</v>
       </c>
     </row>
     <row r="17">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>250.1646132991099</v>
+        <v>468.5475374748057</v>
       </c>
       <c r="D17" t="n">
-        <v>88.48282073632437</v>
+        <v>76.36980702416737</v>
       </c>
     </row>
     <row r="18">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>269.9591988603839</v>
+        <v>429.3314615941129</v>
       </c>
       <c r="D18" t="n">
-        <v>93.35428538690839</v>
+        <v>79.03350529928143</v>
       </c>
     </row>
     <row r="19">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>442.6485037823268</v>
+        <v>453.939511064764</v>
       </c>
       <c r="D19" t="n">
-        <v>96.17087039343312</v>
+        <v>92.38464675129599</v>
       </c>
     </row>
     <row r="20">
@@ -757,10 +757,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>110.7781884870453</v>
+        <v>420.7321359403584</v>
       </c>
       <c r="D20" t="n">
-        <v>78.23788518540887</v>
+        <v>80.47897016188607</v>
       </c>
     </row>
     <row r="21">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>304.9402657750903</v>
+        <v>207.5908103753993</v>
       </c>
       <c r="D21" t="n">
-        <v>89.91047295539815</v>
+        <v>77.44320602116677</v>
       </c>
     </row>
     <row r="22">
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>347.5147088413752</v>
+        <v>158.2770936949951</v>
       </c>
       <c r="D22" t="n">
-        <v>81.31882590718998</v>
+        <v>87.73129943349207</v>
       </c>
     </row>
     <row r="23">
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>469.2822507509237</v>
+        <v>293.1565323039432</v>
       </c>
       <c r="D23" t="n">
-        <v>90.19197130042494</v>
+        <v>76.71474401118323</v>
       </c>
     </row>
     <row r="24">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>141.5370720148798</v>
+        <v>123.1868826576443</v>
       </c>
       <c r="D24" t="n">
-        <v>78.13736840166318</v>
+        <v>90.30001063487384</v>
       </c>
     </row>
     <row r="25">
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>478.7261687407663</v>
+        <v>432.1462514002435</v>
       </c>
       <c r="D25" t="n">
-        <v>77.41689833230113</v>
+        <v>80.08282786976247</v>
       </c>
     </row>
     <row r="26">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>409.6460046635327</v>
+        <v>272.9521170491098</v>
       </c>
       <c r="D26" t="n">
-        <v>95.16862280401148</v>
+        <v>95.21014470401896</v>
       </c>
     </row>
     <row r="27">
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>438.911516883722</v>
+        <v>427.3417310645235</v>
       </c>
       <c r="D27" t="n">
-        <v>96.71033198178873</v>
+        <v>75.9980781634067</v>
       </c>
     </row>
     <row r="28">
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>254.7435264495089</v>
+        <v>362.6230656332913</v>
       </c>
       <c r="D28" t="n">
-        <v>88.94866874947886</v>
+        <v>94.08192327621279</v>
       </c>
     </row>
     <row r="29">
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>454.9757012223586</v>
+        <v>108.9826413913564</v>
       </c>
       <c r="D29" t="n">
-        <v>90.06138839861751</v>
+        <v>97.78796534079493</v>
       </c>
     </row>
     <row r="30">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>253.4944820087016</v>
+        <v>220.6487622085434</v>
       </c>
       <c r="D30" t="n">
-        <v>75.98276858577336</v>
+        <v>92.86336121891574</v>
       </c>
     </row>
     <row r="31">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>298.4946116556932</v>
+        <v>318.2931641158603</v>
       </c>
       <c r="D31" t="n">
-        <v>77.88347588017629</v>
+        <v>79.32823140786468</v>
       </c>
     </row>
     <row r="32">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>309.7803378699714</v>
+        <v>107.6546279596219</v>
       </c>
       <c r="D32" t="n">
-        <v>76.28163584597445</v>
+        <v>96.45468608181565</v>
       </c>
     </row>
     <row r="33">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>480.8840214818367</v>
+        <v>276.3275325564779</v>
       </c>
       <c r="D33" t="n">
-        <v>76.17861039192456</v>
+        <v>86.00343105324751</v>
       </c>
     </row>
     <row r="34">
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>150.3230399517444</v>
+        <v>266.440217002268</v>
       </c>
       <c r="D34" t="n">
-        <v>86.2567458184427</v>
+        <v>78.73882042595929</v>
       </c>
     </row>
     <row r="35">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>352.958377496359</v>
+        <v>377.6972440897003</v>
       </c>
       <c r="D35" t="n">
-        <v>75.65309365050088</v>
+        <v>88.9495340363482</v>
       </c>
     </row>
     <row r="36">
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>458.819928687448</v>
+        <v>277.5286569163276</v>
       </c>
       <c r="D36" t="n">
-        <v>90.7377708233993</v>
+        <v>90.45693914687089</v>
       </c>
     </row>
     <row r="37">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>262.0933390932232</v>
+        <v>179.719795729514</v>
       </c>
       <c r="D37" t="n">
-        <v>97.33157277044596</v>
+        <v>92.07024822450946</v>
       </c>
     </row>
     <row r="38">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>415.9267089134399</v>
+        <v>420.4992256462369</v>
       </c>
       <c r="D38" t="n">
-        <v>95.39389650590306</v>
+        <v>90.89971687970031</v>
       </c>
     </row>
     <row r="39">
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>266.6783559591607</v>
+        <v>363.0776145256015</v>
       </c>
       <c r="D39" t="n">
-        <v>95.06554489747731</v>
+        <v>89.63535665222071</v>
       </c>
     </row>
     <row r="40">
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>134.6780700723888</v>
+        <v>490.583455498823</v>
       </c>
       <c r="D40" t="n">
-        <v>81.70990177607621</v>
+        <v>96.79199641227092</v>
       </c>
     </row>
     <row r="41">
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>267.9438606232434</v>
+        <v>481.4055813165846</v>
       </c>
       <c r="D41" t="n">
-        <v>89.0286529468417</v>
+        <v>76.3313011228492</v>
       </c>
     </row>
     <row r="42">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>334.3284916247239</v>
+        <v>487.5526483360809</v>
       </c>
       <c r="D42" t="n">
-        <v>82.76682154805171</v>
+        <v>96.91966349318537</v>
       </c>
     </row>
     <row r="43">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>482.1654695203763</v>
+        <v>267.7558930493286</v>
       </c>
       <c r="D43" t="n">
-        <v>76.75738555385774</v>
+        <v>81.84689972478056</v>
       </c>
     </row>
     <row r="44">
@@ -1141,10 +1141,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>428.0777641986103</v>
+        <v>342.3249458568298</v>
       </c>
       <c r="D44" t="n">
-        <v>92.29202800965732</v>
+        <v>75.40858368218363</v>
       </c>
     </row>
     <row r="45">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>406.0125762331866</v>
+        <v>251.5343648519855</v>
       </c>
       <c r="D45" t="n">
-        <v>86.21645846616592</v>
+        <v>80.15605697187104</v>
       </c>
     </row>
     <row r="46">
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>135.5499245397542</v>
+        <v>164.4946217266641</v>
       </c>
       <c r="D46" t="n">
-        <v>88.45084183012636</v>
+        <v>78.17721815991234</v>
       </c>
     </row>
     <row r="47">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>449.6846014221106</v>
+        <v>171.5965796877547</v>
       </c>
       <c r="D47" t="n">
-        <v>77.05675814699498</v>
+        <v>95.00907619690106</v>
       </c>
     </row>
     <row r="48">
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>239.7696341439286</v>
+        <v>322.5075150115849</v>
       </c>
       <c r="D48" t="n">
-        <v>92.85030655274628</v>
+        <v>93.84652181105994</v>
       </c>
     </row>
     <row r="49">
@@ -1221,10 +1221,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>210.034799138906</v>
+        <v>424.4873573923981</v>
       </c>
       <c r="D49" t="n">
-        <v>91.00451614790758</v>
+        <v>92.40098610698783</v>
       </c>
     </row>
     <row r="50">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>356.9627081616866</v>
+        <v>193.6846401703212</v>
       </c>
       <c r="D50" t="n">
-        <v>89.03829256416071</v>
+        <v>84.93471350619896</v>
       </c>
     </row>
     <row r="51">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>421.4868020701041</v>
+        <v>434.2351891486783</v>
       </c>
       <c r="D51" t="n">
-        <v>80.3855508004191</v>
+        <v>80.32727081584071</v>
       </c>
     </row>
     <row r="52">
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>277.3675980287034</v>
+        <v>207.1805880956721</v>
       </c>
       <c r="D52" t="n">
-        <v>86.56114741902118</v>
+        <v>91.56968741642952</v>
       </c>
     </row>
     <row r="53">
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>446.8105521636355</v>
+        <v>311.9017623574542</v>
       </c>
       <c r="D53" t="n">
-        <v>91.76290353062861</v>
+        <v>76.61015345971211</v>
       </c>
     </row>
     <row r="54">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>268.3731292433245</v>
+        <v>270.1054154838843</v>
       </c>
       <c r="D54" t="n">
-        <v>92.60974889386198</v>
+        <v>89.59703411084342</v>
       </c>
     </row>
     <row r="55">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>355.3862529026196</v>
+        <v>324.5276389584787</v>
       </c>
       <c r="D55" t="n">
-        <v>92.78364360875673</v>
+        <v>82.47886102961603</v>
       </c>
     </row>
     <row r="56">
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>198.7843439899595</v>
+        <v>396.4464046565218</v>
       </c>
       <c r="D56" t="n">
-        <v>97.49729324443578</v>
+        <v>75.31422226438093</v>
       </c>
     </row>
     <row r="57">
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>176.1287982634529</v>
+        <v>353.8065308093333</v>
       </c>
       <c r="D57" t="n">
-        <v>85.30619745579045</v>
+        <v>76.25850604768999</v>
       </c>
     </row>
     <row r="58">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>288.1455562416925</v>
+        <v>260.6648927281676</v>
       </c>
       <c r="D58" t="n">
-        <v>90.66064698096085</v>
+        <v>77.41090910247019</v>
       </c>
     </row>
     <row r="59">
@@ -1381,10 +1381,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>171.8357686326573</v>
+        <v>399.7932708963697</v>
       </c>
       <c r="D59" t="n">
-        <v>75.91503733992273</v>
+        <v>85.18096679011825</v>
       </c>
     </row>
     <row r="60">
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>366.5145613461956</v>
+        <v>112.8604042984462</v>
       </c>
       <c r="D60" t="n">
-        <v>86.51852011400541</v>
+        <v>79.61735007966415</v>
       </c>
     </row>
     <row r="61">
@@ -1413,10 +1413,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>410.3931296444067</v>
+        <v>112.4325398151386</v>
       </c>
       <c r="D61" t="n">
-        <v>79.87465389892458</v>
+        <v>87.23102209635886</v>
       </c>
     </row>
     <row r="62">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>111.1818484285618</v>
+        <v>409.0497327870743</v>
       </c>
       <c r="D62" t="n">
-        <v>76.12026994627989</v>
+        <v>95.05603378121543</v>
       </c>
     </row>
     <row r="63">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>354.5727194132604</v>
+        <v>177.8458996243106</v>
       </c>
       <c r="D63" t="n">
-        <v>95.85112298690821</v>
+        <v>92.13382979275016</v>
       </c>
     </row>
     <row r="64">
@@ -1461,10 +1461,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>204.6780269302327</v>
+        <v>148.7197808124293</v>
       </c>
       <c r="D64" t="n">
-        <v>87.60014525072047</v>
+        <v>91.71148117745122</v>
       </c>
     </row>
     <row r="65">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>167.2116109761529</v>
+        <v>459.6045597876315</v>
       </c>
       <c r="D65" t="n">
-        <v>83.82755844508327</v>
+        <v>88.77662038880958</v>
       </c>
     </row>
     <row r="66">
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>433.4496027153363</v>
+        <v>214.4506877771972</v>
       </c>
       <c r="D66" t="n">
-        <v>94.35594415112809</v>
+        <v>85.31531794158123</v>
       </c>
     </row>
     <row r="67">
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>427.2332569090452</v>
+        <v>450.7514875767211</v>
       </c>
       <c r="D67" t="n">
-        <v>97.6446391559605</v>
+        <v>97.68726503017508</v>
       </c>
     </row>
     <row r="68">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>397.1000600471007</v>
+        <v>461.2475319045914</v>
       </c>
       <c r="D68" t="n">
-        <v>94.0807743037752</v>
+        <v>96.03551461002334</v>
       </c>
     </row>
     <row r="69">
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>334.3636373547981</v>
+        <v>155.7319758002483</v>
       </c>
       <c r="D69" t="n">
-        <v>91.95510662232357</v>
+        <v>93.16948227079824</v>
       </c>
     </row>
     <row r="70">
@@ -1557,10 +1557,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>103.6634722400045</v>
+        <v>470.7591543798045</v>
       </c>
       <c r="D70" t="n">
-        <v>80.7463261589749</v>
+        <v>93.09920907991376</v>
       </c>
     </row>
     <row r="71">
@@ -1573,10 +1573,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>454.9172938340806</v>
+        <v>262.9143081196912</v>
       </c>
       <c r="D71" t="n">
-        <v>90.08381606574233</v>
+        <v>93.50093676081261</v>
       </c>
     </row>
     <row r="72">
@@ -1589,10 +1589,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>455.6949672668825</v>
+        <v>239.2887158097411</v>
       </c>
       <c r="D72" t="n">
-        <v>91.90825635691877</v>
+        <v>76.81512759984</v>
       </c>
     </row>
     <row r="73">
@@ -1605,10 +1605,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>269.0567445473917</v>
+        <v>286.1842381766942</v>
       </c>
       <c r="D73" t="n">
-        <v>85.54027469928189</v>
+        <v>76.59337302604519</v>
       </c>
     </row>
     <row r="74">
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>314.5182935633102</v>
+        <v>449.5565306912771</v>
       </c>
       <c r="D74" t="n">
-        <v>89.60841032781833</v>
+        <v>80.75390138749414</v>
       </c>
     </row>
     <row r="75">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>285.9410467849116</v>
+        <v>111.152874048025</v>
       </c>
       <c r="D75" t="n">
-        <v>85.54824641996285</v>
+        <v>86.28645102408073</v>
       </c>
     </row>
     <row r="76">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>101.8601751529903</v>
+        <v>481.684363936588</v>
       </c>
       <c r="D76" t="n">
-        <v>80.24911087807821</v>
+        <v>87.74464579137904</v>
       </c>
     </row>
     <row r="77">
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>177.9143437304757</v>
+        <v>139.5922992508135</v>
       </c>
       <c r="D77" t="n">
-        <v>75.01646114822812</v>
+        <v>75.36986576452759</v>
       </c>
     </row>
     <row r="78">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>267.1445600790836</v>
+        <v>113.315084714923</v>
       </c>
       <c r="D78" t="n">
-        <v>81.08365261386652</v>
+        <v>82.36612556680126</v>
       </c>
     </row>
     <row r="79">
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>143.5270795302035</v>
+        <v>331.4318135526676</v>
       </c>
       <c r="D79" t="n">
-        <v>93.21251624850645</v>
+        <v>82.16890622862827</v>
       </c>
     </row>
     <row r="80">
@@ -1717,10 +1717,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>473.9789603257638</v>
+        <v>320.0702472352868</v>
       </c>
       <c r="D80" t="n">
-        <v>76.70079747386096</v>
+        <v>75.02459325539805</v>
       </c>
     </row>
     <row r="81">
@@ -1733,10 +1733,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>163.1026582889344</v>
+        <v>227.4005880030243</v>
       </c>
       <c r="D81" t="n">
-        <v>82.95309105087168</v>
+        <v>83.84233140867718</v>
       </c>
     </row>
     <row r="82">
@@ -1749,10 +1749,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>145.4189343743313</v>
+        <v>349.81702229232</v>
       </c>
       <c r="D82" t="n">
-        <v>94.49632848446595</v>
+        <v>84.99113119591894</v>
       </c>
     </row>
     <row r="83">
@@ -1765,10 +1765,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>328.1077892356773</v>
+        <v>312.4992027398201</v>
       </c>
       <c r="D83" t="n">
-        <v>87.9669852144047</v>
+        <v>79.72219688425648</v>
       </c>
     </row>
     <row r="84">
@@ -1781,10 +1781,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>476.3601743658811</v>
+        <v>125.8016171657107</v>
       </c>
       <c r="D84" t="n">
-        <v>91.00143741373506</v>
+        <v>83.42830561751909</v>
       </c>
     </row>
     <row r="85">
@@ -1797,10 +1797,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>258.9108845182111</v>
+        <v>220.3478123733291</v>
       </c>
       <c r="D85" t="n">
-        <v>80.69103032477216</v>
+        <v>89.4412560569953</v>
       </c>
     </row>
     <row r="86">
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>142.1178926307647</v>
+        <v>412.1645052332534</v>
       </c>
       <c r="D86" t="n">
-        <v>91.21705364126323</v>
+        <v>79.40649564496347</v>
       </c>
     </row>
     <row r="87">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>258.6909191317044</v>
+        <v>373.6192645918339</v>
       </c>
       <c r="D87" t="n">
-        <v>80.92403193355935</v>
+        <v>83.0408518031755</v>
       </c>
     </row>
     <row r="88">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>198.6469468599498</v>
+        <v>251.737573471836</v>
       </c>
       <c r="D88" t="n">
-        <v>80.87916365759162</v>
+        <v>90.99365517647468</v>
       </c>
     </row>
     <row r="89">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>240.7020394897437</v>
+        <v>148.8991469553406</v>
       </c>
       <c r="D89" t="n">
-        <v>86.56326800958118</v>
+        <v>80.8594913239786</v>
       </c>
     </row>
     <row r="90">
@@ -1877,10 +1877,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>187.2471487715698</v>
+        <v>360.7096041529862</v>
       </c>
       <c r="D90" t="n">
-        <v>96.085211479831</v>
+        <v>90.00273597403164</v>
       </c>
     </row>
     <row r="91">
@@ -1893,10 +1893,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394.7815663594509</v>
+        <v>461.2151078675586</v>
       </c>
       <c r="D91" t="n">
-        <v>80.4648535099619</v>
+        <v>80.78317806751174</v>
       </c>
     </row>
     <row r="92">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>487.3992246157461</v>
+        <v>493.7302823715401</v>
       </c>
       <c r="D92" t="n">
-        <v>91.1956127749833</v>
+        <v>81.60765849302504</v>
       </c>
     </row>
     <row r="93">
@@ -1925,10 +1925,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>462.2768406769121</v>
+        <v>432.1310623838369</v>
       </c>
       <c r="D93" t="n">
-        <v>87.76195254483757</v>
+        <v>81.97564734482748</v>
       </c>
     </row>
     <row r="94">
@@ -1941,10 +1941,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>134.3560660565942</v>
+        <v>214.2870600378088</v>
       </c>
       <c r="D94" t="n">
-        <v>86.83836293691243</v>
+        <v>88.90126375669306</v>
       </c>
     </row>
     <row r="95">
@@ -1957,10 +1957,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>459.3984508365632</v>
+        <v>428.1860955817755</v>
       </c>
       <c r="D95" t="n">
-        <v>79.6140880038045</v>
+        <v>95.65756438694459</v>
       </c>
     </row>
     <row r="96">
@@ -1973,10 +1973,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>356.6743323632497</v>
+        <v>389.6325039739239</v>
       </c>
       <c r="D96" t="n">
-        <v>91.55900732095324</v>
+        <v>87.60906328749289</v>
       </c>
     </row>
     <row r="97">
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>408.9008982267517</v>
+        <v>275.6944727156215</v>
       </c>
       <c r="D97" t="n">
-        <v>86.82736420706071</v>
+        <v>85.52185626286816</v>
       </c>
     </row>
     <row r="98">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>309.2630417511598</v>
+        <v>189.2004354014226</v>
       </c>
       <c r="D98" t="n">
-        <v>87.42926014708466</v>
+        <v>97.83297166456069</v>
       </c>
     </row>
     <row r="99">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>455.2991977309746</v>
+        <v>137.5467855023568</v>
       </c>
       <c r="D99" t="n">
-        <v>83.41408335663034</v>
+        <v>76.20269974222605</v>
       </c>
     </row>
     <row r="100">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>405.8346965061593</v>
+        <v>148.6274891379373</v>
       </c>
       <c r="D100" t="n">
-        <v>80.69777742807102</v>
+        <v>85.04253253285704</v>
       </c>
     </row>
     <row r="101">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>151.6785227322285</v>
+        <v>107.8917552257754</v>
       </c>
       <c r="D101" t="n">
-        <v>86.48571164252401</v>
+        <v>76.92844261013794</v>
       </c>
     </row>
     <row r="102">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>450.6672707757933</v>
+        <v>183.0857433549729</v>
       </c>
       <c r="D102" t="n">
-        <v>87.21648373025357</v>
+        <v>89.16604475781415</v>
       </c>
     </row>
     <row r="103">
@@ -2085,10 +2085,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>459.2040637178778</v>
+        <v>405.0531238690726</v>
       </c>
       <c r="D103" t="n">
-        <v>90.09859946899493</v>
+        <v>93.58810465946624</v>
       </c>
     </row>
     <row r="104">
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>300.762877098182</v>
+        <v>120.9671369934719</v>
       </c>
       <c r="D104" t="n">
-        <v>79.5636252953766</v>
+        <v>89.05162732469852</v>
       </c>
     </row>
     <row r="105">
@@ -2117,10 +2117,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>135.1158604739578</v>
+        <v>177.8289777860265</v>
       </c>
       <c r="D105" t="n">
-        <v>81.11459609644267</v>
+        <v>86.91177625941532</v>
       </c>
     </row>
     <row r="106">
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>247.094020176567</v>
+        <v>412.736723612968</v>
       </c>
       <c r="D106" t="n">
-        <v>96.71217708319858</v>
+        <v>84.72121592742596</v>
       </c>
     </row>
     <row r="107">
@@ -2149,10 +2149,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>437.850031310838</v>
+        <v>286.1421892188397</v>
       </c>
       <c r="D107" t="n">
-        <v>91.18240510884496</v>
+        <v>86.31624020909665</v>
       </c>
     </row>
     <row r="108">
@@ -2165,10 +2165,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>196.8673809249367</v>
+        <v>282.7755289044284</v>
       </c>
       <c r="D108" t="n">
-        <v>77.33793692532579</v>
+        <v>83.8371441236802</v>
       </c>
     </row>
     <row r="109">
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>373.5668016305831</v>
+        <v>102.0664802186756</v>
       </c>
       <c r="D109" t="n">
-        <v>94.59245525302698</v>
+        <v>90.73548071432538</v>
       </c>
     </row>
     <row r="110">
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>391.6507304858699</v>
+        <v>438.4622115900958</v>
       </c>
       <c r="D110" t="n">
-        <v>91.29039115491452</v>
+        <v>78.52040466460224</v>
       </c>
     </row>
     <row r="111">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>338.3100270167532</v>
+        <v>166.9928336187265</v>
       </c>
       <c r="D111" t="n">
-        <v>93.41868513229021</v>
+        <v>91.65450702585989</v>
       </c>
     </row>
     <row r="112">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>384.9648033225005</v>
+        <v>221.3764777328258</v>
       </c>
       <c r="D112" t="n">
-        <v>89.3801384453316</v>
+        <v>91.18863432271041</v>
       </c>
     </row>
     <row r="113">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>401.7736898377189</v>
+        <v>289.8471264319003</v>
       </c>
       <c r="D113" t="n">
-        <v>83.73287892264322</v>
+        <v>75.82106144155708</v>
       </c>
     </row>
     <row r="114">
@@ -2261,10 +2261,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>331.5445975785868</v>
+        <v>431.2044514335047</v>
       </c>
       <c r="D114" t="n">
-        <v>83.18193417463739</v>
+        <v>90.68609103575568</v>
       </c>
     </row>
     <row r="115">
@@ -2277,10 +2277,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>230.6926597273586</v>
+        <v>129.9201913523439</v>
       </c>
       <c r="D115" t="n">
-        <v>94.48678830365975</v>
+        <v>86.63651959232892</v>
       </c>
     </row>
     <row r="116">
@@ -2293,10 +2293,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>367.3705541148124</v>
+        <v>429.4795324560832</v>
       </c>
       <c r="D116" t="n">
-        <v>93.60207764238194</v>
+        <v>85.60613188170984</v>
       </c>
     </row>
     <row r="117">
@@ -2309,10 +2309,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>275.7790189666177</v>
+        <v>349.016340474153</v>
       </c>
       <c r="D117" t="n">
-        <v>93.63048622672962</v>
+        <v>96.41712693313238</v>
       </c>
     </row>
     <row r="118">
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>426.4851597436774</v>
+        <v>310.2555749352246</v>
       </c>
       <c r="D118" t="n">
-        <v>96.30892146835126</v>
+        <v>83.46602928739064</v>
       </c>
     </row>
     <row r="119">
@@ -2341,10 +2341,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>162.2146170091835</v>
+        <v>116.3072429800016</v>
       </c>
       <c r="D119" t="n">
-        <v>96.99386989243726</v>
+        <v>90.00259724450002</v>
       </c>
     </row>
     <row r="120">
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>177.4696000543242</v>
+        <v>447.4256194928298</v>
       </c>
       <c r="D120" t="n">
-        <v>76.85862026153235</v>
+        <v>78.65382694629594</v>
       </c>
     </row>
     <row r="121">
@@ -2373,10 +2373,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>135.4320650150378</v>
+        <v>147.9444625402639</v>
       </c>
       <c r="D121" t="n">
-        <v>91.35815919405924</v>
+        <v>90.26321293153421</v>
       </c>
     </row>
     <row r="122">
@@ -2389,10 +2389,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>231.6921013178024</v>
+        <v>445.7630355263076</v>
       </c>
       <c r="D122" t="n">
-        <v>76.36691081447438</v>
+        <v>87.62000180889591</v>
       </c>
     </row>
     <row r="123">
@@ -2405,10 +2405,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>219.6445672285803</v>
+        <v>244.5667821345589</v>
       </c>
       <c r="D123" t="n">
-        <v>93.6658733029867</v>
+        <v>86.41576919334562</v>
       </c>
     </row>
     <row r="124">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>408.4639255741912</v>
+        <v>428.8261311258323</v>
       </c>
       <c r="D124" t="n">
-        <v>83.01041227544893</v>
+        <v>80.02079482942239</v>
       </c>
     </row>
     <row r="125">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>261.8414046288602</v>
+        <v>458.690622064803</v>
       </c>
       <c r="D125" t="n">
-        <v>78.03212937136072</v>
+        <v>79.33536876757796</v>
       </c>
     </row>
     <row r="126">
@@ -2453,10 +2453,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>121.6824359531476</v>
+        <v>456.4527429985414</v>
       </c>
       <c r="D126" t="n">
-        <v>81.85101399670661</v>
+        <v>89.20526428951817</v>
       </c>
     </row>
     <row r="127">
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>163.2086202260194</v>
+        <v>414.4529831484727</v>
       </c>
       <c r="D127" t="n">
-        <v>97.40400375061203</v>
+        <v>79.55043104998137</v>
       </c>
     </row>
     <row r="128">
@@ -2485,10 +2485,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>484.1715436432904</v>
+        <v>238.2747231923149</v>
       </c>
       <c r="D128" t="n">
-        <v>93.39951475082481</v>
+        <v>88.67341911729815</v>
       </c>
     </row>
     <row r="129">
@@ -2501,10 +2501,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>353.9596912767024</v>
+        <v>238.4424673882473</v>
       </c>
       <c r="D129" t="n">
-        <v>75.29596082247907</v>
+        <v>86.21560272339747</v>
       </c>
     </row>
     <row r="130">
@@ -2517,10 +2517,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>360.8654436682625</v>
+        <v>317.5236772043407</v>
       </c>
       <c r="D130" t="n">
-        <v>83.73714718165868</v>
+        <v>75.88602399404684</v>
       </c>
     </row>
     <row r="131">
@@ -2533,10 +2533,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>188.6295539474248</v>
+        <v>228.4063448094211</v>
       </c>
       <c r="D131" t="n">
-        <v>75.34576767533544</v>
+        <v>77.74630568497074</v>
       </c>
     </row>
     <row r="132">
@@ -2549,10 +2549,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>261.1969082002593</v>
+        <v>312.5287044951612</v>
       </c>
       <c r="D132" t="n">
-        <v>88.10907646300436</v>
+        <v>85.70426826259998</v>
       </c>
     </row>
     <row r="133">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>404.000445045251</v>
+        <v>287.9047853659719</v>
       </c>
       <c r="D133" t="n">
-        <v>84.67541803758218</v>
+        <v>85.16688486570331</v>
       </c>
     </row>
     <row r="134">
@@ -2581,10 +2581,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>148.9245879990778</v>
+        <v>368.0755742335304</v>
       </c>
       <c r="D134" t="n">
-        <v>85.91051806919536</v>
+        <v>92.78417631305302</v>
       </c>
     </row>
     <row r="135">
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>494.7513679501703</v>
+        <v>117.866794730456</v>
       </c>
       <c r="D135" t="n">
-        <v>88.08456300591513</v>
+        <v>78.00231117821443</v>
       </c>
     </row>
     <row r="136">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>433.4480022697165</v>
+        <v>254.1486165685488</v>
       </c>
       <c r="D136" t="n">
-        <v>87.73131660494283</v>
+        <v>83.75420605387077</v>
       </c>
     </row>
     <row r="137">
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>348.4390097746331</v>
+        <v>272.830335128034</v>
       </c>
       <c r="D137" t="n">
-        <v>81.28724252623434</v>
+        <v>90.09764742935263</v>
       </c>
     </row>
     <row r="138">
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>444.1888084844086</v>
+        <v>464.9423224821343</v>
       </c>
       <c r="D138" t="n">
-        <v>85.445726387679</v>
+        <v>87.51398364182604</v>
       </c>
     </row>
     <row r="139">
@@ -2661,10 +2661,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>107.5171582113258</v>
+        <v>331.4699683194915</v>
       </c>
       <c r="D139" t="n">
-        <v>94.58504245964045</v>
+        <v>89.32911052965324</v>
       </c>
     </row>
     <row r="140">
@@ -2677,10 +2677,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>477.3651133805488</v>
+        <v>294.3201689720413</v>
       </c>
       <c r="D140" t="n">
-        <v>88.30249043812751</v>
+        <v>88.6763550842133</v>
       </c>
     </row>
     <row r="141">
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>237.489635475914</v>
+        <v>279.0628026836474</v>
       </c>
       <c r="D141" t="n">
-        <v>95.51515614870273</v>
+        <v>87.93586045253163</v>
       </c>
     </row>
     <row r="142">
@@ -2709,10 +2709,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>108.5288497265391</v>
+        <v>256.6196351794684</v>
       </c>
       <c r="D142" t="n">
-        <v>80.66744329541075</v>
+        <v>81.09872280802567</v>
       </c>
     </row>
     <row r="143">
@@ -2725,10 +2725,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>384.8729036378341</v>
+        <v>100.7874212453166</v>
       </c>
       <c r="D143" t="n">
-        <v>77.38247058145318</v>
+        <v>77.08533722163408</v>
       </c>
     </row>
     <row r="144">
@@ -2741,10 +2741,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>105.5095225032403</v>
+        <v>169.83982071145</v>
       </c>
       <c r="D144" t="n">
-        <v>86.71766991352793</v>
+        <v>96.67990762978222</v>
       </c>
     </row>
     <row r="145">
@@ -2757,10 +2757,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>336.9812740434942</v>
+        <v>169.3236621451215</v>
       </c>
       <c r="D145" t="n">
-        <v>80.86714632507498</v>
+        <v>85.66169166317762</v>
       </c>
     </row>
     <row r="146">
@@ -2773,10 +2773,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>412.4354741840976</v>
+        <v>125.5346269047457</v>
       </c>
       <c r="D146" t="n">
-        <v>75.91367803167748</v>
+        <v>88.22073035382343</v>
       </c>
     </row>
     <row r="147">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>309.1408656939051</v>
+        <v>203.4569402809404</v>
       </c>
       <c r="D147" t="n">
-        <v>90.43197103515797</v>
+        <v>82.97890469351633</v>
       </c>
     </row>
     <row r="148">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>174.1294740498652</v>
+        <v>249.8014776714008</v>
       </c>
       <c r="D148" t="n">
-        <v>87.06093905520312</v>
+        <v>86.49721859451958</v>
       </c>
     </row>
     <row r="149">
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>256.5027384928047</v>
+        <v>353.6909786647739</v>
       </c>
       <c r="D149" t="n">
-        <v>86.74218171764919</v>
+        <v>80.77964112265015</v>
       </c>
     </row>
     <row r="150">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>247.6064178168357</v>
+        <v>432.6880119004686</v>
       </c>
       <c r="D150" t="n">
-        <v>83.74049212026191</v>
+        <v>97.8342353778807</v>
       </c>
     </row>
     <row r="151">
@@ -2853,10 +2853,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>210.8384921348105</v>
+        <v>294.5328540388693</v>
       </c>
       <c r="D151" t="n">
-        <v>95.61525238532694</v>
+        <v>94.13150203651165</v>
       </c>
     </row>
     <row r="152">
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>331.2012503259928</v>
+        <v>492.2841650982484</v>
       </c>
       <c r="D152" t="n">
-        <v>78.61071758605236</v>
+        <v>78.95381805211603</v>
       </c>
     </row>
     <row r="153">
@@ -2885,10 +2885,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>167.3214133299376</v>
+        <v>441.2526352958141</v>
       </c>
       <c r="D153" t="n">
-        <v>97.04746045567045</v>
+        <v>83.36069187276179</v>
       </c>
     </row>
     <row r="154">
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>489.4689543545024</v>
+        <v>481.7323306943559</v>
       </c>
       <c r="D154" t="n">
-        <v>80.41156048598037</v>
+        <v>81.64385019487727</v>
       </c>
     </row>
     <row r="155">
@@ -2917,10 +2917,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>345.481718786879</v>
+        <v>227.1360789879651</v>
       </c>
       <c r="D155" t="n">
-        <v>86.01001590149411</v>
+        <v>86.45726675839425</v>
       </c>
     </row>
     <row r="156">
@@ -2933,10 +2933,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>186.4094921185782</v>
+        <v>461.1751903917009</v>
       </c>
       <c r="D156" t="n">
-        <v>91.79845536805183</v>
+        <v>79.95295139364534</v>
       </c>
     </row>
     <row r="157">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>417.981923838499</v>
+        <v>213.0978122170956</v>
       </c>
       <c r="D157" t="n">
-        <v>77.58076918762886</v>
+        <v>91.20519498479929</v>
       </c>
     </row>
     <row r="158">
@@ -2965,10 +2965,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>177.8464472443671</v>
+        <v>405.3730826455219</v>
       </c>
       <c r="D158" t="n">
-        <v>86.80844526553484</v>
+        <v>85.58326466387733</v>
       </c>
     </row>
     <row r="159">
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>276.3463428763841</v>
+        <v>348.8894818220626</v>
       </c>
       <c r="D159" t="n">
-        <v>77.61124416057083</v>
+        <v>97.83105514346762</v>
       </c>
     </row>
     <row r="160">
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>115.8091624516063</v>
+        <v>381.1141214977083</v>
       </c>
       <c r="D160" t="n">
-        <v>97.26398808025256</v>
+        <v>83.83432914658789</v>
       </c>
     </row>
     <row r="161">
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>447.4614116372329</v>
+        <v>173.9619787149467</v>
       </c>
       <c r="D161" t="n">
-        <v>88.54997851040903</v>
+        <v>83.62664090252918</v>
       </c>
     </row>
     <row r="162">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>299.3924404037376</v>
+        <v>142.1485165814478</v>
       </c>
       <c r="D162" t="n">
-        <v>96.6781104425197</v>
+        <v>92.30745601738232</v>
       </c>
     </row>
     <row r="163">
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>101.010627356067</v>
+        <v>131.0185435519958</v>
       </c>
       <c r="D163" t="n">
-        <v>94.81646422373879</v>
+        <v>83.93298987213015</v>
       </c>
     </row>
     <row r="164">
@@ -3061,10 +3061,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>117.0137735215107</v>
+        <v>206.748967440392</v>
       </c>
       <c r="D164" t="n">
-        <v>75.92029275350798</v>
+        <v>83.60974338504506</v>
       </c>
     </row>
     <row r="165">
@@ -3077,10 +3077,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>359.6272586973679</v>
+        <v>402.9140891985105</v>
       </c>
       <c r="D165" t="n">
-        <v>92.67334311994362</v>
+        <v>83.82885207601859</v>
       </c>
     </row>
     <row r="166">
@@ -3093,10 +3093,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>130.7483966131803</v>
+        <v>259.3613741140891</v>
       </c>
       <c r="D166" t="n">
-        <v>79.90214515369973</v>
+        <v>94.45272794136554</v>
       </c>
     </row>
     <row r="167">
@@ -3109,10 +3109,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>468.496393495389</v>
+        <v>291.6508053995316</v>
       </c>
       <c r="D167" t="n">
-        <v>82.98330006464758</v>
+        <v>91.27611079516242</v>
       </c>
     </row>
     <row r="168">
@@ -3125,10 +3125,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>305.5823986394799</v>
+        <v>106.3784372993096</v>
       </c>
       <c r="D168" t="n">
-        <v>77.90365271871653</v>
+        <v>82.59918003243875</v>
       </c>
     </row>
     <row r="169">
@@ -3141,10 +3141,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>491.1258163631423</v>
+        <v>166.7781166926501</v>
       </c>
       <c r="D169" t="n">
-        <v>84.82719955738449</v>
+        <v>94.81712723656513</v>
       </c>
     </row>
     <row r="170">
@@ -3157,10 +3157,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>152.457749309592</v>
+        <v>444.9786327818262</v>
       </c>
       <c r="D170" t="n">
-        <v>84.58483742216195</v>
+        <v>80.12620522064739</v>
       </c>
     </row>
     <row r="171">
@@ -3173,10 +3173,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>416.9012098256367</v>
+        <v>413.7200642409501</v>
       </c>
       <c r="D171" t="n">
-        <v>88.1458199880413</v>
+        <v>92.3419772192117</v>
       </c>
     </row>
     <row r="172">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>491.5278179888692</v>
+        <v>136.9829112243072</v>
       </c>
       <c r="D172" t="n">
-        <v>89.43868960535941</v>
+        <v>83.37189740352891</v>
       </c>
     </row>
     <row r="173">
@@ -3205,10 +3205,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>476.2429327688923</v>
+        <v>131.0514612545578</v>
       </c>
       <c r="D173" t="n">
-        <v>89.8334799327293</v>
+        <v>87.92555328720086</v>
       </c>
     </row>
     <row r="174">
@@ -3221,10 +3221,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>269.6222003915667</v>
+        <v>207.3540961802226</v>
       </c>
       <c r="D174" t="n">
-        <v>87.16114045451552</v>
+        <v>88.00676929522189</v>
       </c>
     </row>
     <row r="175">
@@ -3237,10 +3237,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>431.5130973524013</v>
+        <v>377.0081808964225</v>
       </c>
       <c r="D175" t="n">
-        <v>75.24451554961414</v>
+        <v>95.84607782992678</v>
       </c>
     </row>
     <row r="176">
@@ -3253,10 +3253,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>256.0829357101266</v>
+        <v>158.3052445301177</v>
       </c>
       <c r="D176" t="n">
-        <v>75.72572696441384</v>
+        <v>81.82248660114718</v>
       </c>
     </row>
     <row r="177">
@@ -3269,10 +3269,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>270.05738840458</v>
+        <v>170.9229049247518</v>
       </c>
       <c r="D177" t="n">
-        <v>76.66364037957594</v>
+        <v>81.12515937920497</v>
       </c>
     </row>
     <row r="178">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>453.7421206903478</v>
+        <v>455.8323144538952</v>
       </c>
       <c r="D178" t="n">
-        <v>96.32878770742626</v>
+        <v>75.35838219074671</v>
       </c>
     </row>
     <row r="179">
@@ -3301,10 +3301,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>422.6536020459038</v>
+        <v>160.1828952239364</v>
       </c>
       <c r="D179" t="n">
-        <v>90.43123057078972</v>
+        <v>86.62551508823381</v>
       </c>
     </row>
     <row r="180">
@@ -3317,10 +3317,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>437.1103437714044</v>
+        <v>307.7341558796883</v>
       </c>
       <c r="D180" t="n">
-        <v>80.40145081554321</v>
+        <v>82.08088910876965</v>
       </c>
     </row>
     <row r="181">
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>355.3485319731324</v>
+        <v>181.0864038276264</v>
       </c>
       <c r="D181" t="n">
-        <v>96.17694312319341</v>
+        <v>78.99769131036963</v>
       </c>
     </row>
     <row r="182">
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>235.5872850615325</v>
+        <v>314.2004316305328</v>
       </c>
       <c r="D182" t="n">
-        <v>97.62282620574625</v>
+        <v>75.17325783496086</v>
       </c>
     </row>
     <row r="183">
@@ -3365,10 +3365,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>495.493340828059</v>
+        <v>117.4677135175064</v>
       </c>
       <c r="D183" t="n">
-        <v>85.59446726107278</v>
+        <v>97.976978062033</v>
       </c>
     </row>
     <row r="184">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>419.3210947031328</v>
+        <v>476.1106794047847</v>
       </c>
       <c r="D184" t="n">
-        <v>97.99263132398846</v>
+        <v>83.90925894258923</v>
       </c>
     </row>
     <row r="185">
@@ -3397,10 +3397,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>283.8444815603756</v>
+        <v>470.7460477004339</v>
       </c>
       <c r="D185" t="n">
-        <v>87.16885925842344</v>
+        <v>95.62288301084051</v>
       </c>
     </row>
     <row r="186">
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>160.672125820544</v>
+        <v>363.4325622667058</v>
       </c>
       <c r="D186" t="n">
-        <v>94.45995619743208</v>
+        <v>93.23558975876699</v>
       </c>
     </row>
     <row r="187">
@@ -3429,10 +3429,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>328.7381007444492</v>
+        <v>273.5114103918075</v>
       </c>
       <c r="D187" t="n">
-        <v>87.60509243025244</v>
+        <v>97.17364640303553</v>
       </c>
     </row>
     <row r="188">
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>104.9960293806639</v>
+        <v>249.668134469301</v>
       </c>
       <c r="D188" t="n">
-        <v>79.25392636780425</v>
+        <v>87.28573704048979</v>
       </c>
     </row>
     <row r="189">
@@ -3461,10 +3461,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>202.4499300773704</v>
+        <v>327.0522776435371</v>
       </c>
       <c r="D189" t="n">
-        <v>84.27511439377976</v>
+        <v>92.75823820460256</v>
       </c>
     </row>
     <row r="190">
@@ -3477,10 +3477,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>196.381024627558</v>
+        <v>252.304913188103</v>
       </c>
       <c r="D190" t="n">
-        <v>83.85516988326577</v>
+        <v>85.1581853667885</v>
       </c>
     </row>
     <row r="191">
@@ -3493,10 +3493,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>156.9234347142576</v>
+        <v>234.6017079988768</v>
       </c>
       <c r="D191" t="n">
-        <v>82.15130578325969</v>
+        <v>92.10954877298703</v>
       </c>
     </row>
     <row r="192">
@@ -3509,10 +3509,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>381.3886758284102</v>
+        <v>467.7945582436218</v>
       </c>
       <c r="D192" t="n">
-        <v>77.73094583720612</v>
+        <v>97.76765891999699</v>
       </c>
     </row>
     <row r="193">
@@ -3525,10 +3525,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>382.6241988543625</v>
+        <v>451.8588540000943</v>
       </c>
       <c r="D193" t="n">
-        <v>91.210892753888</v>
+        <v>85.63941064931889</v>
       </c>
     </row>
     <row r="194">
@@ -3541,10 +3541,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>422.5711921324956</v>
+        <v>219.6573569114025</v>
       </c>
       <c r="D194" t="n">
-        <v>85.81537519613883</v>
+        <v>82.63445360579345</v>
       </c>
     </row>
     <row r="195">
@@ -3557,10 +3557,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>233.2877983602212</v>
+        <v>217.1222197321139</v>
       </c>
       <c r="D195" t="n">
-        <v>80.5789300020668</v>
+        <v>77.1594365585012</v>
       </c>
     </row>
     <row r="196">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>339.4863574849018</v>
+        <v>458.1762486575757</v>
       </c>
       <c r="D196" t="n">
-        <v>89.04955314358101</v>
+        <v>79.54868764348421</v>
       </c>
     </row>
     <row r="197">
@@ -3589,10 +3589,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>400.7583914430408</v>
+        <v>298.6278325382331</v>
       </c>
       <c r="D197" t="n">
-        <v>89.57552034301281</v>
+        <v>88.38106112420417</v>
       </c>
     </row>
     <row r="198">
@@ -3605,10 +3605,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>285.8912958684671</v>
+        <v>483.5767781106835</v>
       </c>
       <c r="D198" t="n">
-        <v>92.65377559056842</v>
+        <v>80.62045346740496</v>
       </c>
     </row>
     <row r="199">
@@ -3621,10 +3621,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>372.6043702288682</v>
+        <v>454.4437345314394</v>
       </c>
       <c r="D199" t="n">
-        <v>77.73630662732647</v>
+        <v>90.68881036781494</v>
       </c>
     </row>
     <row r="200">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>273.5064793791393</v>
+        <v>147.3635841658321</v>
       </c>
       <c r="D200" t="n">
-        <v>77.709756687687</v>
+        <v>95.56211869589109</v>
       </c>
     </row>
     <row r="201">
@@ -3653,10 +3653,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>463.1779971658534</v>
+        <v>214.2698679582306</v>
       </c>
       <c r="D201" t="n">
-        <v>84.30593692128271</v>
+        <v>90.93015267946495</v>
       </c>
     </row>
     <row r="202">
@@ -3669,10 +3669,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>151.207072926026</v>
+        <v>273.4998679370277</v>
       </c>
       <c r="D202" t="n">
-        <v>78.93405278614392</v>
+        <v>94.7092691232081</v>
       </c>
     </row>
     <row r="203">
@@ -3685,10 +3685,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>312.6908376389816</v>
+        <v>425.9525260322295</v>
       </c>
       <c r="D203" t="n">
-        <v>87.85711174124</v>
+        <v>79.76993595573381</v>
       </c>
     </row>
     <row r="204">
@@ -3701,10 +3701,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>476.9365451186397</v>
+        <v>441.1528029704976</v>
       </c>
       <c r="D204" t="n">
-        <v>87.17571309331916</v>
+        <v>82.3888782667613</v>
       </c>
     </row>
     <row r="205">
@@ -3717,10 +3717,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>320.4191171509535</v>
+        <v>368.4444536286223</v>
       </c>
       <c r="D205" t="n">
-        <v>88.28625388636046</v>
+        <v>95.69432932813829</v>
       </c>
     </row>
     <row r="206">
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>160.4404356303513</v>
+        <v>131.5628695710114</v>
       </c>
       <c r="D206" t="n">
-        <v>85.95620399065764</v>
+        <v>94.69582573562231</v>
       </c>
     </row>
     <row r="207">
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>168.306515386524</v>
+        <v>431.0295632655175</v>
       </c>
       <c r="D207" t="n">
-        <v>95.90725520416257</v>
+        <v>96.42097079038635</v>
       </c>
     </row>
     <row r="208">
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>491.0258762555175</v>
+        <v>179.468365907972</v>
       </c>
       <c r="D208" t="n">
-        <v>91.9260348646668</v>
+        <v>78.82316276096594</v>
       </c>
     </row>
     <row r="209">
@@ -3781,10 +3781,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>196.6682659331924</v>
+        <v>388.8781009878247</v>
       </c>
       <c r="D209" t="n">
-        <v>92.68992198533348</v>
+        <v>86.14717861292095</v>
       </c>
     </row>
     <row r="210">
@@ -3797,10 +3797,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>129.38782711919</v>
+        <v>280.6149599976306</v>
       </c>
       <c r="D210" t="n">
-        <v>75.02783953779016</v>
+        <v>89.86164636758917</v>
       </c>
     </row>
     <row r="211">
@@ -3813,10 +3813,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>419.3647874241772</v>
+        <v>477.9173779408169</v>
       </c>
       <c r="D211" t="n">
-        <v>97.20177259294695</v>
+        <v>91.58301498653101</v>
       </c>
     </row>
     <row r="212">
@@ -3829,10 +3829,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>252.8820594134211</v>
+        <v>251.3482788645585</v>
       </c>
       <c r="D212" t="n">
-        <v>82.29916951100023</v>
+        <v>84.01391359521811</v>
       </c>
     </row>
     <row r="213">
@@ -3845,10 +3845,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>209.7317698698269</v>
+        <v>349.5548856341823</v>
       </c>
       <c r="D213" t="n">
-        <v>93.26545053516799</v>
+        <v>92.01611070411462</v>
       </c>
     </row>
     <row r="214">
@@ -3861,10 +3861,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>378.2924047033538</v>
+        <v>272.4055824587077</v>
       </c>
       <c r="D214" t="n">
-        <v>94.56094830822082</v>
+        <v>94.96912802653314</v>
       </c>
     </row>
     <row r="215">
@@ -3877,10 +3877,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>455.0221073430515</v>
+        <v>154.0525688649772</v>
       </c>
       <c r="D215" t="n">
-        <v>82.93676443375631</v>
+        <v>95.05700237082849</v>
       </c>
     </row>
     <row r="216">
@@ -3893,10 +3893,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>204.4606574194082</v>
+        <v>332.25301425803</v>
       </c>
       <c r="D216" t="n">
-        <v>75.25798353350864</v>
+        <v>85.45830962846976</v>
       </c>
     </row>
     <row r="217">
@@ -3909,10 +3909,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>105.3898519341459</v>
+        <v>337.7151670393182</v>
       </c>
       <c r="D217" t="n">
-        <v>88.47902224584942</v>
+        <v>93.36368837122055</v>
       </c>
     </row>
     <row r="218">
@@ -3925,10 +3925,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>132.4256531771562</v>
+        <v>424.2168368460747</v>
       </c>
       <c r="D218" t="n">
-        <v>96.95749429453026</v>
+        <v>76.17897727594303</v>
       </c>
     </row>
     <row r="219">
@@ -3941,10 +3941,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>370.2891118798933</v>
+        <v>439.5239635508947</v>
       </c>
       <c r="D219" t="n">
-        <v>85.57980032937802</v>
+        <v>83.51925094161273</v>
       </c>
     </row>
     <row r="220">
@@ -3957,10 +3957,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>459.2903898395602</v>
+        <v>242.3776948697961</v>
       </c>
       <c r="D220" t="n">
-        <v>92.69443813412133</v>
+        <v>75.44490248466899</v>
       </c>
     </row>
     <row r="221">
@@ -3973,10 +3973,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>267.2095058077362</v>
+        <v>297.3476514614561</v>
       </c>
       <c r="D221" t="n">
-        <v>94.53475573136663</v>
+        <v>93.67622603165276</v>
       </c>
     </row>
     <row r="222">
@@ -3989,10 +3989,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>451.7592008618628</v>
+        <v>423.3849695606297</v>
       </c>
       <c r="D222" t="n">
-        <v>86.50485292996338</v>
+        <v>91.34861366982396</v>
       </c>
     </row>
     <row r="223">
@@ -4005,10 +4005,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>140.6199171969703</v>
+        <v>419.0999327341565</v>
       </c>
       <c r="D223" t="n">
-        <v>77.41306850692649</v>
+        <v>75.77953465287973</v>
       </c>
     </row>
     <row r="224">
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>428.1375209005017</v>
+        <v>204.5067093006757</v>
       </c>
       <c r="D224" t="n">
-        <v>81.41048585006703</v>
+        <v>80.4256757796</v>
       </c>
     </row>
     <row r="225">
@@ -4037,10 +4037,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>470.3695212459345</v>
+        <v>481.0822051172444</v>
       </c>
       <c r="D225" t="n">
-        <v>90.50747438323266</v>
+        <v>85.46524344076202</v>
       </c>
     </row>
     <row r="226">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>405.8306331874417</v>
+        <v>171.6261984928409</v>
       </c>
       <c r="D226" t="n">
-        <v>77.17711167316699</v>
+        <v>95.75250483400926</v>
       </c>
     </row>
     <row r="227">
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>101.9705422587817</v>
+        <v>344.5153562247124</v>
       </c>
       <c r="D227" t="n">
-        <v>90.05203939268083</v>
+        <v>77.24784877568332</v>
       </c>
     </row>
     <row r="228">
@@ -4085,10 +4085,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>297.8008804218655</v>
+        <v>490.442743803387</v>
       </c>
       <c r="D228" t="n">
-        <v>80.81390381148452</v>
+        <v>90.11038532990108</v>
       </c>
     </row>
     <row r="229">
@@ -4101,10 +4101,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>202.575142609561</v>
+        <v>186.7608604852658</v>
       </c>
       <c r="D229" t="n">
-        <v>85.59529564917631</v>
+        <v>86.8266670869583</v>
       </c>
     </row>
     <row r="230">
@@ -4117,10 +4117,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>333.1654890087144</v>
+        <v>263.4773831494923</v>
       </c>
       <c r="D230" t="n">
-        <v>75.13925878909451</v>
+        <v>93.46697348537529</v>
       </c>
     </row>
     <row r="231">
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>401.0879398203278</v>
+        <v>407.840019212371</v>
       </c>
       <c r="D231" t="n">
-        <v>79.20678694771753</v>
+        <v>78.62962380498223</v>
       </c>
     </row>
     <row r="232">
@@ -4149,10 +4149,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>466.7788532682421</v>
+        <v>109.3775974681617</v>
       </c>
       <c r="D232" t="n">
-        <v>90.74846523548771</v>
+        <v>80.18027869074599</v>
       </c>
     </row>
     <row r="233">
@@ -4165,10 +4165,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>299.991577862701</v>
+        <v>244.1839590958814</v>
       </c>
       <c r="D233" t="n">
-        <v>83.09350720413612</v>
+        <v>89.52227610584485</v>
       </c>
     </row>
     <row r="234">
@@ -4181,10 +4181,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>205.8080814142752</v>
+        <v>404.3383773123065</v>
       </c>
       <c r="D234" t="n">
-        <v>88.50295213827955</v>
+        <v>84.78106677224902</v>
       </c>
     </row>
     <row r="235">
@@ -4197,10 +4197,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>353.930481602649</v>
+        <v>432.0680099006461</v>
       </c>
       <c r="D235" t="n">
-        <v>82.49652700438858</v>
+        <v>76.70912194115229</v>
       </c>
     </row>
     <row r="236">
@@ -4213,10 +4213,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>122.1621054238877</v>
+        <v>237.6581541976595</v>
       </c>
       <c r="D236" t="n">
-        <v>83.3898126426889</v>
+        <v>96.78640225363294</v>
       </c>
     </row>
     <row r="237">
@@ -4229,10 +4229,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>271.3048741733709</v>
+        <v>361.0172194116051</v>
       </c>
       <c r="D237" t="n">
-        <v>86.80864042735422</v>
+        <v>97.90001558634272</v>
       </c>
     </row>
     <row r="238">
@@ -4245,10 +4245,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>478.887807130436</v>
+        <v>176.9091240234087</v>
       </c>
       <c r="D238" t="n">
-        <v>81.82358922865778</v>
+        <v>85.19457039859968</v>
       </c>
     </row>
     <row r="239">
@@ -4261,10 +4261,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>316.2855410789301</v>
+        <v>189.6450086920304</v>
       </c>
       <c r="D239" t="n">
-        <v>92.5118322503326</v>
+        <v>95.51516260110159</v>
       </c>
     </row>
     <row r="240">
@@ -4277,10 +4277,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>483.8258352660807</v>
+        <v>200.0095099442073</v>
       </c>
       <c r="D240" t="n">
-        <v>84.1683623690962</v>
+        <v>97.91046641475468</v>
       </c>
     </row>
     <row r="241">
@@ -4293,10 +4293,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>470.4966169745366</v>
+        <v>341.7887165098589</v>
       </c>
       <c r="D241" t="n">
-        <v>97.78699807347304</v>
+        <v>87.0492948850722</v>
       </c>
     </row>
     <row r="242">
@@ -4309,10 +4309,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>427.8347064356366</v>
+        <v>497.2446429141838</v>
       </c>
       <c r="D242" t="n">
-        <v>77.45087281208747</v>
+        <v>78.42213723986819</v>
       </c>
     </row>
     <row r="243">
@@ -4325,10 +4325,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>431.2834213194568</v>
+        <v>327.1747122603659</v>
       </c>
       <c r="D243" t="n">
-        <v>82.0802288235131</v>
+        <v>88.42976310474256</v>
       </c>
     </row>
     <row r="244">
@@ -4341,10 +4341,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>329.8110824811029</v>
+        <v>485.5218650614663</v>
       </c>
       <c r="D244" t="n">
-        <v>86.7045665991854</v>
+        <v>86.13322094192188</v>
       </c>
     </row>
     <row r="245">
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>164.3152558969519</v>
+        <v>210.8139850374021</v>
       </c>
       <c r="D245" t="n">
-        <v>94.93197561749618</v>
+        <v>75.56831093357083</v>
       </c>
     </row>
     <row r="246">
@@ -4373,10 +4373,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>313.0633918664588</v>
+        <v>225.7920916473886</v>
       </c>
       <c r="D246" t="n">
-        <v>79.98614275714948</v>
+        <v>93.72225097137633</v>
       </c>
     </row>
     <row r="247">
@@ -4389,10 +4389,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>249.9485047286016</v>
+        <v>398.1054199346813</v>
       </c>
       <c r="D247" t="n">
-        <v>83.70306488120296</v>
+        <v>75.04378124041347</v>
       </c>
     </row>
     <row r="248">
@@ -4405,10 +4405,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>132.7024717360072</v>
+        <v>409.0838184117582</v>
       </c>
       <c r="D248" t="n">
-        <v>77.93653904904924</v>
+        <v>82.04110200764607</v>
       </c>
     </row>
     <row r="249">
@@ -4421,10 +4421,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>406.1823739115243</v>
+        <v>206.3225738587575</v>
       </c>
       <c r="D249" t="n">
-        <v>79.60981122971668</v>
+        <v>76.01883215554467</v>
       </c>
     </row>
     <row r="250">
@@ -4437,10 +4437,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>211.5403365435523</v>
+        <v>237.4935235281029</v>
       </c>
       <c r="D250" t="n">
-        <v>89.71763313484774</v>
+        <v>87.08802849030396</v>
       </c>
     </row>
     <row r="251">
@@ -4453,10 +4453,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>354.6146371897749</v>
+        <v>290.6049874656885</v>
       </c>
       <c r="D251" t="n">
-        <v>80.33771766109578</v>
+        <v>91.05689624629238</v>
       </c>
     </row>
     <row r="252">
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>115.1505097020663</v>
+        <v>337.0151677293868</v>
       </c>
       <c r="D252" t="n">
-        <v>81.25508940896404</v>
+        <v>86.21501014680673</v>
       </c>
     </row>
     <row r="253">
@@ -4485,10 +4485,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>325.6535053153298</v>
+        <v>159.5710848705006</v>
       </c>
       <c r="D253" t="n">
-        <v>95.05910271696513</v>
+        <v>87.21020058498677</v>
       </c>
     </row>
     <row r="254">
@@ -4501,10 +4501,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>106.4399485188111</v>
+        <v>466.1815949380826</v>
       </c>
       <c r="D254" t="n">
-        <v>93.2018017577702</v>
+        <v>89.05994363585886</v>
       </c>
     </row>
     <row r="255">
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>473.7852090800524</v>
+        <v>234.4712381272507</v>
       </c>
       <c r="D255" t="n">
-        <v>91.58691694249296</v>
+        <v>90.00731953306452</v>
       </c>
     </row>
     <row r="256">
@@ -4533,10 +4533,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>490.0941104959741</v>
+        <v>447.0553112986033</v>
       </c>
       <c r="D256" t="n">
-        <v>87.17242316544417</v>
+        <v>90.27038731827297</v>
       </c>
     </row>
     <row r="257">
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>376.2800058569799</v>
+        <v>213.3349513116393</v>
       </c>
       <c r="D257" t="n">
-        <v>78.27770025339657</v>
+        <v>81.97174851995381</v>
       </c>
     </row>
     <row r="258">
@@ -4565,10 +4565,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>456.3501322124381</v>
+        <v>467.1829845219145</v>
       </c>
       <c r="D258" t="n">
-        <v>77.56884329913726</v>
+        <v>86.56739370509408</v>
       </c>
     </row>
     <row r="259">
@@ -4581,10 +4581,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>331.8593063225034</v>
+        <v>403.4372233470904</v>
       </c>
       <c r="D259" t="n">
-        <v>88.48490695990267</v>
+        <v>89.30149186029411</v>
       </c>
     </row>
     <row r="260">
@@ -4597,10 +4597,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>442.7919288192656</v>
+        <v>319.5172774209633</v>
       </c>
       <c r="D260" t="n">
-        <v>93.88758841939109</v>
+        <v>97.95057468614807</v>
       </c>
     </row>
     <row r="261">
@@ -4613,10 +4613,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>109.3046652877804</v>
+        <v>344.6935140146646</v>
       </c>
       <c r="D261" t="n">
-        <v>84.5537613891767</v>
+        <v>92.00503029402657</v>
       </c>
     </row>
     <row r="262">
@@ -4629,10 +4629,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>109.6696648356137</v>
+        <v>496.451807992163</v>
       </c>
       <c r="D262" t="n">
-        <v>75.63132496154229</v>
+        <v>77.60902376117519</v>
       </c>
     </row>
     <row r="263">
@@ -4645,10 +4645,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>314.3568545606638</v>
+        <v>316.9842565483274</v>
       </c>
       <c r="D263" t="n">
-        <v>76.4881462101514</v>
+        <v>84.41760267553209</v>
       </c>
     </row>
     <row r="264">
@@ -4661,10 +4661,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>316.1861639604043</v>
+        <v>141.8075050182698</v>
       </c>
       <c r="D264" t="n">
-        <v>96.66103116157569</v>
+        <v>91.20536325054698</v>
       </c>
     </row>
     <row r="265">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>246.1926585768587</v>
+        <v>166.349461860264</v>
       </c>
       <c r="D265" t="n">
-        <v>82.03842116844736</v>
+        <v>95.06965448782113</v>
       </c>
     </row>
     <row r="266">
@@ -4693,10 +4693,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>306.402582406003</v>
+        <v>196.757848779639</v>
       </c>
       <c r="D266" t="n">
-        <v>77.73113155181859</v>
+        <v>76.56675806020728</v>
       </c>
     </row>
     <row r="267">
@@ -4709,10 +4709,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>195.4830647038342</v>
+        <v>116.0188445024085</v>
       </c>
       <c r="D267" t="n">
-        <v>87.56192088711092</v>
+        <v>89.66565241137614</v>
       </c>
     </row>
     <row r="268">
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>180.795994154363</v>
+        <v>402.6122287207548</v>
       </c>
       <c r="D268" t="n">
-        <v>95.98826925232206</v>
+        <v>88.23247078372337</v>
       </c>
     </row>
     <row r="269">
@@ -4741,10 +4741,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>182.828925481885</v>
+        <v>250.2386632470303</v>
       </c>
       <c r="D269" t="n">
-        <v>88.71847879888695</v>
+        <v>75.78567823188497</v>
       </c>
     </row>
     <row r="270">
@@ -4757,10 +4757,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>372.124144080355</v>
+        <v>419.5039277643879</v>
       </c>
       <c r="D270" t="n">
-        <v>76.13893632671824</v>
+        <v>91.31249711311757</v>
       </c>
     </row>
     <row r="271">
@@ -4773,10 +4773,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>373.5166451742288</v>
+        <v>253.4072840277568</v>
       </c>
       <c r="D271" t="n">
-        <v>78.53015942067516</v>
+        <v>79.05084344464852</v>
       </c>
     </row>
     <row r="272">
@@ -4789,10 +4789,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>132.7011840949361</v>
+        <v>229.4396081761818</v>
       </c>
       <c r="D272" t="n">
-        <v>97.67642014913885</v>
+        <v>86.04436321723357</v>
       </c>
     </row>
     <row r="273">
@@ -4805,10 +4805,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>254.8340452200894</v>
+        <v>316.8359060483461</v>
       </c>
       <c r="D273" t="n">
-        <v>75.46412265623036</v>
+        <v>75.72513807794392</v>
       </c>
     </row>
     <row r="274">
@@ -4821,10 +4821,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>377.3272310397027</v>
+        <v>310.4735373480454</v>
       </c>
       <c r="D274" t="n">
-        <v>82.10766390875047</v>
+        <v>90.41176616357949</v>
       </c>
     </row>
     <row r="275">
@@ -4837,10 +4837,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>449.4908706537012</v>
+        <v>433.1012958547834</v>
       </c>
       <c r="D275" t="n">
-        <v>82.28804385506064</v>
+        <v>82.58466025183617</v>
       </c>
     </row>
     <row r="276">
@@ -4853,10 +4853,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>380.8525150592619</v>
+        <v>129.7483734975808</v>
       </c>
       <c r="D276" t="n">
-        <v>87.88751224530439</v>
+        <v>86.82618914863744</v>
       </c>
     </row>
     <row r="277">
@@ -4869,10 +4869,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>127.1582756716086</v>
+        <v>245.5792170005013</v>
       </c>
       <c r="D277" t="n">
-        <v>91.20287111388959</v>
+        <v>89.43865726122119</v>
       </c>
     </row>
     <row r="278">
@@ -4885,10 +4885,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>307.1499493950788</v>
+        <v>354.647954400188</v>
       </c>
       <c r="D278" t="n">
-        <v>82.86525673390861</v>
+        <v>87.77650537633401</v>
       </c>
     </row>
     <row r="279">
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>497.5509768074742</v>
+        <v>407.3208808990996</v>
       </c>
       <c r="D279" t="n">
-        <v>93.06279946202494</v>
+        <v>94.50447456500929</v>
       </c>
     </row>
     <row r="280">
@@ -4917,10 +4917,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>272.8485427048524</v>
+        <v>278.5266349548832</v>
       </c>
       <c r="D280" t="n">
-        <v>80.57828064059002</v>
+        <v>87.61772485650509</v>
       </c>
     </row>
     <row r="281">
@@ -4933,10 +4933,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>224.3867961631171</v>
+        <v>124.5150772605507</v>
       </c>
       <c r="D281" t="n">
-        <v>94.16715584294739</v>
+        <v>93.08403251110792</v>
       </c>
     </row>
     <row r="282">
@@ -4949,10 +4949,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>298.0807720357759</v>
+        <v>271.5754739202977</v>
       </c>
       <c r="D282" t="n">
-        <v>95.50491055037891</v>
+        <v>83.32861178894761</v>
       </c>
     </row>
     <row r="283">
@@ -4965,10 +4965,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>453.5698251756247</v>
+        <v>296.586712602961</v>
       </c>
       <c r="D283" t="n">
-        <v>76.81142766499777</v>
+        <v>83.69043818070492</v>
       </c>
     </row>
     <row r="284">
@@ -4981,10 +4981,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>189.3460902207158</v>
+        <v>245.9902756564802</v>
       </c>
       <c r="D284" t="n">
-        <v>91.6910603100508</v>
+        <v>81.80521378410184</v>
       </c>
     </row>
     <row r="285">
@@ -4997,10 +4997,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>365.8191761819837</v>
+        <v>239.5668216427388</v>
       </c>
       <c r="D285" t="n">
-        <v>89.10358176173091</v>
+        <v>93.42236621114913</v>
       </c>
     </row>
     <row r="286">
@@ -5013,10 +5013,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>202.8236463219006</v>
+        <v>474.7916569392731</v>
       </c>
       <c r="D286" t="n">
-        <v>85.06858802517105</v>
+        <v>80.02055247301438</v>
       </c>
     </row>
     <row r="287">
@@ -5029,10 +5029,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>333.5165417107906</v>
+        <v>450.5096660109182</v>
       </c>
       <c r="D287" t="n">
-        <v>84.97137273257145</v>
+        <v>96.63447849596783</v>
       </c>
     </row>
     <row r="288">
@@ -5045,10 +5045,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>381.4583626068391</v>
+        <v>443.7262271301591</v>
       </c>
       <c r="D288" t="n">
-        <v>77.68968021156181</v>
+        <v>82.54094682806637</v>
       </c>
     </row>
     <row r="289">
@@ -5061,10 +5061,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>143.3766099918896</v>
+        <v>333.8663468420026</v>
       </c>
       <c r="D289" t="n">
-        <v>92.90917159045463</v>
+        <v>87.71155064802591</v>
       </c>
     </row>
     <row r="290">
@@ -5077,10 +5077,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>452.4573647134077</v>
+        <v>377.4730150526027</v>
       </c>
       <c r="D290" t="n">
-        <v>90.44784315911119</v>
+        <v>91.49651360515334</v>
       </c>
     </row>
     <row r="291">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>296.4916003636257</v>
+        <v>166.8966605476443</v>
       </c>
       <c r="D291" t="n">
-        <v>76.65811661848417</v>
+        <v>88.45547306541975</v>
       </c>
     </row>
     <row r="292">
@@ -5109,10 +5109,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>132.0200935979738</v>
+        <v>407.0373510606478</v>
       </c>
       <c r="D292" t="n">
-        <v>91.93231168085883</v>
+        <v>96.02970856249274</v>
       </c>
     </row>
     <row r="293">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>406.4544357922404</v>
+        <v>155.8104313717988</v>
       </c>
       <c r="D293" t="n">
-        <v>80.88336197314538</v>
+        <v>91.10873134091634</v>
       </c>
     </row>
     <row r="294">
@@ -5141,10 +5141,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>103.2203547038169</v>
+        <v>111.4162006451417</v>
       </c>
       <c r="D294" t="n">
-        <v>95.17172086872384</v>
+        <v>93.65902435110323</v>
       </c>
     </row>
     <row r="295">
@@ -5157,10 +5157,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>320.6479776064727</v>
+        <v>330.3246983460372</v>
       </c>
       <c r="D295" t="n">
-        <v>94.17317605788975</v>
+        <v>75.87438015934397</v>
       </c>
     </row>
     <row r="296">
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>200.3434444862673</v>
+        <v>194.1863243913394</v>
       </c>
       <c r="D296" t="n">
-        <v>78.30668459698926</v>
+        <v>95.01204073870289</v>
       </c>
     </row>
     <row r="297">
@@ -5189,10 +5189,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>394.6460066671121</v>
+        <v>471.9378277165931</v>
       </c>
       <c r="D297" t="n">
-        <v>89.03034204713205</v>
+        <v>84.08083793354992</v>
       </c>
     </row>
     <row r="298">
@@ -5205,10 +5205,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>302.9980842677993</v>
+        <v>410.7657364477568</v>
       </c>
       <c r="D298" t="n">
-        <v>85.48820605103758</v>
+        <v>86.35163220302871</v>
       </c>
     </row>
     <row r="299">
@@ -5221,10 +5221,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>299.2422593675134</v>
+        <v>462.6100084656671</v>
       </c>
       <c r="D299" t="n">
-        <v>96.78894180488233</v>
+        <v>78.69888137117097</v>
       </c>
     </row>
     <row r="300">
@@ -5237,10 +5237,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>288.2496262783986</v>
+        <v>497.141316751259</v>
       </c>
       <c r="D300" t="n">
-        <v>89.63591880539904</v>
+        <v>96.91205087703676</v>
       </c>
     </row>
     <row r="301">
@@ -5253,10 +5253,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>323.0942607059008</v>
+        <v>110.7374802742848</v>
       </c>
       <c r="D301" t="n">
-        <v>94.53374882206587</v>
+        <v>78.65924597873824</v>
       </c>
     </row>
     <row r="302">
@@ -5269,10 +5269,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>356.820996792766</v>
+        <v>298.9197592822056</v>
       </c>
       <c r="D302" t="n">
-        <v>97.20682397089381</v>
+        <v>90.96071750002463</v>
       </c>
     </row>
     <row r="303">
@@ -5285,10 +5285,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>474.3050443394227</v>
+        <v>333.634391435425</v>
       </c>
       <c r="D303" t="n">
-        <v>76.76405155765792</v>
+        <v>79.96842393949194</v>
       </c>
     </row>
     <row r="304">
@@ -5301,10 +5301,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>492.7738606559714</v>
+        <v>297.9314067586562</v>
       </c>
       <c r="D304" t="n">
-        <v>76.96869902646242</v>
+        <v>79.04071891266997</v>
       </c>
     </row>
     <row r="305">
@@ -5317,10 +5317,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>233.0059649428815</v>
+        <v>377.8201871306541</v>
       </c>
       <c r="D305" t="n">
-        <v>94.33320589468198</v>
+        <v>75.32425241657094</v>
       </c>
     </row>
     <row r="306">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>136.7677004980722</v>
+        <v>335.7632252350791</v>
       </c>
       <c r="D306" t="n">
-        <v>88.77682869994979</v>
+        <v>80.42167669181512</v>
       </c>
     </row>
     <row r="307">
@@ -5349,10 +5349,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>413.2300471293768</v>
+        <v>294.126903762649</v>
       </c>
       <c r="D307" t="n">
-        <v>78.71549995424783</v>
+        <v>89.61247501546879</v>
       </c>
     </row>
     <row r="308">
@@ -5365,10 +5365,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>211.8790821175958</v>
+        <v>209.079366103784</v>
       </c>
       <c r="D308" t="n">
-        <v>92.52875398046196</v>
+        <v>83.76111954076904</v>
       </c>
     </row>
     <row r="309">
@@ -5381,10 +5381,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>447.9276868812076</v>
+        <v>371.4996368113646</v>
       </c>
       <c r="D309" t="n">
-        <v>88.35691761583661</v>
+        <v>94.30996503286244</v>
       </c>
     </row>
     <row r="310">
@@ -5397,10 +5397,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>241.0401387146057</v>
+        <v>389.2972060133707</v>
       </c>
       <c r="D310" t="n">
-        <v>89.10351759009438</v>
+        <v>81.42743662188707</v>
       </c>
     </row>
     <row r="311">
@@ -5413,10 +5413,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>450.7521293878651</v>
+        <v>442.0835221402559</v>
       </c>
       <c r="D311" t="n">
-        <v>80.77010761826325</v>
+        <v>82.16386671736186</v>
       </c>
     </row>
     <row r="312">
@@ -5429,10 +5429,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>279.099342762333</v>
+        <v>234.5023086703338</v>
       </c>
       <c r="D312" t="n">
-        <v>87.48901437557646</v>
+        <v>82.9741189149936</v>
       </c>
     </row>
     <row r="313">
@@ -5445,10 +5445,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>222.6538954702126</v>
+        <v>208.266193289528</v>
       </c>
       <c r="D313" t="n">
-        <v>90.67220821638756</v>
+        <v>86.37214757951193</v>
       </c>
     </row>
     <row r="314">
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>216.1432589890578</v>
+        <v>377.6920809742492</v>
       </c>
       <c r="D314" t="n">
-        <v>93.88241211709783</v>
+        <v>77.3104275279216</v>
       </c>
     </row>
     <row r="315">
@@ -5477,10 +5477,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>289.4759405953677</v>
+        <v>498.4521488512122</v>
       </c>
       <c r="D315" t="n">
-        <v>76.42472379879078</v>
+        <v>84.43608786094173</v>
       </c>
     </row>
     <row r="316">
@@ -5493,10 +5493,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>372.1986622195172</v>
+        <v>251.4376416697247</v>
       </c>
       <c r="D316" t="n">
-        <v>79.30325460314381</v>
+        <v>93.52836376544002</v>
       </c>
     </row>
     <row r="317">
@@ -5509,10 +5509,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>434.5599573002873</v>
+        <v>448.5814049208934</v>
       </c>
       <c r="D317" t="n">
-        <v>76.60663593073942</v>
+        <v>92.28216578680062</v>
       </c>
     </row>
     <row r="318">
@@ -5525,10 +5525,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>354.2517498314417</v>
+        <v>471.4995951462497</v>
       </c>
       <c r="D318" t="n">
-        <v>82.81636931492397</v>
+        <v>87.06187372075459</v>
       </c>
     </row>
     <row r="319">
@@ -5541,10 +5541,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>169.5877455989363</v>
+        <v>120.1167111638021</v>
       </c>
       <c r="D319" t="n">
-        <v>89.03682854783669</v>
+        <v>92.66635050572911</v>
       </c>
     </row>
     <row r="320">
@@ -5557,10 +5557,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>181.3784846541607</v>
+        <v>143.2555060081269</v>
       </c>
       <c r="D320" t="n">
-        <v>95.93136970070275</v>
+        <v>89.54027265098601</v>
       </c>
     </row>
     <row r="321">
@@ -5573,10 +5573,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>447.2540618442</v>
+        <v>337.1017603983888</v>
       </c>
       <c r="D321" t="n">
-        <v>76.91945353730279</v>
+        <v>86.56263842494786</v>
       </c>
     </row>
     <row r="322">
@@ -5589,10 +5589,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>184.429703267124</v>
+        <v>219.6185220330572</v>
       </c>
       <c r="D322" t="n">
-        <v>94.55410334722501</v>
+        <v>97.81278844802691</v>
       </c>
     </row>
     <row r="323">
@@ -5605,10 +5605,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>139.9290947747904</v>
+        <v>380.2184786304923</v>
       </c>
       <c r="D323" t="n">
-        <v>79.99009809222957</v>
+        <v>75.49875080091201</v>
       </c>
     </row>
     <row r="324">
@@ -5621,10 +5621,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>263.2632814674813</v>
+        <v>426.5201313792422</v>
       </c>
       <c r="D324" t="n">
-        <v>92.72749120660508</v>
+        <v>85.70915310097419</v>
       </c>
     </row>
     <row r="325">
@@ -5637,10 +5637,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>395.0543891658911</v>
+        <v>291.4327298805596</v>
       </c>
       <c r="D325" t="n">
-        <v>87.21504919879442</v>
+        <v>92.39441621681901</v>
       </c>
     </row>
     <row r="326">
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>485.4091675583815</v>
+        <v>197.2393167218839</v>
       </c>
       <c r="D326" t="n">
-        <v>79.50428006677842</v>
+        <v>91.68068500319515</v>
       </c>
     </row>
     <row r="327">
@@ -5669,10 +5669,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>224.8008827540834</v>
+        <v>431.7802837682739</v>
       </c>
       <c r="D327" t="n">
-        <v>82.19709236572106</v>
+        <v>83.54613059623065</v>
       </c>
     </row>
     <row r="328">
@@ -5685,10 +5685,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>215.7223516086877</v>
+        <v>340.2437344004937</v>
       </c>
       <c r="D328" t="n">
-        <v>94.89303590149936</v>
+        <v>94.05029136290901</v>
       </c>
     </row>
     <row r="329">
@@ -5701,10 +5701,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>498.2884084241037</v>
+        <v>200.4097099115139</v>
       </c>
       <c r="D329" t="n">
-        <v>95.5555523644294</v>
+        <v>85.16874691758754</v>
       </c>
     </row>
     <row r="330">
@@ -5717,10 +5717,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>339.7393043052749</v>
+        <v>455.5610777493563</v>
       </c>
       <c r="D330" t="n">
-        <v>79.86669997505084</v>
+        <v>84.33289770924058</v>
       </c>
     </row>
     <row r="331">
@@ -5733,10 +5733,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>438.5493819845869</v>
+        <v>207.2804036270336</v>
       </c>
       <c r="D331" t="n">
-        <v>90.74891520839211</v>
+        <v>93.03145580064495</v>
       </c>
     </row>
     <row r="332">
@@ -5749,10 +5749,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>467.3383164354119</v>
+        <v>335.8523817168817</v>
       </c>
       <c r="D332" t="n">
-        <v>75.09547497316704</v>
+        <v>92.69354700172303</v>
       </c>
     </row>
     <row r="333">
@@ -5765,10 +5765,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>403.4862063658388</v>
+        <v>245.4671837349598</v>
       </c>
       <c r="D333" t="n">
-        <v>78.34983019749927</v>
+        <v>84.28259165706844</v>
       </c>
     </row>
     <row r="334">
@@ -5781,10 +5781,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>306.1410943410314</v>
+        <v>425.7399522818115</v>
       </c>
       <c r="D334" t="n">
-        <v>97.23912919102699</v>
+        <v>90.8758777460926</v>
       </c>
     </row>
     <row r="335">
@@ -5797,10 +5797,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>168.9633361707373</v>
+        <v>154.9768298407986</v>
       </c>
       <c r="D335" t="n">
-        <v>83.11366151265064</v>
+        <v>93.46967946940653</v>
       </c>
     </row>
     <row r="336">
@@ -5813,10 +5813,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>356.4949842461285</v>
+        <v>406.8884839959178</v>
       </c>
       <c r="D336" t="n">
-        <v>95.61985498173141</v>
+        <v>87.83023530974609</v>
       </c>
     </row>
     <row r="337">
@@ -5829,10 +5829,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>487.4223546972823</v>
+        <v>428.5148171669084</v>
       </c>
       <c r="D337" t="n">
-        <v>91.14618389819208</v>
+        <v>75.4650779391598</v>
       </c>
     </row>
     <row r="338">
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>393.2702291462408</v>
+        <v>369.0636721902158</v>
       </c>
       <c r="D338" t="n">
-        <v>95.34121098373906</v>
+        <v>75.40904398376162</v>
       </c>
     </row>
     <row r="339">
@@ -5861,10 +5861,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>113.5665823204115</v>
+        <v>116.0392208513982</v>
       </c>
       <c r="D339" t="n">
-        <v>90.78312703940068</v>
+        <v>79.50867489982932</v>
       </c>
     </row>
     <row r="340">
@@ -5877,10 +5877,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>439.9555774490967</v>
+        <v>233.8160348183682</v>
       </c>
       <c r="D340" t="n">
-        <v>83.02817796700776</v>
+        <v>92.06837348571379</v>
       </c>
     </row>
     <row r="341">
@@ -5893,10 +5893,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>302.8345621398619</v>
+        <v>116.001948543969</v>
       </c>
       <c r="D341" t="n">
-        <v>83.55251313576497</v>
+        <v>95.03154017729196</v>
       </c>
     </row>
     <row r="342">
@@ -5909,10 +5909,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>236.39866037231</v>
+        <v>173.7813719760452</v>
       </c>
       <c r="D342" t="n">
-        <v>91.672184280743</v>
+        <v>92.29358317016161</v>
       </c>
     </row>
     <row r="343">
@@ -5925,10 +5925,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>101.531048051094</v>
+        <v>125.9986635594767</v>
       </c>
       <c r="D343" t="n">
-        <v>94.19497149020025</v>
+        <v>86.99334725535057</v>
       </c>
     </row>
     <row r="344">
@@ -5941,10 +5941,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>438.1653963563921</v>
+        <v>498.6308001988453</v>
       </c>
       <c r="D344" t="n">
-        <v>90.22598349585411</v>
+        <v>84.75668354541853</v>
       </c>
     </row>
     <row r="345">
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>108.0916343499143</v>
+        <v>471.8758671013669</v>
       </c>
       <c r="D345" t="n">
-        <v>90.4245823445528</v>
+        <v>83.65409568213261</v>
       </c>
     </row>
     <row r="346">
@@ -5973,10 +5973,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>343.2815502908211</v>
+        <v>378.7036261176199</v>
       </c>
       <c r="D346" t="n">
-        <v>86.61823964567165</v>
+        <v>90.13968199189</v>
       </c>
     </row>
     <row r="347">
@@ -5989,10 +5989,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>197.4438838171212</v>
+        <v>353.3684010147112</v>
       </c>
       <c r="D347" t="n">
-        <v>75.5535542562949</v>
+        <v>90.98299103201325</v>
       </c>
     </row>
     <row r="348">
@@ -6005,10 +6005,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>459.4428243595962</v>
+        <v>380.7192789663823</v>
       </c>
       <c r="D348" t="n">
-        <v>97.85741420240814</v>
+        <v>87.02713076072715</v>
       </c>
     </row>
     <row r="349">
@@ -6021,10 +6021,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>167.9193600452715</v>
+        <v>306.9711174216277</v>
       </c>
       <c r="D349" t="n">
-        <v>93.35614090090844</v>
+        <v>79.16067691785207</v>
       </c>
     </row>
     <row r="350">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>231.4562278661412</v>
+        <v>478.2063081355042</v>
       </c>
       <c r="D350" t="n">
-        <v>76.3896766281383</v>
+        <v>96.52924059838645</v>
       </c>
     </row>
     <row r="351">
@@ -6053,10 +6053,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>293.3361994047938</v>
+        <v>372.9899122588497</v>
       </c>
       <c r="D351" t="n">
-        <v>89.74407500868985</v>
+        <v>85.41530695460349</v>
       </c>
     </row>
     <row r="352">
@@ -6069,10 +6069,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>176.35062883883</v>
+        <v>118.1200557293284</v>
       </c>
       <c r="D352" t="n">
-        <v>94.59843584867309</v>
+        <v>79.89135197557999</v>
       </c>
     </row>
     <row r="353">
@@ -6085,10 +6085,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>161.387205092935</v>
+        <v>254.3632716602612</v>
       </c>
       <c r="D353" t="n">
-        <v>76.77124080900522</v>
+        <v>94.38174974160771</v>
       </c>
     </row>
     <row r="354">
@@ -6101,10 +6101,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>371.0990669706911</v>
+        <v>219.1546069773657</v>
       </c>
       <c r="D354" t="n">
-        <v>85.46631313443655</v>
+        <v>97.06980557552848</v>
       </c>
     </row>
     <row r="355">
@@ -6117,10 +6117,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>319.9418668433449</v>
+        <v>469.9930847022238</v>
       </c>
       <c r="D355" t="n">
-        <v>89.43398625338048</v>
+        <v>96.22830460236871</v>
       </c>
     </row>
     <row r="356">
@@ -6133,10 +6133,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>374.1256370371676</v>
+        <v>367.5976929998927</v>
       </c>
       <c r="D356" t="n">
-        <v>97.17804557320036</v>
+        <v>89.02251416736321</v>
       </c>
     </row>
     <row r="357">
@@ -6149,10 +6149,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>175.8785891746387</v>
+        <v>144.2357610152367</v>
       </c>
       <c r="D357" t="n">
-        <v>91.508719638247</v>
+        <v>76.08680138005103</v>
       </c>
     </row>
     <row r="358">
@@ -6165,10 +6165,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>392.9501203165584</v>
+        <v>221.121147878773</v>
       </c>
       <c r="D358" t="n">
-        <v>96.86806235843413</v>
+        <v>76.06714439996388</v>
       </c>
     </row>
     <row r="359">
@@ -6181,10 +6181,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>352.5826215349762</v>
+        <v>370.2348054300363</v>
       </c>
       <c r="D359" t="n">
-        <v>81.07347156338997</v>
+        <v>87.40886060897817</v>
       </c>
     </row>
     <row r="360">
@@ -6197,10 +6197,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>180.2847425691867</v>
+        <v>429.1349236995293</v>
       </c>
       <c r="D360" t="n">
-        <v>78.63928230873711</v>
+        <v>78.18474880181788</v>
       </c>
     </row>
     <row r="361">
@@ -6213,10 +6213,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>318.3421084613919</v>
+        <v>341.9991689318863</v>
       </c>
       <c r="D361" t="n">
-        <v>95.68705586016809</v>
+        <v>78.8455524766958</v>
       </c>
     </row>
     <row r="362">
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>237.387849288314</v>
+        <v>170.676543854848</v>
       </c>
       <c r="D362" t="n">
-        <v>76.65060411894076</v>
+        <v>78.55537768692315</v>
       </c>
     </row>
     <row r="363">
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>321.8421365202125</v>
+        <v>215.9078746309625</v>
       </c>
       <c r="D363" t="n">
-        <v>83.44172649671748</v>
+        <v>78.48989934816368</v>
       </c>
     </row>
     <row r="364">
@@ -6261,10 +6261,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>392.7099303217454</v>
+        <v>121.1662399490281</v>
       </c>
       <c r="D364" t="n">
-        <v>82.27388611518981</v>
+        <v>84.2792788009222</v>
       </c>
     </row>
     <row r="365">
@@ -6277,10 +6277,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>489.3848173145789</v>
+        <v>282.0512947692915</v>
       </c>
       <c r="D365" t="n">
-        <v>90.69183434867314</v>
+        <v>86.5312896208238</v>
       </c>
     </row>
     <row r="366">
@@ -6293,10 +6293,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>152.615873158692</v>
+        <v>352.3543354712489</v>
       </c>
       <c r="D366" t="n">
-        <v>87.44384974671</v>
+        <v>76.43961411755184</v>
       </c>
     </row>
     <row r="367">
@@ -6309,10 +6309,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>158.6077563541255</v>
+        <v>147.0614333827118</v>
       </c>
       <c r="D367" t="n">
-        <v>96.14724797886885</v>
+        <v>95.52318126869835</v>
       </c>
     </row>
     <row r="368">
@@ -6325,10 +6325,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>100.1171617625513</v>
+        <v>442.0783730386846</v>
       </c>
       <c r="D368" t="n">
-        <v>76.18516424408355</v>
+        <v>86.27600084148932</v>
       </c>
     </row>
     <row r="369">
@@ -6341,10 +6341,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>285.0856112876475</v>
+        <v>244.5071388502381</v>
       </c>
       <c r="D369" t="n">
-        <v>78.81204637185677</v>
+        <v>86.3491738708105</v>
       </c>
     </row>
     <row r="370">
@@ -6357,10 +6357,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>482.446205748876</v>
+        <v>452.9059577213919</v>
       </c>
       <c r="D370" t="n">
-        <v>88.15539682285761</v>
+        <v>75.86320214568701</v>
       </c>
     </row>
     <row r="371">
@@ -6373,10 +6373,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>414.6265498766599</v>
+        <v>432.5959865173804</v>
       </c>
       <c r="D371" t="n">
-        <v>86.60086488567561</v>
+        <v>80.56075037764927</v>
       </c>
     </row>
     <row r="372">
@@ -6389,10 +6389,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>202.1822103588577</v>
+        <v>172.2497296243573</v>
       </c>
       <c r="D372" t="n">
-        <v>90.05897257555891</v>
+        <v>96.75450736232918</v>
       </c>
     </row>
     <row r="373">
@@ -6405,10 +6405,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>101.8001453883065</v>
+        <v>473.2662171787085</v>
       </c>
       <c r="D373" t="n">
-        <v>79.505433386281</v>
+        <v>77.29313056651976</v>
       </c>
     </row>
     <row r="374">
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>462.8512454778364</v>
+        <v>133.5346959561333</v>
       </c>
       <c r="D374" t="n">
-        <v>93.76675805130597</v>
+        <v>97.51982680886491</v>
       </c>
     </row>
     <row r="375">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>475.1809900598957</v>
+        <v>257.298566546405</v>
       </c>
       <c r="D375" t="n">
-        <v>82.95371742708843</v>
+        <v>86.38698766075612</v>
       </c>
     </row>
     <row r="376">
@@ -6453,10 +6453,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>392.4707776076754</v>
+        <v>368.1425632736636</v>
       </c>
       <c r="D376" t="n">
-        <v>79.53707125719814</v>
+        <v>95.2201855696303</v>
       </c>
     </row>
     <row r="377">
@@ -6469,10 +6469,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>262.7014959217717</v>
+        <v>431.8645046383709</v>
       </c>
       <c r="D377" t="n">
-        <v>84.21438105804781</v>
+        <v>91.54926007289131</v>
       </c>
     </row>
     <row r="378">
@@ -6485,10 +6485,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>481.3927689379249</v>
+        <v>451.0004022328596</v>
       </c>
       <c r="D378" t="n">
-        <v>80.6694799169334</v>
+        <v>87.34239602768639</v>
       </c>
     </row>
     <row r="379">
@@ -6501,10 +6501,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>461.3824747648144</v>
+        <v>284.0248953932717</v>
       </c>
       <c r="D379" t="n">
-        <v>89.25507881004386</v>
+        <v>83.50729084332249</v>
       </c>
     </row>
     <row r="380">
@@ -6517,10 +6517,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>180.1363516336566</v>
+        <v>445.3064210442702</v>
       </c>
       <c r="D380" t="n">
-        <v>94.38011918626634</v>
+        <v>83.0024984296286</v>
       </c>
     </row>
     <row r="381">
@@ -6533,10 +6533,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>188.369370585989</v>
+        <v>214.9951121024484</v>
       </c>
       <c r="D381" t="n">
-        <v>79.46504685973687</v>
+        <v>82.23321773056664</v>
       </c>
     </row>
     <row r="382">
@@ -6549,10 +6549,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>175.9683658487826</v>
+        <v>388.9921301187502</v>
       </c>
       <c r="D382" t="n">
-        <v>76.51060432388051</v>
+        <v>95.54585326187603</v>
       </c>
     </row>
     <row r="383">
@@ -6565,10 +6565,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>214.5521277387807</v>
+        <v>462.3356951244754</v>
       </c>
       <c r="D383" t="n">
-        <v>75.71091001292091</v>
+        <v>76.72162128609051</v>
       </c>
     </row>
     <row r="384">
@@ -6581,10 +6581,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>176.9434819929224</v>
+        <v>348.9996704904863</v>
       </c>
       <c r="D384" t="n">
-        <v>83.12995439462146</v>
+        <v>79.17354236373964</v>
       </c>
     </row>
     <row r="385">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>148.6377370270411</v>
+        <v>344.2165749540001</v>
       </c>
       <c r="D385" t="n">
-        <v>88.26206549770289</v>
+        <v>90.5811512255142</v>
       </c>
     </row>
     <row r="386">
@@ -6613,10 +6613,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>420.0147756163393</v>
+        <v>288.8054935754103</v>
       </c>
       <c r="D386" t="n">
-        <v>78.40151049996842</v>
+        <v>90.04450469269324</v>
       </c>
     </row>
     <row r="387">
@@ -6629,10 +6629,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>119.5185773289482</v>
+        <v>360.4808565305116</v>
       </c>
       <c r="D387" t="n">
-        <v>80.53950863821365</v>
+        <v>86.95333805831729</v>
       </c>
     </row>
     <row r="388">
@@ -6645,10 +6645,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>364.1811000071402</v>
+        <v>283.2064002426453</v>
       </c>
       <c r="D388" t="n">
-        <v>91.77839543087605</v>
+        <v>95.33415743015804</v>
       </c>
     </row>
     <row r="389">
@@ -6661,10 +6661,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>121.0331909438811</v>
+        <v>112.465245151421</v>
       </c>
       <c r="D389" t="n">
-        <v>97.81417197422149</v>
+        <v>92.8303481767866</v>
       </c>
     </row>
     <row r="390">
@@ -6677,10 +6677,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>355.0333382239487</v>
+        <v>338.4347510631657</v>
       </c>
       <c r="D390" t="n">
-        <v>87.17316159966173</v>
+        <v>94.52970920835313</v>
       </c>
     </row>
     <row r="391">
@@ -6693,10 +6693,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>436.9766680285272</v>
+        <v>368.2750786305568</v>
       </c>
       <c r="D391" t="n">
-        <v>84.40675046213592</v>
+        <v>93.30949417068523</v>
       </c>
     </row>
     <row r="392">
@@ -6709,10 +6709,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>494.3496350941203</v>
+        <v>223.3935801375658</v>
       </c>
       <c r="D392" t="n">
-        <v>86.98771831288617</v>
+        <v>86.28666374386245</v>
       </c>
     </row>
     <row r="393">
@@ -6725,10 +6725,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>322.223820785407</v>
+        <v>164.1245620070206</v>
       </c>
       <c r="D393" t="n">
-        <v>89.786960371793</v>
+        <v>84.06174028943427</v>
       </c>
     </row>
     <row r="394">
@@ -6741,10 +6741,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>475.2081665722943</v>
+        <v>181.2654612468156</v>
       </c>
       <c r="D394" t="n">
-        <v>81.87533963049171</v>
+        <v>85.85110514944735</v>
       </c>
     </row>
     <row r="395">
@@ -6757,10 +6757,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>249.7459740601894</v>
+        <v>394.026513355054</v>
       </c>
       <c r="D395" t="n">
-        <v>97.16467363460744</v>
+        <v>87.65674762320877</v>
       </c>
     </row>
     <row r="396">
@@ -6773,10 +6773,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>353.0135931926494</v>
+        <v>433.9118830739545</v>
       </c>
       <c r="D396" t="n">
-        <v>92.60996249642849</v>
+        <v>81.64378170098009</v>
       </c>
     </row>
     <row r="397">
@@ -6789,10 +6789,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>387.3883955950944</v>
+        <v>169.3726206271997</v>
       </c>
       <c r="D397" t="n">
-        <v>79.9626748725137</v>
+        <v>90.22457951601244</v>
       </c>
     </row>
     <row r="398">
@@ -6805,10 +6805,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>479.4141400696288</v>
+        <v>300.1978600861237</v>
       </c>
       <c r="D398" t="n">
-        <v>92.495732193658</v>
+        <v>79.64635487268998</v>
       </c>
     </row>
     <row r="399">
@@ -6821,10 +6821,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>326.5990962811807</v>
+        <v>290.3724558122071</v>
       </c>
       <c r="D399" t="n">
-        <v>96.31755343541903</v>
+        <v>87.94581576297047</v>
       </c>
     </row>
     <row r="400">
@@ -6837,10 +6837,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>387.0436571817879</v>
+        <v>477.5263657741491</v>
       </c>
       <c r="D400" t="n">
-        <v>78.59515971658033</v>
+        <v>85.39398861326772</v>
       </c>
     </row>
     <row r="401">
@@ -6853,10 +6853,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>441.5120778563902</v>
+        <v>228.0921124533687</v>
       </c>
       <c r="D401" t="n">
-        <v>93.48067177870362</v>
+        <v>84.08671526259418</v>
       </c>
     </row>
     <row r="402">
@@ -6869,10 +6869,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>301.2345655240785</v>
+        <v>293.4033214974554</v>
       </c>
       <c r="D402" t="n">
-        <v>85.34363942297492</v>
+        <v>92.91514943387293</v>
       </c>
     </row>
     <row r="403">
@@ -6885,10 +6885,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>474.8123124302349</v>
+        <v>103.0268229265636</v>
       </c>
       <c r="D403" t="n">
-        <v>88.99628658828635</v>
+        <v>88.12862524029998</v>
       </c>
     </row>
     <row r="404">
@@ -6901,10 +6901,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>222.8442856381745</v>
+        <v>494.6209074360872</v>
       </c>
       <c r="D404" t="n">
-        <v>91.12329023372023</v>
+        <v>88.57440302521407</v>
       </c>
     </row>
     <row r="405">
@@ -6917,10 +6917,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>107.916477232708</v>
+        <v>400.2946737207557</v>
       </c>
       <c r="D405" t="n">
-        <v>75.39615114526002</v>
+        <v>86.45477554788926</v>
       </c>
     </row>
     <row r="406">
@@ -6933,10 +6933,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>172.6037132467035</v>
+        <v>273.1206618278003</v>
       </c>
       <c r="D406" t="n">
-        <v>91.04432324806848</v>
+        <v>83.9997048934068</v>
       </c>
     </row>
     <row r="407">
@@ -6949,10 +6949,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>476.1186009027659</v>
+        <v>298.5645178484175</v>
       </c>
       <c r="D407" t="n">
-        <v>95.06310262160763</v>
+        <v>93.67323862640214</v>
       </c>
     </row>
     <row r="408">
@@ -6965,10 +6965,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>315.5718000383656</v>
+        <v>323.5667812868683</v>
       </c>
       <c r="D408" t="n">
-        <v>82.84527743142847</v>
+        <v>79.7730907532959</v>
       </c>
     </row>
     <row r="409">
@@ -6981,10 +6981,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>263.5377801940554</v>
+        <v>186.0904983353832</v>
       </c>
       <c r="D409" t="n">
-        <v>86.68396766988781</v>
+        <v>96.43894019361053</v>
       </c>
     </row>
     <row r="410">
@@ -6997,10 +6997,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>407.2905795225745</v>
+        <v>448.9890697585176</v>
       </c>
       <c r="D410" t="n">
-        <v>89.79265385785739</v>
+        <v>83.19666796360214</v>
       </c>
     </row>
     <row r="411">
@@ -7013,10 +7013,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>336.5421423368419</v>
+        <v>439.3899140518037</v>
       </c>
       <c r="D411" t="n">
-        <v>77.78137788502077</v>
+        <v>78.64254066037549</v>
       </c>
     </row>
     <row r="412">
@@ -7029,10 +7029,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>250.8158455062368</v>
+        <v>217.136369211319</v>
       </c>
       <c r="D412" t="n">
-        <v>87.88019512641723</v>
+        <v>81.2053439847802</v>
       </c>
     </row>
     <row r="413">
@@ -7045,10 +7045,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>200.1084042053749</v>
+        <v>367.3076583565683</v>
       </c>
       <c r="D413" t="n">
-        <v>83.66552050914483</v>
+        <v>78.1466058178838</v>
       </c>
     </row>
     <row r="414">
@@ -7061,10 +7061,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>472.6321626724143</v>
+        <v>115.462556427352</v>
       </c>
       <c r="D414" t="n">
-        <v>97.48781716812118</v>
+        <v>85.83046013076616</v>
       </c>
     </row>
     <row r="415">
@@ -7077,10 +7077,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>414.258203749592</v>
+        <v>152.9410600105023</v>
       </c>
       <c r="D415" t="n">
-        <v>87.60054773665954</v>
+        <v>89.23339916793346</v>
       </c>
     </row>
     <row r="416">
@@ -7093,10 +7093,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>439.0504036564208</v>
+        <v>302.2108400010698</v>
       </c>
       <c r="D416" t="n">
-        <v>94.91145144760776</v>
+        <v>81.10668574296092</v>
       </c>
     </row>
     <row r="417">
@@ -7109,10 +7109,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>108.8343246100345</v>
+        <v>349.3779909063795</v>
       </c>
       <c r="D417" t="n">
-        <v>94.49721758128678</v>
+        <v>84.78906356109289</v>
       </c>
     </row>
     <row r="418">
@@ -7125,10 +7125,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>185.1557715740684</v>
+        <v>442.0880567466612</v>
       </c>
       <c r="D418" t="n">
-        <v>86.76276814286207</v>
+        <v>92.57288037860238</v>
       </c>
     </row>
     <row r="419">
@@ -7141,10 +7141,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>160.7766976057995</v>
+        <v>303.8670572004457</v>
       </c>
       <c r="D419" t="n">
-        <v>78.13226407604238</v>
+        <v>95.21683036291772</v>
       </c>
     </row>
     <row r="420">
@@ -7157,10 +7157,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>431.554606715152</v>
+        <v>184.1124137065244</v>
       </c>
       <c r="D420" t="n">
-        <v>91.77888338275422</v>
+        <v>79.64625186449416</v>
       </c>
     </row>
     <row r="421">
@@ -7173,10 +7173,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>357.7098181631536</v>
+        <v>203.0974602052677</v>
       </c>
       <c r="D421" t="n">
-        <v>90.16313356900537</v>
+        <v>94.89169970094369</v>
       </c>
     </row>
     <row r="422">
@@ -7189,10 +7189,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>421.0509763554998</v>
+        <v>320.8482678719515</v>
       </c>
       <c r="D422" t="n">
-        <v>84.54760079861133</v>
+        <v>77.26367720953542</v>
       </c>
     </row>
     <row r="423">
@@ -7205,10 +7205,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>411.1633177873558</v>
+        <v>403.0479210304708</v>
       </c>
       <c r="D423" t="n">
-        <v>90.62794881479198</v>
+        <v>90.95749426182078</v>
       </c>
     </row>
     <row r="424">
@@ -7221,10 +7221,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>283.557724931643</v>
+        <v>278.4674812038685</v>
       </c>
       <c r="D424" t="n">
-        <v>75.36435740106606</v>
+        <v>86.20082472195844</v>
       </c>
     </row>
     <row r="425">
@@ -7237,10 +7237,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>210.8664511626597</v>
+        <v>381.9973415002182</v>
       </c>
       <c r="D425" t="n">
-        <v>94.79070291588005</v>
+        <v>86.26630161143892</v>
       </c>
     </row>
     <row r="426">
@@ -7253,10 +7253,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>237.9588160310373</v>
+        <v>324.1779039585616</v>
       </c>
       <c r="D426" t="n">
-        <v>77.96926539481861</v>
+        <v>89.07271525219177</v>
       </c>
     </row>
     <row r="427">
@@ -7269,10 +7269,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>259.5088364953264</v>
+        <v>467.6946165076243</v>
       </c>
       <c r="D427" t="n">
-        <v>89.61920967674418</v>
+        <v>92.89091604250078</v>
       </c>
     </row>
     <row r="428">
@@ -7285,10 +7285,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>120.1073182057626</v>
+        <v>475.907867983167</v>
       </c>
       <c r="D428" t="n">
-        <v>93.33988039945928</v>
+        <v>88.62783639990836</v>
       </c>
     </row>
     <row r="429">
@@ -7301,10 +7301,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>297.630652907569</v>
+        <v>147.4018500210331</v>
       </c>
       <c r="D429" t="n">
-        <v>85.4084933584389</v>
+        <v>81.72284631267534</v>
       </c>
     </row>
     <row r="430">
@@ -7317,10 +7317,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>372.8899311714276</v>
+        <v>452.5699746522234</v>
       </c>
       <c r="D430" t="n">
-        <v>90.49454773556845</v>
+        <v>87.58928097546304</v>
       </c>
     </row>
     <row r="431">
@@ -7333,10 +7333,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>333.3905775619683</v>
+        <v>178.4482764046513</v>
       </c>
       <c r="D431" t="n">
-        <v>93.14381704338352</v>
+        <v>78.40112203481905</v>
       </c>
     </row>
     <row r="432">
@@ -7349,10 +7349,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>379.2114628723283</v>
+        <v>426.2936750609692</v>
       </c>
       <c r="D432" t="n">
-        <v>88.92099467410985</v>
+        <v>81.17028728478785</v>
       </c>
     </row>
     <row r="433">
@@ -7365,10 +7365,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>350.203120506238</v>
+        <v>136.5575208303884</v>
       </c>
       <c r="D433" t="n">
-        <v>94.97850662930966</v>
+        <v>93.91438652524282</v>
       </c>
     </row>
     <row r="434">
@@ -7381,10 +7381,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>387.3648405540375</v>
+        <v>310.1245849427679</v>
       </c>
       <c r="D434" t="n">
-        <v>90.65584238591093</v>
+        <v>91.44824547419528</v>
       </c>
     </row>
     <row r="435">
@@ -7397,10 +7397,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>353.8508208228465</v>
+        <v>206.5616824812182</v>
       </c>
       <c r="D435" t="n">
-        <v>92.69944036394762</v>
+        <v>78.27458745832192</v>
       </c>
     </row>
     <row r="436">
@@ -7413,10 +7413,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>405.4362051687157</v>
+        <v>154.6352716557622</v>
       </c>
       <c r="D436" t="n">
-        <v>93.51863452618645</v>
+        <v>86.04817812767193</v>
       </c>
     </row>
     <row r="437">
@@ -7429,10 +7429,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>274.9079074798021</v>
+        <v>471.9098212119836</v>
       </c>
       <c r="D437" t="n">
-        <v>92.67281926259368</v>
+        <v>89.4123412295549</v>
       </c>
     </row>
     <row r="438">
@@ -7445,10 +7445,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>479.6821819016199</v>
+        <v>484.3350463047345</v>
       </c>
       <c r="D438" t="n">
-        <v>75.58648581199513</v>
+        <v>89.97137578915775</v>
       </c>
     </row>
     <row r="439">
@@ -7461,10 +7461,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>458.1263817811952</v>
+        <v>357.743745675362</v>
       </c>
       <c r="D439" t="n">
-        <v>83.5640767421679</v>
+        <v>84.48262489529276</v>
       </c>
     </row>
     <row r="440">
@@ -7477,10 +7477,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>187.2543312968706</v>
+        <v>360.4844008275172</v>
       </c>
       <c r="D440" t="n">
-        <v>84.38205799218503</v>
+        <v>79.92929268536123</v>
       </c>
     </row>
     <row r="441">
@@ -7493,10 +7493,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>477.5984169856627</v>
+        <v>480.0669379995336</v>
       </c>
       <c r="D441" t="n">
-        <v>84.10050095747567</v>
+        <v>78.04609429710344</v>
       </c>
     </row>
     <row r="442">
@@ -7509,10 +7509,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>414.9028755728051</v>
+        <v>277.0673872718348</v>
       </c>
       <c r="D442" t="n">
-        <v>79.49179256758545</v>
+        <v>93.90951123939723</v>
       </c>
     </row>
     <row r="443">
@@ -7525,10 +7525,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>272.960710183685</v>
+        <v>393.0303211848347</v>
       </c>
       <c r="D443" t="n">
-        <v>76.15357180643824</v>
+        <v>93.30761806001327</v>
       </c>
     </row>
     <row r="444">
@@ -7541,10 +7541,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>243.8124548485874</v>
+        <v>374.1091042518956</v>
       </c>
       <c r="D444" t="n">
-        <v>77.97791070491284</v>
+        <v>87.67659582054991</v>
       </c>
     </row>
     <row r="445">
@@ -7557,10 +7557,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>139.3081602524659</v>
+        <v>238.0678125337377</v>
       </c>
       <c r="D445" t="n">
-        <v>95.18293147230196</v>
+        <v>82.94807862631941</v>
       </c>
     </row>
     <row r="446">
@@ -7573,10 +7573,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>145.0666461689936</v>
+        <v>307.8159777732035</v>
       </c>
       <c r="D446" t="n">
-        <v>90.37475100343343</v>
+        <v>77.34670593689695</v>
       </c>
     </row>
     <row r="447">
@@ -7589,10 +7589,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>499.5024203638706</v>
+        <v>345.9436370915846</v>
       </c>
       <c r="D447" t="n">
-        <v>88.68542687859319</v>
+        <v>78.35851790122844</v>
       </c>
     </row>
     <row r="448">
@@ -7605,10 +7605,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>499.4238107214601</v>
+        <v>143.8295213460518</v>
       </c>
       <c r="D448" t="n">
-        <v>97.86808883621514</v>
+        <v>80.66619715660129</v>
       </c>
     </row>
     <row r="449">
@@ -7621,10 +7621,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>371.38813077492</v>
+        <v>168.417150704063</v>
       </c>
       <c r="D449" t="n">
-        <v>85.25091040349386</v>
+        <v>97.56862924838133</v>
       </c>
     </row>
     <row r="450">
@@ -7637,10 +7637,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>326.8238848857941</v>
+        <v>111.1873088576737</v>
       </c>
       <c r="D450" t="n">
-        <v>75.31319712433771</v>
+        <v>83.96442888778697</v>
       </c>
     </row>
     <row r="451">
@@ -7653,10 +7653,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>451.6714349479358</v>
+        <v>199.8557808570418</v>
       </c>
       <c r="D451" t="n">
-        <v>80.86990889207848</v>
+        <v>76.47970796842725</v>
       </c>
     </row>
     <row r="452">
@@ -7669,10 +7669,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>488.1825433831323</v>
+        <v>489.577997150818</v>
       </c>
       <c r="D452" t="n">
-        <v>84.03508437934359</v>
+        <v>90.50737019812959</v>
       </c>
     </row>
     <row r="453">
@@ -7685,10 +7685,10 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>300.6846608518915</v>
+        <v>369.9066652768653</v>
       </c>
       <c r="D453" t="n">
-        <v>84.85423337858333</v>
+        <v>78.98743565214778</v>
       </c>
     </row>
     <row r="454">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>429.3601936906921</v>
+        <v>183.627651135489</v>
       </c>
       <c r="D454" t="n">
-        <v>83.58084983090353</v>
+        <v>76.30458284087049</v>
       </c>
     </row>
     <row r="455">
@@ -7717,10 +7717,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>163.9409951494676</v>
+        <v>148.9609578917847</v>
       </c>
       <c r="D455" t="n">
-        <v>75.92808661175978</v>
+        <v>92.6930195763654</v>
       </c>
     </row>
     <row r="456">
@@ -7733,10 +7733,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>203.7156809066552</v>
+        <v>484.4251057154717</v>
       </c>
       <c r="D456" t="n">
-        <v>90.48622400854482</v>
+        <v>87.61237715442761</v>
       </c>
     </row>
     <row r="457">
@@ -7749,10 +7749,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>448.9922949583336</v>
+        <v>236.7501590128155</v>
       </c>
       <c r="D457" t="n">
-        <v>86.12475847076819</v>
+        <v>77.42978345943737</v>
       </c>
     </row>
     <row r="458">
@@ -7765,10 +7765,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>194.2732275562452</v>
+        <v>258.0642516582471</v>
       </c>
       <c r="D458" t="n">
-        <v>76.32059384318885</v>
+        <v>86.47785121377582</v>
       </c>
     </row>
     <row r="459">
@@ -7781,10 +7781,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>298.9729794692998</v>
+        <v>402.7822204203081</v>
       </c>
       <c r="D459" t="n">
-        <v>78.06009810499201</v>
+        <v>77.07295539833156</v>
       </c>
     </row>
     <row r="460">
@@ -7797,10 +7797,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>234.5838342614027</v>
+        <v>424.303421631305</v>
       </c>
       <c r="D460" t="n">
-        <v>79.66225883535468</v>
+        <v>84.2344155248218</v>
       </c>
     </row>
     <row r="461">
@@ -7813,10 +7813,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>313.7161746546131</v>
+        <v>279.048833857437</v>
       </c>
       <c r="D461" t="n">
-        <v>93.22455083744433</v>
+        <v>82.85135421227642</v>
       </c>
     </row>
     <row r="462">
@@ -7829,10 +7829,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>406.819898082776</v>
+        <v>281.241622255092</v>
       </c>
       <c r="D462" t="n">
-        <v>82.8388623275479</v>
+        <v>83.05482012264588</v>
       </c>
     </row>
     <row r="463">
@@ -7845,10 +7845,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>299.2592581945818</v>
+        <v>300.6849005936869</v>
       </c>
       <c r="D463" t="n">
-        <v>85.93761206623245</v>
+        <v>79.90549012853634</v>
       </c>
     </row>
     <row r="464">
@@ -7861,10 +7861,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>166.679083510133</v>
+        <v>297.1619338428711</v>
       </c>
       <c r="D464" t="n">
-        <v>81.45836969861161</v>
+        <v>95.82820577073142</v>
       </c>
     </row>
     <row r="465">
@@ -7877,10 +7877,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>382.5443017702382</v>
+        <v>140.5552119533258</v>
       </c>
       <c r="D465" t="n">
-        <v>91.67660464089226</v>
+        <v>94.71569604335151</v>
       </c>
     </row>
     <row r="466">
@@ -7893,10 +7893,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>331.5649284905821</v>
+        <v>405.9408755007848</v>
       </c>
       <c r="D466" t="n">
-        <v>80.27022260924031</v>
+        <v>94.16733818135461</v>
       </c>
     </row>
     <row r="467">
@@ -7909,10 +7909,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>270.6528348378446</v>
+        <v>483.1723519090675</v>
       </c>
       <c r="D467" t="n">
-        <v>91.3662187174163</v>
+        <v>97.89216382421759</v>
       </c>
     </row>
     <row r="468">
@@ -7925,10 +7925,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>297.587276710933</v>
+        <v>148.1913239181389</v>
       </c>
       <c r="D468" t="n">
-        <v>96.58949188565035</v>
+        <v>81.83090921777458</v>
       </c>
     </row>
     <row r="469">
@@ -7941,10 +7941,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>360.184304139038</v>
+        <v>257.3706141303055</v>
       </c>
       <c r="D469" t="n">
-        <v>75.38553290556635</v>
+        <v>91.41913587939044</v>
       </c>
     </row>
     <row r="470">
@@ -7957,10 +7957,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>109.300805094659</v>
+        <v>412.5760543542888</v>
       </c>
       <c r="D470" t="n">
-        <v>92.25330167180024</v>
+        <v>88.24747444961054</v>
       </c>
     </row>
     <row r="471">
@@ -7973,10 +7973,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>290.9444002265795</v>
+        <v>498.6509599408965</v>
       </c>
       <c r="D471" t="n">
-        <v>76.08868767504133</v>
+        <v>96.28196818300619</v>
       </c>
     </row>
     <row r="472">
@@ -7989,10 +7989,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>340.2325485633293</v>
+        <v>101.5984186333732</v>
       </c>
       <c r="D472" t="n">
-        <v>82.03507104838746</v>
+        <v>77.33997316562817</v>
       </c>
     </row>
     <row r="473">
@@ -8005,10 +8005,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>417.3461334169583</v>
+        <v>373.0442568888399</v>
       </c>
       <c r="D473" t="n">
-        <v>89.24523736250315</v>
+        <v>80.58233520307434</v>
       </c>
     </row>
     <row r="474">
@@ -8021,10 +8021,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>179.965529324961</v>
+        <v>106.4352888493916</v>
       </c>
       <c r="D474" t="n">
-        <v>89.29211960297545</v>
+        <v>75.16024075702299</v>
       </c>
     </row>
     <row r="475">
@@ -8037,10 +8037,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>374.2874384021357</v>
+        <v>231.843082839304</v>
       </c>
       <c r="D475" t="n">
-        <v>96.50700784877851</v>
+        <v>97.24131025338347</v>
       </c>
     </row>
     <row r="476">
@@ -8053,10 +8053,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>326.9548087470081</v>
+        <v>400.8133392798496</v>
       </c>
       <c r="D476" t="n">
-        <v>78.54283094294192</v>
+        <v>83.83979773730519</v>
       </c>
     </row>
     <row r="477">
@@ -8069,10 +8069,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>275.6951164436988</v>
+        <v>199.9085489224995</v>
       </c>
       <c r="D477" t="n">
-        <v>83.84223078397004</v>
+        <v>96.61809279993531</v>
       </c>
     </row>
     <row r="478">
@@ -8085,10 +8085,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>255.6348560934157</v>
+        <v>408.8709964379289</v>
       </c>
       <c r="D478" t="n">
-        <v>91.18514964095326</v>
+        <v>88.93426502194649</v>
       </c>
     </row>
     <row r="479">
@@ -8101,10 +8101,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>481.980423842889</v>
+        <v>450.3570851357406</v>
       </c>
       <c r="D479" t="n">
-        <v>79.59264786501771</v>
+        <v>90.16547735861526</v>
       </c>
     </row>
     <row r="480">
@@ -8117,10 +8117,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>152.8812686906261</v>
+        <v>175.8113387252837</v>
       </c>
       <c r="D480" t="n">
-        <v>87.56991908852042</v>
+        <v>87.1046266250887</v>
       </c>
     </row>
     <row r="481">
@@ -8133,10 +8133,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>494.4714918557215</v>
+        <v>333.1956373495356</v>
       </c>
       <c r="D481" t="n">
-        <v>87.0815720159561</v>
+        <v>84.85560715791408</v>
       </c>
     </row>
     <row r="482">
@@ -8149,10 +8149,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>260.9886598653704</v>
+        <v>251.3353760584613</v>
       </c>
       <c r="D482" t="n">
-        <v>94.722577314433</v>
+        <v>93.78811113125853</v>
       </c>
     </row>
     <row r="483">
@@ -8165,10 +8165,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>284.7465177647744</v>
+        <v>206.3780604491357</v>
       </c>
       <c r="D483" t="n">
-        <v>85.06281417973597</v>
+        <v>75.71884949318252</v>
       </c>
     </row>
     <row r="484">
@@ -8181,10 +8181,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>314.5850074548259</v>
+        <v>144.133054888645</v>
       </c>
       <c r="D484" t="n">
-        <v>93.26219198320339</v>
+        <v>80.57187348302747</v>
       </c>
     </row>
     <row r="485">
@@ -8197,10 +8197,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>131.0073341816726</v>
+        <v>458.8298080353467</v>
       </c>
       <c r="D485" t="n">
-        <v>94.57571516799121</v>
+        <v>91.80998255912347</v>
       </c>
     </row>
     <row r="486">
@@ -8213,10 +8213,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>138.3906740394448</v>
+        <v>290.7464862253663</v>
       </c>
       <c r="D486" t="n">
-        <v>87.87573621808693</v>
+        <v>85.15780401732529</v>
       </c>
     </row>
     <row r="487">
@@ -8229,10 +8229,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>269.7087683095543</v>
+        <v>234.6612473417701</v>
       </c>
       <c r="D487" t="n">
-        <v>75.84628321548807</v>
+        <v>93.91536490538425</v>
       </c>
     </row>
     <row r="488">
@@ -8245,10 +8245,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>358.0625087093991</v>
+        <v>185.8432946941442</v>
       </c>
       <c r="D488" t="n">
-        <v>77.92648338636533</v>
+        <v>84.39794149809403</v>
       </c>
     </row>
     <row r="489">
@@ -8261,10 +8261,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>489.490061285479</v>
+        <v>284.0051991190328</v>
       </c>
       <c r="D489" t="n">
-        <v>82.39309820217727</v>
+        <v>77.78025052198419</v>
       </c>
     </row>
     <row r="490">
@@ -8277,10 +8277,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>174.0235552561617</v>
+        <v>440.0990267631817</v>
       </c>
       <c r="D490" t="n">
-        <v>75.91046132466104</v>
+        <v>76.49606010646529</v>
       </c>
     </row>
     <row r="491">
@@ -8293,10 +8293,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>304.590785820026</v>
+        <v>197.4896771434476</v>
       </c>
       <c r="D491" t="n">
-        <v>83.73430669349609</v>
+        <v>75.42567750841728</v>
       </c>
     </row>
     <row r="492">
@@ -8309,10 +8309,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>301.5387939956194</v>
+        <v>323.6931126694886</v>
       </c>
       <c r="D492" t="n">
-        <v>90.64795649706531</v>
+        <v>92.58198933008458</v>
       </c>
     </row>
     <row r="493">
@@ -8325,10 +8325,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>212.93880761971</v>
+        <v>352.8461181939647</v>
       </c>
       <c r="D493" t="n">
-        <v>85.43172747467695</v>
+        <v>96.18333922327587</v>
       </c>
     </row>
     <row r="494">
@@ -8341,10 +8341,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>273.9670990233337</v>
+        <v>170.2935357962107</v>
       </c>
       <c r="D494" t="n">
-        <v>91.51951954799335</v>
+        <v>82.95669155294237</v>
       </c>
     </row>
     <row r="495">
@@ -8357,10 +8357,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>499.1900250841996</v>
+        <v>270.8491503444676</v>
       </c>
       <c r="D495" t="n">
-        <v>79.11521135603624</v>
+        <v>88.40661901073726</v>
       </c>
     </row>
     <row r="496">
@@ -8373,10 +8373,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>471.2707663169558</v>
+        <v>492.5706776217397</v>
       </c>
       <c r="D496" t="n">
-        <v>91.36664506503645</v>
+        <v>77.73349516197881</v>
       </c>
     </row>
     <row r="497">
@@ -8389,10 +8389,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>102.8565061901728</v>
+        <v>153.9789568298734</v>
       </c>
       <c r="D497" t="n">
-        <v>81.23237791045285</v>
+        <v>87.33491931956003</v>
       </c>
     </row>
     <row r="498">
@@ -8405,10 +8405,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>459.7336332282998</v>
+        <v>453.1874405297518</v>
       </c>
       <c r="D498" t="n">
-        <v>97.81463748130911</v>
+        <v>83.33961070389805</v>
       </c>
     </row>
     <row r="499">
@@ -8421,10 +8421,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>287.3779759029874</v>
+        <v>244.9323047220084</v>
       </c>
       <c r="D499" t="n">
-        <v>82.2781535512095</v>
+        <v>79.79033637317578</v>
       </c>
     </row>
     <row r="500">
@@ -8437,10 +8437,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>203.4070557686827</v>
+        <v>251.8799106236171</v>
       </c>
       <c r="D500" t="n">
-        <v>93.90947780403989</v>
+        <v>90.05892457769133</v>
       </c>
     </row>
     <row r="501">
@@ -8453,10 +8453,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>164.2801337273447</v>
+        <v>251.8504091808152</v>
       </c>
       <c r="D501" t="n">
-        <v>77.75309777524851</v>
+        <v>88.6408054087604</v>
       </c>
     </row>
     <row r="502">
@@ -8469,10 +8469,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>245.9370054649842</v>
+        <v>326.530948181348</v>
       </c>
       <c r="D502" t="n">
-        <v>83.89777005631915</v>
+        <v>81.34738703668502</v>
       </c>
     </row>
     <row r="503">
@@ -8485,10 +8485,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>455.3543227355345</v>
+        <v>286.0349132235589</v>
       </c>
       <c r="D503" t="n">
-        <v>90.44036151931388</v>
+        <v>75.64881977486945</v>
       </c>
     </row>
     <row r="504">
@@ -8501,10 +8501,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>106.5074883379833</v>
+        <v>407.7204433169386</v>
       </c>
       <c r="D504" t="n">
-        <v>88.21635295715843</v>
+        <v>96.98500830271534</v>
       </c>
     </row>
     <row r="505">
@@ -8517,10 +8517,10 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>267.7570149290863</v>
+        <v>309.914631193383</v>
       </c>
       <c r="D505" t="n">
-        <v>76.26151474721165</v>
+        <v>97.56699859320491</v>
       </c>
     </row>
     <row r="506">
@@ -8533,10 +8533,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>446.3622648695386</v>
+        <v>485.8579222510724</v>
       </c>
       <c r="D506" t="n">
-        <v>79.51348530336507</v>
+        <v>90.24262502409664</v>
       </c>
     </row>
     <row r="507">
@@ -8549,10 +8549,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>245.5724177899878</v>
+        <v>483.8654609261084</v>
       </c>
       <c r="D507" t="n">
-        <v>95.3382680537355</v>
+        <v>97.5562998526232</v>
       </c>
     </row>
     <row r="508">
@@ -8565,10 +8565,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>235.4909407752086</v>
+        <v>223.885807203086</v>
       </c>
       <c r="D508" t="n">
-        <v>95.37736691585282</v>
+        <v>87.29258636125172</v>
       </c>
     </row>
     <row r="509">
@@ -8581,10 +8581,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>314.0098396885973</v>
+        <v>468.4768060467271</v>
       </c>
       <c r="D509" t="n">
-        <v>91.25765382224097</v>
+        <v>81.59337514142044</v>
       </c>
     </row>
     <row r="510">
@@ -8597,10 +8597,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>361.8393362512984</v>
+        <v>327.8687727098454</v>
       </c>
       <c r="D510" t="n">
-        <v>92.12499734451465</v>
+        <v>94.71173171086421</v>
       </c>
     </row>
     <row r="511">
@@ -8613,10 +8613,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>154.9125195789535</v>
+        <v>273.3080446636103</v>
       </c>
       <c r="D511" t="n">
-        <v>91.99121778366873</v>
+        <v>88.54887399005679</v>
       </c>
     </row>
     <row r="512">
@@ -8629,10 +8629,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>161.3069782346899</v>
+        <v>289.1680755601068</v>
       </c>
       <c r="D512" t="n">
-        <v>97.06379185062015</v>
+        <v>82.58949980121119</v>
       </c>
     </row>
     <row r="513">
@@ -8645,10 +8645,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>454.5091067892781</v>
+        <v>450.905031138014</v>
       </c>
       <c r="D513" t="n">
-        <v>97.41892387481599</v>
+        <v>86.3014932853219</v>
       </c>
     </row>
     <row r="514">
@@ -8661,10 +8661,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>265.8552526210794</v>
+        <v>253.3586232837993</v>
       </c>
       <c r="D514" t="n">
-        <v>96.61504798111039</v>
+        <v>78.74499179365812</v>
       </c>
     </row>
     <row r="515">
@@ -8677,10 +8677,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>229.0961407786681</v>
+        <v>135.9903940928072</v>
       </c>
       <c r="D515" t="n">
-        <v>79.72831038272612</v>
+        <v>91.85878931578853</v>
       </c>
     </row>
     <row r="516">
@@ -8693,10 +8693,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>494.8550271553583</v>
+        <v>147.8116221244356</v>
       </c>
       <c r="D516" t="n">
-        <v>88.70352776750364</v>
+        <v>90.83618828874209</v>
       </c>
     </row>
     <row r="517">
@@ -8709,10 +8709,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>475.0995132510335</v>
+        <v>431.3180374728868</v>
       </c>
       <c r="D517" t="n">
-        <v>76.91021378563143</v>
+        <v>95.11735145272357</v>
       </c>
     </row>
     <row r="518">
@@ -8725,10 +8725,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>288.1818412864185</v>
+        <v>426.9400814385925</v>
       </c>
       <c r="D518" t="n">
-        <v>82.3595409366273</v>
+        <v>93.25758419875388</v>
       </c>
     </row>
     <row r="519">
@@ -8741,10 +8741,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>205.004268645275</v>
+        <v>127.5890628392905</v>
       </c>
       <c r="D519" t="n">
-        <v>89.48317967200141</v>
+        <v>83.25258586102295</v>
       </c>
     </row>
     <row r="520">
@@ -8757,10 +8757,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>484.8340227436781</v>
+        <v>397.0577489775533</v>
       </c>
       <c r="D520" t="n">
-        <v>95.39797576649468</v>
+        <v>82.25068320006329</v>
       </c>
     </row>
     <row r="521">
@@ -8773,10 +8773,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>486.6388529706971</v>
+        <v>398.5958107028289</v>
       </c>
       <c r="D521" t="n">
-        <v>82.89261825669708</v>
+        <v>89.26781803888521</v>
       </c>
     </row>
     <row r="522">
@@ -8789,10 +8789,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>168.9645201342916</v>
+        <v>443.2583226208674</v>
       </c>
       <c r="D522" t="n">
-        <v>85.99332174299745</v>
+        <v>77.22089886727244</v>
       </c>
     </row>
     <row r="523">
@@ -8805,10 +8805,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>224.1895911289439</v>
+        <v>470.7811750025053</v>
       </c>
       <c r="D523" t="n">
-        <v>84.49929833328909</v>
+        <v>87.68032541329858</v>
       </c>
     </row>
     <row r="524">
@@ -8821,10 +8821,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>421.7969525840826</v>
+        <v>271.1449777986837</v>
       </c>
       <c r="D524" t="n">
-        <v>96.08121555394904</v>
+        <v>90.05774105374944</v>
       </c>
     </row>
     <row r="525">
@@ -8837,10 +8837,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>374.8617047817551</v>
+        <v>291.9691376221756</v>
       </c>
       <c r="D525" t="n">
-        <v>86.42286696598035</v>
+        <v>81.42751555254243</v>
       </c>
     </row>
     <row r="526">
@@ -8853,10 +8853,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>178.1686388486967</v>
+        <v>364.2200986218598</v>
       </c>
       <c r="D526" t="n">
-        <v>82.67531353124048</v>
+        <v>84.62729431523302</v>
       </c>
     </row>
     <row r="527">
@@ -8869,10 +8869,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>415.5297385586403</v>
+        <v>125.0872532362039</v>
       </c>
       <c r="D527" t="n">
-        <v>83.38584090307954</v>
+        <v>97.46443699188339</v>
       </c>
     </row>
     <row r="528">
@@ -8885,10 +8885,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>144.543747921565</v>
+        <v>154.2542794927875</v>
       </c>
       <c r="D528" t="n">
-        <v>82.15074058514575</v>
+        <v>78.09754624981973</v>
       </c>
     </row>
     <row r="529">
@@ -8901,10 +8901,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>488.4199796006251</v>
+        <v>359.0575559699485</v>
       </c>
       <c r="D529" t="n">
-        <v>86.60263228812077</v>
+        <v>87.07695004069251</v>
       </c>
     </row>
     <row r="530">
@@ -8917,10 +8917,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>247.3313697357906</v>
+        <v>322.3336317065643</v>
       </c>
       <c r="D530" t="n">
-        <v>81.35443248549255</v>
+        <v>82.11143683200893</v>
       </c>
     </row>
     <row r="531">
@@ -8933,10 +8933,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>293.4904490195107</v>
+        <v>452.6815654345447</v>
       </c>
       <c r="D531" t="n">
-        <v>75.82798910954352</v>
+        <v>78.35741461072648</v>
       </c>
     </row>
     <row r="532">
@@ -8949,10 +8949,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>383.4425462181815</v>
+        <v>190.2557379292673</v>
       </c>
       <c r="D532" t="n">
-        <v>91.59392547341741</v>
+        <v>85.91496652946508</v>
       </c>
     </row>
     <row r="533">
@@ -8965,10 +8965,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>181.3910429939274</v>
+        <v>369.7341827697074</v>
       </c>
       <c r="D533" t="n">
-        <v>93.98186614687283</v>
+        <v>79.32273570003252</v>
       </c>
     </row>
     <row r="534">
@@ -8981,10 +8981,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>433.6485314472284</v>
+        <v>224.9661132338043</v>
       </c>
       <c r="D534" t="n">
-        <v>79.18518321252951</v>
+        <v>89.19371093039254</v>
       </c>
     </row>
     <row r="535">
@@ -8997,10 +8997,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>235.8284313064177</v>
+        <v>263.5361420864949</v>
       </c>
       <c r="D535" t="n">
-        <v>86.48695718527978</v>
+        <v>79.0806692300357</v>
       </c>
     </row>
     <row r="536">
@@ -9013,10 +9013,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>311.7688929750465</v>
+        <v>388.3725806174986</v>
       </c>
       <c r="D536" t="n">
-        <v>88.71229723068589</v>
+        <v>94.6415891457589</v>
       </c>
     </row>
     <row r="537">
@@ -9029,10 +9029,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>128.2241415528667</v>
+        <v>310.186249013903</v>
       </c>
       <c r="D537" t="n">
-        <v>76.30814106237288</v>
+        <v>90.99695723868109</v>
       </c>
     </row>
     <row r="538">
@@ -9045,10 +9045,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>332.6779913535963</v>
+        <v>412.0318180653053</v>
       </c>
       <c r="D538" t="n">
-        <v>88.84359084439315</v>
+        <v>85.23285402350422</v>
       </c>
     </row>
     <row r="539">
@@ -9061,10 +9061,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>426.6148965441798</v>
+        <v>176.6257140864479</v>
       </c>
       <c r="D539" t="n">
-        <v>94.47862740182077</v>
+        <v>79.98597935008299</v>
       </c>
     </row>
     <row r="540">
@@ -9077,10 +9077,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>324.0202463309022</v>
+        <v>145.4832258528387</v>
       </c>
       <c r="D540" t="n">
-        <v>90.67160839223661</v>
+        <v>80.0064228906888</v>
       </c>
     </row>
     <row r="541">
@@ -9093,10 +9093,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>129.2707410639817</v>
+        <v>355.5079691004922</v>
       </c>
       <c r="D541" t="n">
-        <v>90.29119808940175</v>
+        <v>81.9304256068995</v>
       </c>
     </row>
     <row r="542">
@@ -9109,10 +9109,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>328.4284075590023</v>
+        <v>107.3153946310556</v>
       </c>
       <c r="D542" t="n">
-        <v>81.66882162876431</v>
+        <v>82.69482433845961</v>
       </c>
     </row>
     <row r="543">
@@ -9125,10 +9125,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>399.4801356846029</v>
+        <v>411.2381147296791</v>
       </c>
       <c r="D543" t="n">
-        <v>85.14771708858609</v>
+        <v>82.04869252727686</v>
       </c>
     </row>
     <row r="544">
@@ -9141,10 +9141,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>279.6274306964114</v>
+        <v>344.4677795976663</v>
       </c>
       <c r="D544" t="n">
-        <v>94.11696038015141</v>
+        <v>93.34776640193704</v>
       </c>
     </row>
     <row r="545">
@@ -9157,10 +9157,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>316.7559753853665</v>
+        <v>108.1233575160987</v>
       </c>
       <c r="D545" t="n">
-        <v>81.78079573716181</v>
+        <v>86.15869954806907</v>
       </c>
     </row>
     <row r="546">
@@ -9173,10 +9173,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>367.4190252317489</v>
+        <v>324.9522755625294</v>
       </c>
       <c r="D546" t="n">
-        <v>96.3982719602804</v>
+        <v>75.43284438234211</v>
       </c>
     </row>
     <row r="547">
@@ -9189,10 +9189,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>495.1492301247883</v>
+        <v>404.746975410476</v>
       </c>
       <c r="D547" t="n">
-        <v>81.30744539123909</v>
+        <v>77.85298573943932</v>
       </c>
     </row>
     <row r="548">
@@ -9205,10 +9205,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>482.6923456610295</v>
+        <v>132.9606098410012</v>
       </c>
       <c r="D548" t="n">
-        <v>88.65576021854474</v>
+        <v>97.27750072902822</v>
       </c>
     </row>
     <row r="549">
@@ -9221,10 +9221,10 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>140.025612263799</v>
+        <v>322.7916197952145</v>
       </c>
       <c r="D549" t="n">
-        <v>76.4048546914651</v>
+        <v>79.99251670699721</v>
       </c>
     </row>
     <row r="550">
@@ -9237,10 +9237,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>438.7274393423314</v>
+        <v>190.544564404618</v>
       </c>
       <c r="D550" t="n">
-        <v>85.01305215070883</v>
+        <v>79.10538392686293</v>
       </c>
     </row>
     <row r="551">
@@ -9253,10 +9253,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>280.6396093306519</v>
+        <v>477.3312872905655</v>
       </c>
       <c r="D551" t="n">
-        <v>80.01011263073512</v>
+        <v>91.20738678939119</v>
       </c>
     </row>
     <row r="552">
@@ -9269,10 +9269,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>261.1118757600627</v>
+        <v>156.3702352851456</v>
       </c>
       <c r="D552" t="n">
-        <v>86.9747483175147</v>
+        <v>89.58023235199929</v>
       </c>
     </row>
     <row r="553">
@@ -9285,10 +9285,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>448.9705232634803</v>
+        <v>357.2597180381002</v>
       </c>
       <c r="D553" t="n">
-        <v>93.152735748152</v>
+        <v>94.5008452852132</v>
       </c>
     </row>
     <row r="554">
@@ -9301,10 +9301,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>313.3345263835606</v>
+        <v>204.7397531408587</v>
       </c>
       <c r="D554" t="n">
-        <v>88.13684171471444</v>
+        <v>86.22693469805279</v>
       </c>
     </row>
     <row r="555">
@@ -9317,10 +9317,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>285.8144423253552</v>
+        <v>436.3773903607</v>
       </c>
       <c r="D555" t="n">
-        <v>85.68589981526318</v>
+        <v>84.76590450069435</v>
       </c>
     </row>
     <row r="556">
@@ -9333,10 +9333,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>370.3030496334918</v>
+        <v>457.5027271870595</v>
       </c>
       <c r="D556" t="n">
-        <v>81.66601610362912</v>
+        <v>89.66489433843404</v>
       </c>
     </row>
     <row r="557">
@@ -9349,10 +9349,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>306.643586145681</v>
+        <v>223.3571864835472</v>
       </c>
       <c r="D557" t="n">
-        <v>79.01306137367004</v>
+        <v>93.86096857516642</v>
       </c>
     </row>
     <row r="558">
@@ -9365,10 +9365,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>151.5486051158097</v>
+        <v>388.6305537002028</v>
       </c>
       <c r="D558" t="n">
-        <v>97.81475173867763</v>
+        <v>76.58310011256007</v>
       </c>
     </row>
     <row r="559">
@@ -9381,10 +9381,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>486.9260731714489</v>
+        <v>377.0579006269589</v>
       </c>
       <c r="D559" t="n">
-        <v>95.69264260928051</v>
+        <v>89.14396571119262</v>
       </c>
     </row>
     <row r="560">
@@ -9397,10 +9397,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>428.4634554717601</v>
+        <v>434.9375530722111</v>
       </c>
       <c r="D560" t="n">
-        <v>86.91650051521837</v>
+        <v>94.09127425085649</v>
       </c>
     </row>
     <row r="561">
@@ -9413,10 +9413,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>484.1926500602988</v>
+        <v>272.9221826618362</v>
       </c>
       <c r="D561" t="n">
-        <v>77.62032274715318</v>
+        <v>76.04499394920978</v>
       </c>
     </row>
     <row r="562">
@@ -9429,10 +9429,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>465.6490517817301</v>
+        <v>234.57982410233</v>
       </c>
       <c r="D562" t="n">
-        <v>81.41066162796054</v>
+        <v>82.69599278533582</v>
       </c>
     </row>
     <row r="563">
@@ -9445,10 +9445,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>366.1530598960433</v>
+        <v>428.6879064905438</v>
       </c>
       <c r="D563" t="n">
-        <v>78.94066541593416</v>
+        <v>96.05711276275821</v>
       </c>
     </row>
     <row r="564">
@@ -9461,10 +9461,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>165.0447888890959</v>
+        <v>185.1416963590102</v>
       </c>
       <c r="D564" t="n">
-        <v>76.42862955689471</v>
+        <v>97.44491283533419</v>
       </c>
     </row>
     <row r="565">
@@ -9477,10 +9477,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>107.7053412532834</v>
+        <v>395.7303483577426</v>
       </c>
       <c r="D565" t="n">
-        <v>81.03691180234576</v>
+        <v>82.63242596297597</v>
       </c>
     </row>
     <row r="566">
@@ -9493,10 +9493,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>120.7973095589155</v>
+        <v>448.5228723387553</v>
       </c>
       <c r="D566" t="n">
-        <v>76.47023430403026</v>
+        <v>81.27411751401392</v>
       </c>
     </row>
     <row r="567">
@@ -9509,10 +9509,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>120.4133608687338</v>
+        <v>325.0127993051139</v>
       </c>
       <c r="D567" t="n">
-        <v>87.0729626679251</v>
+        <v>83.32376224195075</v>
       </c>
     </row>
     <row r="568">
@@ -9525,10 +9525,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>177.6938086508587</v>
+        <v>323.7449821078081</v>
       </c>
       <c r="D568" t="n">
-        <v>89.4260737074091</v>
+        <v>93.18906807864093</v>
       </c>
     </row>
     <row r="569">
@@ -9541,10 +9541,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>344.3808704037549</v>
+        <v>101.5008202306208</v>
       </c>
       <c r="D569" t="n">
-        <v>75.32755561812529</v>
+        <v>89.51918982457083</v>
       </c>
     </row>
     <row r="570">
@@ -9557,10 +9557,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>301.3576470553985</v>
+        <v>426.2594366484705</v>
       </c>
       <c r="D570" t="n">
-        <v>89.7211968161284</v>
+        <v>91.97863617414838</v>
       </c>
     </row>
     <row r="571">
@@ -9573,10 +9573,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>410.1546908810458</v>
+        <v>260.6075229299734</v>
       </c>
       <c r="D571" t="n">
-        <v>90.29771675647882</v>
+        <v>84.53058810026273</v>
       </c>
     </row>
     <row r="572">
@@ -9589,10 +9589,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>371.0710834257716</v>
+        <v>233.8069486931774</v>
       </c>
       <c r="D572" t="n">
-        <v>88.15824350690656</v>
+        <v>97.66276800196013</v>
       </c>
     </row>
     <row r="573">
@@ -9605,10 +9605,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>305.6266089378287</v>
+        <v>139.4336413556588</v>
       </c>
       <c r="D573" t="n">
-        <v>85.94954802778244</v>
+        <v>81.363728909043</v>
       </c>
     </row>
     <row r="574">
@@ -9621,10 +9621,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>345.7405321913664</v>
+        <v>367.5859947417693</v>
       </c>
       <c r="D574" t="n">
-        <v>94.75729980294776</v>
+        <v>76.97282866121071</v>
       </c>
     </row>
     <row r="575">
@@ -9637,10 +9637,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>495.0888762113062</v>
+        <v>417.0662632729944</v>
       </c>
       <c r="D575" t="n">
-        <v>75.17577272608746</v>
+        <v>85.73381565717703</v>
       </c>
     </row>
     <row r="576">
@@ -9653,10 +9653,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>109.0198743230372</v>
+        <v>144.0205257741893</v>
       </c>
       <c r="D576" t="n">
-        <v>97.56689709979612</v>
+        <v>93.11078751542635</v>
       </c>
     </row>
     <row r="577">
@@ -9669,10 +9669,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>380.1937330414243</v>
+        <v>429.5587598753113</v>
       </c>
       <c r="D577" t="n">
-        <v>95.70098248980095</v>
+        <v>97.85996991362191</v>
       </c>
     </row>
     <row r="578">
@@ -9685,10 +9685,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>495.401720271308</v>
+        <v>467.8571798525051</v>
       </c>
       <c r="D578" t="n">
-        <v>94.3607918738179</v>
+        <v>88.19112097217179</v>
       </c>
     </row>
     <row r="579">
@@ -9701,10 +9701,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>466.9402536792433</v>
+        <v>422.3634164122479</v>
       </c>
       <c r="D579" t="n">
-        <v>80.01217970782253</v>
+        <v>76.80210662422404</v>
       </c>
     </row>
     <row r="580">
@@ -9717,10 +9717,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>104.7193421857632</v>
+        <v>313.1704462828433</v>
       </c>
       <c r="D580" t="n">
-        <v>93.45113358573346</v>
+        <v>80.74263270719484</v>
       </c>
     </row>
     <row r="581">
@@ -9733,10 +9733,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>189.5604059393104</v>
+        <v>217.0509196563629</v>
       </c>
       <c r="D581" t="n">
-        <v>82.53373904675507</v>
+        <v>80.65154708095466</v>
       </c>
     </row>
     <row r="582">
@@ -9749,10 +9749,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>125.8916402576772</v>
+        <v>279.5216708027956</v>
       </c>
       <c r="D582" t="n">
-        <v>82.46472086549558</v>
+        <v>85.34293160299211</v>
       </c>
     </row>
     <row r="583">
@@ -9765,10 +9765,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>268.9782476679701</v>
+        <v>478.2199931409085</v>
       </c>
       <c r="D583" t="n">
-        <v>77.59779827744205</v>
+        <v>83.28663510406805</v>
       </c>
     </row>
     <row r="584">
@@ -9781,10 +9781,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>255.279798897497</v>
+        <v>149.0549897820275</v>
       </c>
       <c r="D584" t="n">
-        <v>83.15097365652385</v>
+        <v>96.10573947587287</v>
       </c>
     </row>
     <row r="585">
@@ -9797,10 +9797,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>131.1412413171848</v>
+        <v>138.9777984116807</v>
       </c>
       <c r="D585" t="n">
-        <v>90.68008382182428</v>
+        <v>85.97921647581981</v>
       </c>
     </row>
     <row r="586">
@@ -9813,10 +9813,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>395.6193384206349</v>
+        <v>167.229848853662</v>
       </c>
       <c r="D586" t="n">
-        <v>75.75917623992162</v>
+        <v>78.89002247406695</v>
       </c>
     </row>
     <row r="587">
@@ -9829,10 +9829,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>484.0161340863287</v>
+        <v>482.0389593381651</v>
       </c>
       <c r="D587" t="n">
-        <v>83.90722832052688</v>
+        <v>81.84168071032673</v>
       </c>
     </row>
     <row r="588">
@@ -9845,10 +9845,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>448.7653093726938</v>
+        <v>485.4711667224137</v>
       </c>
       <c r="D588" t="n">
-        <v>77.8758349438355</v>
+        <v>76.41719879539619</v>
       </c>
     </row>
     <row r="589">
@@ -9861,10 +9861,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>414.4017002281847</v>
+        <v>377.2249528257867</v>
       </c>
       <c r="D589" t="n">
-        <v>94.85683189435896</v>
+        <v>89.18372304931988</v>
       </c>
     </row>
     <row r="590">
@@ -9877,10 +9877,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>299.9260474662572</v>
+        <v>215.706094136103</v>
       </c>
       <c r="D590" t="n">
-        <v>88.28650744794244</v>
+        <v>86.80430270100658</v>
       </c>
     </row>
     <row r="591">
@@ -9893,10 +9893,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>354.5431619601067</v>
+        <v>180.7561812852355</v>
       </c>
       <c r="D591" t="n">
-        <v>76.57135789422237</v>
+        <v>95.88283330172116</v>
       </c>
     </row>
     <row r="592">
@@ -9909,10 +9909,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>369.2474973057494</v>
+        <v>272.6743198825454</v>
       </c>
       <c r="D592" t="n">
-        <v>82.58740639949946</v>
+        <v>85.92369686031027</v>
       </c>
     </row>
     <row r="593">
@@ -9925,10 +9925,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>121.934605998154</v>
+        <v>487.5640533478338</v>
       </c>
       <c r="D593" t="n">
-        <v>86.87098445799961</v>
+        <v>84.3423389109208</v>
       </c>
     </row>
     <row r="594">
@@ -9941,10 +9941,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>193.3545423791732</v>
+        <v>210.0508564579725</v>
       </c>
       <c r="D594" t="n">
-        <v>91.17494915547556</v>
+        <v>96.24759309355416</v>
       </c>
     </row>
     <row r="595">
@@ -9957,10 +9957,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>354.9834273955519</v>
+        <v>377.214821291843</v>
       </c>
       <c r="D595" t="n">
-        <v>92.4742774572445</v>
+        <v>91.12791345870987</v>
       </c>
     </row>
     <row r="596">
@@ -9973,10 +9973,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>233.5684333459096</v>
+        <v>110.4846175748362</v>
       </c>
       <c r="D596" t="n">
-        <v>79.87125965599085</v>
+        <v>83.34782479043496</v>
       </c>
     </row>
     <row r="597">
@@ -9989,10 +9989,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>469.2332016130015</v>
+        <v>381.2046116894683</v>
       </c>
       <c r="D597" t="n">
-        <v>92.02031218247308</v>
+        <v>92.76133180791051</v>
       </c>
     </row>
     <row r="598">
@@ -10005,10 +10005,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>417.3319733243891</v>
+        <v>285.4056750635058</v>
       </c>
       <c r="D598" t="n">
-        <v>95.15024271064776</v>
+        <v>75.80504372828531</v>
       </c>
     </row>
     <row r="599">
@@ -10021,10 +10021,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>446.2715925313595</v>
+        <v>200.4502141372926</v>
       </c>
       <c r="D599" t="n">
-        <v>79.78780463654203</v>
+        <v>86.11224742489772</v>
       </c>
     </row>
     <row r="600">
@@ -10037,10 +10037,10 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>348.9527712819672</v>
+        <v>135.8084299239461</v>
       </c>
       <c r="D600" t="n">
-        <v>94.98914568035808</v>
+        <v>88.97696581470184</v>
       </c>
     </row>
     <row r="601">
@@ -10053,10 +10053,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>276.3361602096664</v>
+        <v>212.4677759109875</v>
       </c>
       <c r="D601" t="n">
-        <v>90.3086153479376</v>
+        <v>96.30992895818247</v>
       </c>
     </row>
     <row r="602">
@@ -10069,10 +10069,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>326.6920688178095</v>
+        <v>327.9273274764886</v>
       </c>
       <c r="D602" t="n">
-        <v>91.33062685641025</v>
+        <v>85.25562096708843</v>
       </c>
     </row>
     <row r="603">
@@ -10085,10 +10085,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>186.6604286315793</v>
+        <v>314.8613384218427</v>
       </c>
       <c r="D603" t="n">
-        <v>79.56085652717225</v>
+        <v>75.94860037858135</v>
       </c>
     </row>
     <row r="604">
@@ -10101,10 +10101,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>383.7940127415453</v>
+        <v>259.2248162589744</v>
       </c>
       <c r="D604" t="n">
-        <v>90.641176511738</v>
+        <v>95.85083666418018</v>
       </c>
     </row>
     <row r="605">
@@ -10117,10 +10117,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>213.4683661242121</v>
+        <v>475.0281819019748</v>
       </c>
       <c r="D605" t="n">
-        <v>76.55273342678144</v>
+        <v>75.64237589542719</v>
       </c>
     </row>
     <row r="606">
@@ -10133,10 +10133,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>221.860697598182</v>
+        <v>310.1846256933896</v>
       </c>
       <c r="D606" t="n">
-        <v>75.63834558405472</v>
+        <v>96.60928917084729</v>
       </c>
     </row>
     <row r="607">
@@ -10149,10 +10149,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>488.9278092169351</v>
+        <v>212.6131303662176</v>
       </c>
       <c r="D607" t="n">
-        <v>88.60715321066701</v>
+        <v>84.4333890284381</v>
       </c>
     </row>
     <row r="608">
@@ -10165,10 +10165,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>475.6735250383749</v>
+        <v>427.0001353915524</v>
       </c>
       <c r="D608" t="n">
-        <v>75.51707623761503</v>
+        <v>82.01459170573685</v>
       </c>
     </row>
     <row r="609">
@@ -10181,10 +10181,10 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>255.1226933703546</v>
+        <v>189.4680199271431</v>
       </c>
       <c r="D609" t="n">
-        <v>91.83244692055021</v>
+        <v>76.10030403765093</v>
       </c>
     </row>
     <row r="610">
@@ -10197,10 +10197,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>280.6213322041331</v>
+        <v>403.5914566673034</v>
       </c>
       <c r="D610" t="n">
-        <v>78.03013056934888</v>
+        <v>80.22436450384828</v>
       </c>
     </row>
     <row r="611">
@@ -10213,10 +10213,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>484.8761940967551</v>
+        <v>400.9540421019541</v>
       </c>
       <c r="D611" t="n">
-        <v>85.1311535477668</v>
+        <v>95.06412126461092</v>
       </c>
     </row>
     <row r="612">
@@ -10229,10 +10229,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>201.951684868618</v>
+        <v>380.9546645226739</v>
       </c>
       <c r="D612" t="n">
-        <v>81.4676313938438</v>
+        <v>93.28308995258323</v>
       </c>
     </row>
     <row r="613">
@@ -10245,10 +10245,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>225.3548934822529</v>
+        <v>234.5116202480496</v>
       </c>
       <c r="D613" t="n">
-        <v>88.73834490731072</v>
+        <v>76.99319286751505</v>
       </c>
     </row>
     <row r="614">
@@ -10261,10 +10261,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>354.7724442128882</v>
+        <v>389.9215291045977</v>
       </c>
       <c r="D614" t="n">
-        <v>80.88878821645069</v>
+        <v>85.6637269941903</v>
       </c>
     </row>
     <row r="615">
@@ -10277,10 +10277,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>109.2505906749905</v>
+        <v>490.5464022939576</v>
       </c>
       <c r="D615" t="n">
-        <v>83.02382695208445</v>
+        <v>87.47771138670808</v>
       </c>
     </row>
     <row r="616">
@@ -10293,10 +10293,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>177.8121390369554</v>
+        <v>381.669491147692</v>
       </c>
       <c r="D616" t="n">
-        <v>96.56779232993898</v>
+        <v>96.20031069610057</v>
       </c>
     </row>
     <row r="617">
@@ -10309,10 +10309,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>382.9700465173146</v>
+        <v>298.9162714440657</v>
       </c>
       <c r="D617" t="n">
-        <v>81.48360915538393</v>
+        <v>83.35255852304633</v>
       </c>
     </row>
     <row r="618">
@@ -10325,10 +10325,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>444.0662007604504</v>
+        <v>466.8151662263873</v>
       </c>
       <c r="D618" t="n">
-        <v>88.21604391425849</v>
+        <v>80.81735387643268</v>
       </c>
     </row>
     <row r="619">
@@ -10341,10 +10341,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>222.9865194996209</v>
+        <v>201.3915037262196</v>
       </c>
       <c r="D619" t="n">
-        <v>87.61485471666903</v>
+        <v>75.70046129510398</v>
       </c>
     </row>
     <row r="620">
@@ -10357,10 +10357,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>177.4645588357568</v>
+        <v>126.1918132563222</v>
       </c>
       <c r="D620" t="n">
-        <v>89.99568924326407</v>
+        <v>93.32375216628064</v>
       </c>
     </row>
     <row r="621">
@@ -10373,10 +10373,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>194.4457732771363</v>
+        <v>333.1925638493653</v>
       </c>
       <c r="D621" t="n">
-        <v>78.49182867049565</v>
+        <v>90.18815869334871</v>
       </c>
     </row>
     <row r="622">
@@ -10389,10 +10389,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>247.5692703446281</v>
+        <v>254.1500678494471</v>
       </c>
       <c r="D622" t="n">
-        <v>92.29683204686279</v>
+        <v>93.14409253984581</v>
       </c>
     </row>
     <row r="623">
@@ -10405,10 +10405,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>495.0019050961535</v>
+        <v>469.2637885277091</v>
       </c>
       <c r="D623" t="n">
-        <v>89.55834849923127</v>
+        <v>93.31196208039054</v>
       </c>
     </row>
     <row r="624">
@@ -10421,10 +10421,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>366.2708013678559</v>
+        <v>355.5514493789702</v>
       </c>
       <c r="D624" t="n">
-        <v>83.75854891070932</v>
+        <v>79.63807555750361</v>
       </c>
     </row>
     <row r="625">
@@ -10437,10 +10437,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>223.939906689362</v>
+        <v>445.2158498965737</v>
       </c>
       <c r="D625" t="n">
-        <v>83.5349553581502</v>
+        <v>97.64582463291349</v>
       </c>
     </row>
     <row r="626">
@@ -10453,10 +10453,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>247.6670098733809</v>
+        <v>311.5753396846296</v>
       </c>
       <c r="D626" t="n">
-        <v>90.87144682863833</v>
+        <v>77.30528429256572</v>
       </c>
     </row>
     <row r="627">
@@ -10469,10 +10469,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>275.9933980971241</v>
+        <v>105.5528801157789</v>
       </c>
       <c r="D627" t="n">
-        <v>79.60440003352103</v>
+        <v>94.75860760048792</v>
       </c>
     </row>
     <row r="628">
@@ -10485,10 +10485,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>472.2167660176269</v>
+        <v>322.0815753583537</v>
       </c>
       <c r="D628" t="n">
-        <v>95.43403035353256</v>
+        <v>75.67973430270536</v>
       </c>
     </row>
     <row r="629">
@@ -10501,10 +10501,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>296.0000734151046</v>
+        <v>191.9716121388864</v>
       </c>
       <c r="D629" t="n">
-        <v>80.93165258046119</v>
+        <v>81.3188353916978</v>
       </c>
     </row>
     <row r="630">
@@ -10517,10 +10517,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>286.7038372202415</v>
+        <v>329.8975453488534</v>
       </c>
       <c r="D630" t="n">
-        <v>82.2733262290088</v>
+        <v>91.99401141710433</v>
       </c>
     </row>
     <row r="631">
@@ -10533,10 +10533,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>428.1631226963752</v>
+        <v>135.2443614468058</v>
       </c>
       <c r="D631" t="n">
-        <v>82.71066503148599</v>
+        <v>91.43303994245601</v>
       </c>
     </row>
     <row r="632">
@@ -10549,10 +10549,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>246.4333256893455</v>
+        <v>362.1609693106651</v>
       </c>
       <c r="D632" t="n">
-        <v>90.26809615219838</v>
+        <v>79.97299778078566</v>
       </c>
     </row>
     <row r="633">
@@ -10565,10 +10565,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>320.8577403453594</v>
+        <v>324.8743561076815</v>
       </c>
       <c r="D633" t="n">
-        <v>76.10056674044998</v>
+        <v>82.04406002051837</v>
       </c>
     </row>
     <row r="634">
@@ -10581,10 +10581,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>335.9288622300276</v>
+        <v>405.0697479760677</v>
       </c>
       <c r="D634" t="n">
-        <v>76.91390062252214</v>
+        <v>77.29200076726062</v>
       </c>
     </row>
     <row r="635">
@@ -10597,10 +10597,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>219.1823921928203</v>
+        <v>418.7596613364366</v>
       </c>
       <c r="D635" t="n">
-        <v>90.29868612373201</v>
+        <v>78.45328299719773</v>
       </c>
     </row>
     <row r="636">
@@ -10613,10 +10613,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>247.834100216029</v>
+        <v>462.6211701982912</v>
       </c>
       <c r="D636" t="n">
-        <v>87.03315271523701</v>
+        <v>97.94165664357678</v>
       </c>
     </row>
     <row r="637">
@@ -10629,10 +10629,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>296.2999316343829</v>
+        <v>155.3547363801124</v>
       </c>
       <c r="D637" t="n">
-        <v>82.4898473151375</v>
+        <v>82.3249788010274</v>
       </c>
     </row>
     <row r="638">
@@ -10645,10 +10645,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>300.6499351719561</v>
+        <v>109.5082200800608</v>
       </c>
       <c r="D638" t="n">
-        <v>91.72098502372209</v>
+        <v>76.02198510050678</v>
       </c>
     </row>
     <row r="639">
@@ -10661,10 +10661,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>357.067502983798</v>
+        <v>370.9690678654115</v>
       </c>
       <c r="D639" t="n">
-        <v>88.54304799716364</v>
+        <v>88.31901238178163</v>
       </c>
     </row>
     <row r="640">
@@ -10677,10 +10677,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>432.094065678355</v>
+        <v>464.453324392699</v>
       </c>
       <c r="D640" t="n">
-        <v>81.16029326413633</v>
+        <v>92.00033890499117</v>
       </c>
     </row>
     <row r="641">
@@ -10693,10 +10693,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>229.0783972057341</v>
+        <v>172.3618362727508</v>
       </c>
       <c r="D641" t="n">
-        <v>78.62877925355468</v>
+        <v>90.22784911044859</v>
       </c>
     </row>
     <row r="642">
@@ -10709,10 +10709,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>428.8404897832364</v>
+        <v>473.0600953615111</v>
       </c>
       <c r="D642" t="n">
-        <v>87.90879810659939</v>
+        <v>95.17901255666646</v>
       </c>
     </row>
     <row r="643">
@@ -10725,10 +10725,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>233.9967272853398</v>
+        <v>220.8336112929281</v>
       </c>
       <c r="D643" t="n">
-        <v>97.92247491690011</v>
+        <v>77.39874249471296</v>
       </c>
     </row>
     <row r="644">
@@ -10741,10 +10741,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>282.2992170136322</v>
+        <v>378.3248873341469</v>
       </c>
       <c r="D644" t="n">
-        <v>85.38992833136919</v>
+        <v>79.75583169127361</v>
       </c>
     </row>
     <row r="645">
@@ -10757,10 +10757,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>247.9056738630227</v>
+        <v>127.776107216353</v>
       </c>
       <c r="D645" t="n">
-        <v>75.26019262491056</v>
+        <v>81.34511571121796</v>
       </c>
     </row>
     <row r="646">
@@ -10773,10 +10773,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>496.1769101040962</v>
+        <v>230.51502459358</v>
       </c>
       <c r="D646" t="n">
-        <v>87.30649908618666</v>
+        <v>89.5132026419393</v>
       </c>
     </row>
     <row r="647">
@@ -10789,10 +10789,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>255.3882850363649</v>
+        <v>106.4028469560566</v>
       </c>
       <c r="D647" t="n">
-        <v>91.70643405373049</v>
+        <v>84.9801149414826</v>
       </c>
     </row>
     <row r="648">
@@ -10805,10 +10805,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>227.4450792309653</v>
+        <v>107.6141698483706</v>
       </c>
       <c r="D648" t="n">
-        <v>91.27254101349013</v>
+        <v>77.37547111385688</v>
       </c>
     </row>
     <row r="649">
@@ -10821,10 +10821,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>380.8678096347839</v>
+        <v>457.7485399448589</v>
       </c>
       <c r="D649" t="n">
-        <v>87.08430595566662</v>
+        <v>85.50650782725137</v>
       </c>
     </row>
     <row r="650">
@@ -10837,10 +10837,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>312.345853934723</v>
+        <v>199.9009925826944</v>
       </c>
       <c r="D650" t="n">
-        <v>85.22949153127419</v>
+        <v>75.7189840749046</v>
       </c>
     </row>
     <row r="651">
@@ -10853,10 +10853,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>344.6423533981529</v>
+        <v>361.9397110001672</v>
       </c>
       <c r="D651" t="n">
-        <v>94.26134283318005</v>
+        <v>95.37997162855365</v>
       </c>
     </row>
     <row r="652">
@@ -10869,10 +10869,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>136.5834299501069</v>
+        <v>236.0930763713615</v>
       </c>
       <c r="D652" t="n">
-        <v>93.0232611048917</v>
+        <v>75.47357793013641</v>
       </c>
     </row>
     <row r="653">
@@ -10885,10 +10885,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>315.9301280972648</v>
+        <v>271.8336553188182</v>
       </c>
       <c r="D653" t="n">
-        <v>80.96707058579689</v>
+        <v>96.22998266415024</v>
       </c>
     </row>
     <row r="654">
@@ -10901,10 +10901,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>483.870516610986</v>
+        <v>440.9729367355654</v>
       </c>
       <c r="D654" t="n">
-        <v>83.09335183372725</v>
+        <v>94.07929019504452</v>
       </c>
     </row>
     <row r="655">
@@ -10917,10 +10917,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>281.1074079473128</v>
+        <v>360.0764618291351</v>
       </c>
       <c r="D655" t="n">
-        <v>85.30656824528172</v>
+        <v>88.97136346944185</v>
       </c>
     </row>
     <row r="656">
@@ -10933,10 +10933,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>272.7332810479299</v>
+        <v>442.4638858158613</v>
       </c>
       <c r="D656" t="n">
-        <v>77.2713165592116</v>
+        <v>95.56964716298263</v>
       </c>
     </row>
     <row r="657">
@@ -10949,10 +10949,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>201.4393416174287</v>
+        <v>308.9049911344644</v>
       </c>
       <c r="D657" t="n">
-        <v>88.71790482411927</v>
+        <v>97.73538539001542</v>
       </c>
     </row>
     <row r="658">
@@ -10965,10 +10965,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>240.7361278817621</v>
+        <v>323.1652514839002</v>
       </c>
       <c r="D658" t="n">
-        <v>75.32683917528533</v>
+        <v>96.8199860196646</v>
       </c>
     </row>
     <row r="659">
@@ -10981,10 +10981,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>144.4742538081701</v>
+        <v>239.5619467822164</v>
       </c>
       <c r="D659" t="n">
-        <v>92.54182926244229</v>
+        <v>87.8500672508287</v>
       </c>
     </row>
     <row r="660">
@@ -10997,10 +10997,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>254.2519644957819</v>
+        <v>150.1792558998059</v>
       </c>
       <c r="D660" t="n">
-        <v>95.91528846802018</v>
+        <v>77.15218397535267</v>
       </c>
     </row>
     <row r="661">
@@ -11013,10 +11013,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>194.30219132325</v>
+        <v>271.8980570466516</v>
       </c>
       <c r="D661" t="n">
-        <v>90.23598321266455</v>
+        <v>76.13330534489181</v>
       </c>
     </row>
     <row r="662">
@@ -11029,10 +11029,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>253.1718680182928</v>
+        <v>204.494620972207</v>
       </c>
       <c r="D662" t="n">
-        <v>91.60760321981584</v>
+        <v>76.32517255726303</v>
       </c>
     </row>
     <row r="663">
@@ -11045,10 +11045,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>422.8930612432501</v>
+        <v>236.4237977478107</v>
       </c>
       <c r="D663" t="n">
-        <v>82.45989657420954</v>
+        <v>77.19456662314701</v>
       </c>
     </row>
     <row r="664">
@@ -11061,10 +11061,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>404.2962410317154</v>
+        <v>210.7595912690376</v>
       </c>
       <c r="D664" t="n">
-        <v>75.18661274834773</v>
+        <v>80.42396839561331</v>
       </c>
     </row>
     <row r="665">
@@ -11077,10 +11077,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>213.7320827248481</v>
+        <v>150.7959669094703</v>
       </c>
       <c r="D665" t="n">
-        <v>91.69435408140535</v>
+        <v>85.11716090196499</v>
       </c>
     </row>
     <row r="666">
@@ -11093,10 +11093,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>285.0401389914811</v>
+        <v>206.1265454261572</v>
       </c>
       <c r="D666" t="n">
-        <v>93.23706250446284</v>
+        <v>87.07156001866839</v>
       </c>
     </row>
     <row r="667">
@@ -11109,10 +11109,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>183.1597316401912</v>
+        <v>464.4925913264992</v>
       </c>
       <c r="D667" t="n">
-        <v>75.8319487554609</v>
+        <v>97.94432567169009</v>
       </c>
     </row>
     <row r="668">
@@ -11125,10 +11125,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>432.6626781393359</v>
+        <v>484.6434298479566</v>
       </c>
       <c r="D668" t="n">
-        <v>87.87548769622795</v>
+        <v>94.07734775610592</v>
       </c>
     </row>
     <row r="669">
@@ -11141,10 +11141,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>325.7699735258563</v>
+        <v>145.6245335434233</v>
       </c>
       <c r="D669" t="n">
-        <v>80.39569854306113</v>
+        <v>96.90321680029442</v>
       </c>
     </row>
     <row r="670">
@@ -11157,10 +11157,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>462.8678016845143</v>
+        <v>308.2432951552785</v>
       </c>
       <c r="D670" t="n">
-        <v>78.41810833098616</v>
+        <v>89.64160820080096</v>
       </c>
     </row>
     <row r="671">
@@ -11173,10 +11173,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>341.6776168918063</v>
+        <v>422.7136037612017</v>
       </c>
       <c r="D671" t="n">
-        <v>77.06766246475983</v>
+        <v>85.95808947935544</v>
       </c>
     </row>
     <row r="672">
@@ -11189,10 +11189,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>243.4349658011866</v>
+        <v>296.2819751636073</v>
       </c>
       <c r="D672" t="n">
-        <v>97.02235159639893</v>
+        <v>92.2981908589349</v>
       </c>
     </row>
     <row r="673">
@@ -11205,10 +11205,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>215.7124880068698</v>
+        <v>316.8401084837182</v>
       </c>
       <c r="D673" t="n">
-        <v>78.99110870639588</v>
+        <v>91.46271947730719</v>
       </c>
     </row>
     <row r="674">
@@ -11221,10 +11221,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>355.2485516482778</v>
+        <v>260.681844176017</v>
       </c>
       <c r="D674" t="n">
-        <v>97.32875463998356</v>
+        <v>78.51045364465205</v>
       </c>
     </row>
     <row r="675">
@@ -11237,10 +11237,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>410.5953291345893</v>
+        <v>178.4749811321092</v>
       </c>
       <c r="D675" t="n">
-        <v>91.01234425275608</v>
+        <v>93.15193513315388</v>
       </c>
     </row>
     <row r="676">
@@ -11253,10 +11253,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>403.347724290366</v>
+        <v>184.2820344625203</v>
       </c>
       <c r="D676" t="n">
-        <v>89.71559118950447</v>
+        <v>95.47655753483443</v>
       </c>
     </row>
     <row r="677">
@@ -11269,10 +11269,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>271.5770401692603</v>
+        <v>336.0889470024586</v>
       </c>
       <c r="D677" t="n">
-        <v>93.85441291620758</v>
+        <v>85.71144810029695</v>
       </c>
     </row>
     <row r="678">
@@ -11285,10 +11285,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>229.5769474957315</v>
+        <v>101.7328450368885</v>
       </c>
       <c r="D678" t="n">
-        <v>86.93438099608547</v>
+        <v>80.01915097870724</v>
       </c>
     </row>
     <row r="679">
@@ -11301,10 +11301,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>452.9793433268499</v>
+        <v>174.3098583533061</v>
       </c>
       <c r="D679" t="n">
-        <v>77.7398184344167</v>
+        <v>82.73898060195441</v>
       </c>
     </row>
     <row r="680">
@@ -11317,10 +11317,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>197.7822500252046</v>
+        <v>102.136680176622</v>
       </c>
       <c r="D680" t="n">
-        <v>90.54074487586657</v>
+        <v>78.2406597366875</v>
       </c>
     </row>
     <row r="681">
@@ -11333,10 +11333,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>338.9372766666921</v>
+        <v>182.9731353230501</v>
       </c>
       <c r="D681" t="n">
-        <v>89.71695120566756</v>
+        <v>96.21569201464479</v>
       </c>
     </row>
     <row r="682">
@@ -11349,10 +11349,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>466.1763696404625</v>
+        <v>312.4825672660738</v>
       </c>
       <c r="D682" t="n">
-        <v>94.00346801185187</v>
+        <v>85.07006030178799</v>
       </c>
     </row>
     <row r="683">
@@ -11365,10 +11365,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>467.0320940714898</v>
+        <v>165.1647224351565</v>
       </c>
       <c r="D683" t="n">
-        <v>88.39845188954686</v>
+        <v>94.59513085099545</v>
       </c>
     </row>
     <row r="684">
@@ -11381,10 +11381,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>211.806668630759</v>
+        <v>228.5556000142502</v>
       </c>
       <c r="D684" t="n">
-        <v>93.19662687543821</v>
+        <v>93.51972448328829</v>
       </c>
     </row>
     <row r="685">
@@ -11397,10 +11397,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>435.5517986234502</v>
+        <v>156.1081210363207</v>
       </c>
       <c r="D685" t="n">
-        <v>85.38980751684862</v>
+        <v>88.96336016644985</v>
       </c>
     </row>
     <row r="686">
@@ -11413,10 +11413,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>400.34650467731</v>
+        <v>176.8872317429956</v>
       </c>
       <c r="D686" t="n">
-        <v>92.64904537636308</v>
+        <v>75.709364826871</v>
       </c>
     </row>
     <row r="687">
@@ -11429,10 +11429,10 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>212.1901928594666</v>
+        <v>369.7391837367142</v>
       </c>
       <c r="D687" t="n">
-        <v>94.97541288059969</v>
+        <v>82.90792850610296</v>
       </c>
     </row>
     <row r="688">
@@ -11445,10 +11445,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>173.5738660717907</v>
+        <v>196.6015746405359</v>
       </c>
       <c r="D688" t="n">
-        <v>94.83484530454982</v>
+        <v>95.07984787902114</v>
       </c>
     </row>
     <row r="689">
@@ -11461,10 +11461,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>470.1828853230928</v>
+        <v>117.0295282409428</v>
       </c>
       <c r="D689" t="n">
-        <v>96.00131453855046</v>
+        <v>89.88246731157101</v>
       </c>
     </row>
     <row r="690">
@@ -11477,10 +11477,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>225.5007697276281</v>
+        <v>283.6001602210504</v>
       </c>
       <c r="D690" t="n">
-        <v>85.75768556555241</v>
+        <v>97.1156787004083</v>
       </c>
     </row>
     <row r="691">
@@ -11493,10 +11493,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>476.3823253884433</v>
+        <v>223.5381755950228</v>
       </c>
       <c r="D691" t="n">
-        <v>91.57474367523872</v>
+        <v>85.71493131002458</v>
       </c>
     </row>
     <row r="692">
@@ -11509,10 +11509,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>432.9626952310426</v>
+        <v>314.4723701564406</v>
       </c>
       <c r="D692" t="n">
-        <v>83.05765687069893</v>
+        <v>89.80641225769291</v>
       </c>
     </row>
     <row r="693">
@@ -11525,10 +11525,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>288.7373020538574</v>
+        <v>299.8626609052844</v>
       </c>
       <c r="D693" t="n">
-        <v>77.16390809106714</v>
+        <v>81.72124397057918</v>
       </c>
     </row>
     <row r="694">
@@ -11541,10 +11541,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>169.8207541425935</v>
+        <v>294.29870483402</v>
       </c>
       <c r="D694" t="n">
-        <v>84.36879645232905</v>
+        <v>88.61053265569117</v>
       </c>
     </row>
     <row r="695">
@@ -11557,10 +11557,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>297.4683803615987</v>
+        <v>362.8511325297549</v>
       </c>
       <c r="D695" t="n">
-        <v>84.24096409961697</v>
+        <v>92.77564111285876</v>
       </c>
     </row>
     <row r="696">
@@ -11573,10 +11573,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>180.2149411682711</v>
+        <v>228.4044151575319</v>
       </c>
       <c r="D696" t="n">
-        <v>83.11342797452022</v>
+        <v>93.02061044833452</v>
       </c>
     </row>
     <row r="697">
@@ -11589,10 +11589,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>423.0837594646455</v>
+        <v>121.7713657766237</v>
       </c>
       <c r="D697" t="n">
-        <v>94.06432235586219</v>
+        <v>97.8917310224046</v>
       </c>
     </row>
     <row r="698">
@@ -11605,10 +11605,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>404.2954215098408</v>
+        <v>371.3237811681159</v>
       </c>
       <c r="D698" t="n">
-        <v>91.82665710022491</v>
+        <v>83.3089453075015</v>
       </c>
     </row>
     <row r="699">
@@ -11621,10 +11621,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>147.8233805904854</v>
+        <v>181.1761230006765</v>
       </c>
       <c r="D699" t="n">
-        <v>92.71473810751365</v>
+        <v>90.69029177717621</v>
       </c>
     </row>
     <row r="700">
@@ -11637,10 +11637,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>111.5129216316831</v>
+        <v>355.9547820102125</v>
       </c>
       <c r="D700" t="n">
-        <v>86.12021792750969</v>
+        <v>83.83815977496741</v>
       </c>
     </row>
     <row r="701">
@@ -11653,10 +11653,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>204.8563811844078</v>
+        <v>265.112062688512</v>
       </c>
       <c r="D701" t="n">
-        <v>90.2284100250022</v>
+        <v>76.42571895046194</v>
       </c>
     </row>
     <row r="702">
@@ -11669,10 +11669,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>357.5533770254569</v>
+        <v>467.5531046436545</v>
       </c>
       <c r="D702" t="n">
-        <v>82.56791259878776</v>
+        <v>93.49417417901046</v>
       </c>
     </row>
     <row r="703">
@@ -11685,10 +11685,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>164.8868608636035</v>
+        <v>238.0486991082269</v>
       </c>
       <c r="D703" t="n">
-        <v>80.81893026485423</v>
+        <v>83.26083595670825</v>
       </c>
     </row>
     <row r="704">
@@ -11701,10 +11701,10 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>364.816079221387</v>
+        <v>495.6523560416114</v>
       </c>
       <c r="D704" t="n">
-        <v>89.55662549276036</v>
+        <v>94.85288429056382</v>
       </c>
     </row>
     <row r="705">
@@ -11717,10 +11717,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>134.9012202878834</v>
+        <v>287.3295401179826</v>
       </c>
       <c r="D705" t="n">
-        <v>88.68929868861545</v>
+        <v>94.11224553423867</v>
       </c>
     </row>
     <row r="706">
@@ -11733,10 +11733,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>425.3384589224379</v>
+        <v>199.2189664645048</v>
       </c>
       <c r="D706" t="n">
-        <v>97.83572803166753</v>
+        <v>97.00135259650347</v>
       </c>
     </row>
     <row r="707">
@@ -11749,10 +11749,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>382.3059704385429</v>
+        <v>450.0827726667764</v>
       </c>
       <c r="D707" t="n">
-        <v>85.93747813055376</v>
+        <v>91.15649760572293</v>
       </c>
     </row>
     <row r="708">
@@ -11765,10 +11765,10 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>172.8651301224989</v>
+        <v>180.0186403030905</v>
       </c>
       <c r="D708" t="n">
-        <v>77.52333175130178</v>
+        <v>89.64230995786687</v>
       </c>
     </row>
     <row r="709">
@@ -11781,10 +11781,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>305.1004316100989</v>
+        <v>377.6409799090704</v>
       </c>
       <c r="D709" t="n">
-        <v>81.89542426782495</v>
+        <v>83.66998591957285</v>
       </c>
     </row>
     <row r="710">
@@ -11797,10 +11797,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>453.6002364768098</v>
+        <v>187.8012660776888</v>
       </c>
       <c r="D710" t="n">
-        <v>83.637289218178</v>
+        <v>76.77344709204742</v>
       </c>
     </row>
     <row r="711">
@@ -11813,10 +11813,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>470.1202709057343</v>
+        <v>104.4595979834722</v>
       </c>
       <c r="D711" t="n">
-        <v>93.88472384403886</v>
+        <v>91.52407139628255</v>
       </c>
     </row>
     <row r="712">
@@ -11829,10 +11829,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>380.8418961830884</v>
+        <v>473.1925856202645</v>
       </c>
       <c r="D712" t="n">
-        <v>81.69524601049997</v>
+        <v>87.03032471150536</v>
       </c>
     </row>
     <row r="713">
@@ -11845,10 +11845,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>332.0275998783484</v>
+        <v>424.8397497597496</v>
       </c>
       <c r="D713" t="n">
-        <v>83.04284347870251</v>
+        <v>87.434684344049</v>
       </c>
     </row>
     <row r="714">
@@ -11861,10 +11861,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>213.1170566015237</v>
+        <v>174.262451327449</v>
       </c>
       <c r="D714" t="n">
-        <v>94.76488491794508</v>
+        <v>92.64337941893827</v>
       </c>
     </row>
     <row r="715">
@@ -11877,10 +11877,10 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>319.0074288978043</v>
+        <v>309.6472691542432</v>
       </c>
       <c r="D715" t="n">
-        <v>96.51721536198818</v>
+        <v>81.33663309360175</v>
       </c>
     </row>
     <row r="716">
@@ -11893,10 +11893,10 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>444.2648574670249</v>
+        <v>346.4494474014045</v>
       </c>
       <c r="D716" t="n">
-        <v>92.3960106897979</v>
+        <v>80.41274235119177</v>
       </c>
     </row>
     <row r="717">
@@ -11909,10 +11909,10 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>270.969952100545</v>
+        <v>129.024033449466</v>
       </c>
       <c r="D717" t="n">
-        <v>96.31566549858653</v>
+        <v>82.58558413654519</v>
       </c>
     </row>
     <row r="718">
@@ -11925,10 +11925,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>174.1283085623597</v>
+        <v>326.8891444017301</v>
       </c>
       <c r="D718" t="n">
-        <v>93.46214172245107</v>
+        <v>76.6195351278777</v>
       </c>
     </row>
     <row r="719">
@@ -11941,10 +11941,10 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>390.1420888082995</v>
+        <v>185.9681522730804</v>
       </c>
       <c r="D719" t="n">
-        <v>87.05308785099567</v>
+        <v>77.18171185079169</v>
       </c>
     </row>
     <row r="720">
@@ -11957,10 +11957,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>414.5128280798095</v>
+        <v>410.99687873406</v>
       </c>
       <c r="D720" t="n">
-        <v>89.3653897303177</v>
+        <v>80.53646597101212</v>
       </c>
     </row>
     <row r="721">
@@ -11973,10 +11973,10 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>236.9852923785108</v>
+        <v>457.3588032183011</v>
       </c>
       <c r="D721" t="n">
-        <v>96.89736175179591</v>
+        <v>95.59942680449174</v>
       </c>
     </row>
     <row r="722">
@@ -11989,10 +11989,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>310.8556608689321</v>
+        <v>497.3981992440508</v>
       </c>
       <c r="D722" t="n">
-        <v>92.28366366539881</v>
+        <v>95.51245299407299</v>
       </c>
     </row>
     <row r="723">
@@ -12005,10 +12005,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>357.3146181674762</v>
+        <v>373.3618519180749</v>
       </c>
       <c r="D723" t="n">
-        <v>89.8546345623176</v>
+        <v>96.80376969222965</v>
       </c>
     </row>
     <row r="724">
@@ -12021,10 +12021,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>224.3715857099753</v>
+        <v>238.2331633033684</v>
       </c>
       <c r="D724" t="n">
-        <v>84.82346798121878</v>
+        <v>79.97328701284819</v>
       </c>
     </row>
     <row r="725">
@@ -12037,10 +12037,10 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>288.6423593280567</v>
+        <v>395.3633028300798</v>
       </c>
       <c r="D725" t="n">
-        <v>95.78697540568794</v>
+        <v>91.58602090073666</v>
       </c>
     </row>
     <row r="726">
@@ -12053,10 +12053,10 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>136.6696089988575</v>
+        <v>206.1789902238041</v>
       </c>
       <c r="D726" t="n">
-        <v>83.4475738252118</v>
+        <v>89.25401900400868</v>
       </c>
     </row>
     <row r="727">
@@ -12069,10 +12069,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>264.1970113450895</v>
+        <v>317.2769808786566</v>
       </c>
       <c r="D727" t="n">
-        <v>86.30429718146546</v>
+        <v>76.90448299928443</v>
       </c>
     </row>
     <row r="728">
@@ -12085,10 +12085,10 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>255.2497998604211</v>
+        <v>385.1245265639236</v>
       </c>
       <c r="D728" t="n">
-        <v>78.77513382177287</v>
+        <v>82.80061568356332</v>
       </c>
     </row>
     <row r="729">
@@ -12101,10 +12101,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>196.2914122076825</v>
+        <v>358.3948575239436</v>
       </c>
       <c r="D729" t="n">
-        <v>78.00554291355351</v>
+        <v>92.28271891459123</v>
       </c>
     </row>
     <row r="730">
@@ -12117,10 +12117,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>244.6363951301421</v>
+        <v>312.5908734122468</v>
       </c>
       <c r="D730" t="n">
-        <v>75.45483717305342</v>
+        <v>97.73987257447001</v>
       </c>
     </row>
     <row r="731">
@@ -12133,10 +12133,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>274.8280442850736</v>
+        <v>364.6119628893834</v>
       </c>
       <c r="D731" t="n">
-        <v>87.70241165788183</v>
+        <v>75.49601580397025</v>
       </c>
     </row>
     <row r="732">
@@ -12149,10 +12149,10 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>234.3511522877484</v>
+        <v>244.9812606839056</v>
       </c>
       <c r="D732" t="n">
-        <v>83.42387033984566</v>
+        <v>91.1735628634291</v>
       </c>
     </row>
     <row r="733">
@@ -12165,10 +12165,10 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>126.0149858187764</v>
+        <v>490.5107453015442</v>
       </c>
       <c r="D733" t="n">
-        <v>84.30122125483386</v>
+        <v>96.41331591376556</v>
       </c>
     </row>
   </sheetData>
